--- a/document/周报数据表.xlsx
+++ b/document/周报数据表.xlsx
@@ -11,7 +11,6 @@
     <sheet name="百分比统计" sheetId="2" r:id="rId2"/>
     <sheet name="本周游戏数据" sheetId="3" r:id="rId3"/>
     <sheet name="上周游戏数据" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
   <si>
     <r>
       <rPr>
@@ -677,7 +676,7 @@
     <t>DF1076</t>
   </si>
   <si>
-    <t>byal01</t>
+    <t>jc0002</t>
   </si>
   <si>
     <r>
@@ -713,10 +712,29 @@
     </r>
   </si>
   <si>
-    <t>byj001</t>
-  </si>
-  <si>
-    <t>jc0002</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k9999</t>
+    </r>
+  </si>
+  <si>
+    <t>byj003</t>
   </si>
   <si>
     <t>日期</t>
@@ -795,6 +813,9 @@
   </si>
   <si>
     <t>盈利</t>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
   <si>
     <r>
@@ -1998,7 +2019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2075,6 +2096,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2086,6 +2110,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2630,24 +2657,24 @@
   <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="9.38333333333333"/>
-    <col min="8" max="8" width="11.6333333333333"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="8" max="8" width="11.625"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="9.25"/>
-    <col min="13" max="13" width="11.8833333333333" customWidth="1"/>
+    <col min="12" max="12" width="9.25833333333333"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="9.25"/>
-    <col min="17" max="17" width="9.25"/>
-    <col min="18" max="18" width="15.75" customWidth="1"/>
-    <col min="19" max="19" width="11.3833333333333" customWidth="1"/>
-    <col min="23" max="23" width="11.3833333333333" customWidth="1"/>
-    <col min="24" max="25" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="9.25833333333333"/>
+    <col min="17" max="17" width="9.25833333333333"/>
+    <col min="18" max="18" width="15.7583333333333" customWidth="1"/>
+    <col min="19" max="19" width="11.375" customWidth="1"/>
+    <col min="23" max="23" width="11.375" customWidth="1"/>
+    <col min="24" max="24" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1"/>
@@ -2719,10 +2746,10 @@
       <c r="W2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2791,85 +2818,88 @@
         <v>27</v>
       </c>
       <c r="C4" s="14">
-        <v>37</v>
+        <f t="shared" ref="C4:Y5" si="0">C8+C12+C16</f>
+        <v>30</v>
       </c>
       <c r="D4" s="14">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="14">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F4" s="14">
-        <f t="shared" ref="F4:W4" si="0">SUM(F8+F12+F16)</f>
-        <v>665</v>
+        <f t="shared" ref="F4:W4" si="1">SUM(F8+F12+F16)</f>
+        <v>551</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" si="0"/>
-        <v>2796</v>
+        <f t="shared" si="1"/>
+        <v>2586</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" si="0"/>
-        <v>1307</v>
+        <f t="shared" si="1"/>
+        <v>1233</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" si="0"/>
-        <v>1037</v>
+        <f t="shared" si="1"/>
+        <v>971</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" si="0"/>
-        <v>7591</v>
+        <f t="shared" si="1"/>
+        <v>6583</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" si="0"/>
-        <v>4645328.2</v>
+        <f t="shared" si="1"/>
+        <v>5013185.25</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" si="0"/>
-        <v>687</v>
+        <f t="shared" si="1"/>
+        <v>606</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" si="0"/>
-        <v>2570</v>
+        <f t="shared" si="1"/>
+        <v>2101</v>
       </c>
       <c r="O4" s="14">
-        <f t="shared" si="0"/>
-        <v>7219355</v>
+        <f t="shared" si="1"/>
+        <v>4279962</v>
       </c>
       <c r="P4" s="14">
-        <f t="shared" si="0"/>
-        <v>161</v>
+        <f t="shared" si="1"/>
+        <v>128</v>
       </c>
       <c r="Q4" s="14">
-        <f t="shared" si="0"/>
-        <v>1119972</v>
+        <f t="shared" si="1"/>
+        <v>1041717</v>
       </c>
       <c r="R4" s="14">
-        <f t="shared" si="0"/>
-        <v>39176108</v>
+        <f t="shared" si="1"/>
+        <v>98744831</v>
       </c>
       <c r="S4" s="14">
-        <f t="shared" si="0"/>
-        <v>900978</v>
+        <f t="shared" si="1"/>
+        <v>1737772.63</v>
       </c>
       <c r="T4" s="14">
-        <f t="shared" si="0"/>
-        <v>196079.06</v>
+        <f t="shared" si="1"/>
+        <v>134333.16</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" si="0"/>
-        <v>101921.5506</v>
+        <f t="shared" si="1"/>
+        <v>80248.4832</v>
       </c>
       <c r="V4" s="14">
-        <f t="shared" si="0"/>
-        <v>3486.1613</v>
+        <f t="shared" si="1"/>
+        <v>1724.4473</v>
       </c>
       <c r="W4" s="14">
-        <f t="shared" si="0"/>
-        <v>599491.2281</v>
+        <f t="shared" si="1"/>
+        <v>1521466.5395</v>
       </c>
       <c r="X4" s="14">
         <v>1246</v>
@@ -2884,96 +2914,96 @@
         <v>28</v>
       </c>
       <c r="C5" s="14">
-        <f>C9+C13+C17</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D5" s="14">
-        <f t="shared" ref="D5:Y6" si="1">D9+D13+D17</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" si="1"/>
-        <v>551</v>
+        <f t="shared" si="0"/>
+        <v>485</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="H5" s="14">
-        <f t="shared" si="1"/>
-        <v>2586</v>
+        <f t="shared" si="0"/>
+        <v>2390</v>
       </c>
       <c r="I5" s="14">
-        <f t="shared" si="1"/>
-        <v>1233</v>
+        <f t="shared" si="0"/>
+        <v>1153</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="1"/>
-        <v>971</v>
+        <f t="shared" si="0"/>
+        <v>940</v>
       </c>
       <c r="K5" s="14">
-        <f t="shared" si="1"/>
-        <v>6583</v>
+        <f t="shared" si="0"/>
+        <v>6355</v>
       </c>
       <c r="L5" s="14">
-        <f t="shared" si="1"/>
-        <v>5013185.25</v>
+        <f t="shared" si="0"/>
+        <v>4793932</v>
       </c>
       <c r="M5" s="14">
-        <f t="shared" si="1"/>
-        <v>606</v>
+        <f t="shared" si="0"/>
+        <v>555</v>
       </c>
       <c r="N5" s="14">
-        <f t="shared" si="1"/>
-        <v>2101</v>
+        <f t="shared" si="0"/>
+        <v>2107</v>
       </c>
       <c r="O5" s="14">
-        <f t="shared" si="1"/>
-        <v>4279962</v>
+        <f t="shared" si="0"/>
+        <v>4205683</v>
       </c>
       <c r="P5" s="14">
-        <f t="shared" si="1"/>
-        <v>128</v>
+        <f t="shared" si="0"/>
+        <v>122</v>
       </c>
       <c r="Q5" s="14">
-        <f t="shared" si="1"/>
-        <v>1041717</v>
+        <f t="shared" si="0"/>
+        <v>1119549</v>
       </c>
       <c r="R5" s="14">
-        <f t="shared" si="1"/>
-        <v>98744831</v>
+        <f t="shared" si="0"/>
+        <v>34732790</v>
       </c>
       <c r="S5" s="14">
-        <f t="shared" si="1"/>
-        <v>1737772.63</v>
+        <f t="shared" si="0"/>
+        <v>690671.48</v>
       </c>
       <c r="T5" s="14">
-        <f t="shared" si="1"/>
-        <v>134333.16</v>
+        <f t="shared" si="0"/>
+        <v>101360.9</v>
       </c>
       <c r="U5" s="14">
-        <f t="shared" si="1"/>
-        <v>80248.4832</v>
+        <f t="shared" si="0"/>
+        <v>135808.4698</v>
       </c>
       <c r="V5" s="14">
-        <f t="shared" si="1"/>
-        <v>1724.4473</v>
+        <f t="shared" si="0"/>
+        <v>9678.0778</v>
       </c>
       <c r="W5" s="14">
-        <f t="shared" si="1"/>
-        <v>2443744.141</v>
+        <f t="shared" si="0"/>
+        <v>443824.0324</v>
       </c>
       <c r="X5" s="14">
-        <f t="shared" si="1"/>
-        <v>1157</v>
+        <f t="shared" si="0"/>
+        <v>1040</v>
       </c>
       <c r="Y5" s="14">
-        <f t="shared" si="1"/>
-        <v>619</v>
+        <f t="shared" si="0"/>
+        <v>560</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:25">
@@ -2982,32 +3012,32 @@
         <v>29</v>
       </c>
       <c r="C6" s="14">
-        <f>C10+C14+C18</f>
-        <v>30</v>
+        <f t="shared" ref="C6:Y6" si="2">C10+C14+C18</f>
+        <v>29</v>
       </c>
       <c r="D6" s="14">
-        <f t="shared" ref="D6:Y6" si="2">D10+D14+D18</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>485</v>
+        <v>649</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>H10+H14+H18</f>
+        <v>2544</v>
       </c>
       <c r="H6" s="14">
-        <f t="shared" si="2"/>
-        <v>2390</v>
+        <f>I10+I14+I18</f>
+        <v>1186</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>1153</v>
+        <v>1186</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
@@ -3015,11 +3045,11 @@
       </c>
       <c r="K6" s="14">
         <f t="shared" si="2"/>
-        <v>6355</v>
+        <v>6034</v>
       </c>
       <c r="L6" s="14">
         <f t="shared" si="2"/>
-        <v>4793932</v>
+        <v>6998014.6</v>
       </c>
       <c r="M6" s="14">
         <f t="shared" si="2"/>
@@ -3027,51 +3057,51 @@
       </c>
       <c r="N6" s="14">
         <f t="shared" si="2"/>
-        <v>2107</v>
+        <v>1894</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" si="2"/>
-        <v>4205683</v>
+        <v>5612881</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="2"/>
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="2"/>
-        <v>1119549</v>
+        <v>1051940</v>
       </c>
       <c r="R6" s="14">
         <f t="shared" si="2"/>
-        <v>34732790</v>
+        <v>46369123</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" si="2"/>
-        <v>690671.48</v>
+        <v>656683.19</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="2"/>
-        <v>101360.9</v>
+        <v>103945.78</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="2"/>
-        <v>135808.4698</v>
+        <v>165790.3637</v>
       </c>
       <c r="V6" s="14">
         <f t="shared" si="2"/>
-        <v>9678.0778</v>
+        <v>5411.9014</v>
       </c>
       <c r="W6" s="14">
         <f t="shared" si="2"/>
-        <v>523197.24</v>
+        <v>381535.1449</v>
       </c>
       <c r="X6" s="14">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>1059</v>
       </c>
       <c r="Y6" s="14">
         <f t="shared" si="2"/>
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="6:23">
@@ -3094,71 +3124,71 @@
         <v>6</v>
       </c>
       <c r="D8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="14">
         <v>0</v>
       </c>
       <c r="F8" s="14">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="G8" s="14">
         <v>6</v>
       </c>
       <c r="H8" s="14">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="I8" s="14">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="J8" s="14">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="K8" s="14">
-        <v>1708</v>
+        <v>1509</v>
       </c>
       <c r="L8" s="14">
-        <v>1240748</v>
+        <v>1398691</v>
       </c>
       <c r="M8" s="14">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="N8" s="14">
-        <v>612</v>
+        <v>455</v>
       </c>
       <c r="O8" s="14">
-        <v>4413344</v>
+        <v>1987787</v>
       </c>
       <c r="P8" s="14">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="14">
-        <v>220936</v>
+        <v>191602</v>
       </c>
       <c r="R8" s="14">
-        <v>11481806</v>
+        <v>8606685</v>
       </c>
       <c r="S8" s="14">
-        <v>-27867.66</v>
+        <v>387342.16</v>
       </c>
       <c r="T8" s="14">
-        <v>54705.89</v>
+        <v>10764.11</v>
       </c>
       <c r="U8" s="14">
-        <v>19610.16</v>
+        <v>15961.099</v>
       </c>
       <c r="V8" s="14">
         <v>0</v>
       </c>
       <c r="W8" s="14">
-        <f t="shared" ref="W8:W9" si="3">S8-T8-U8-V8</f>
-        <v>-102183.71</v>
+        <f t="shared" ref="W8:W10" si="3">S8-T8-U8-V8</f>
+        <v>360616.951</v>
       </c>
       <c r="X8" s="14">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="Y8" s="14">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:25">
@@ -3176,65 +3206,65 @@
         <v>0</v>
       </c>
       <c r="F9" s="14">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="G9" s="14">
         <v>6</v>
       </c>
       <c r="H9" s="14">
-        <v>730</v>
+        <v>656</v>
       </c>
       <c r="I9" s="14">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="J9" s="14">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="K9" s="14">
-        <v>1509</v>
+        <v>1462</v>
       </c>
       <c r="L9" s="14">
-        <v>1398691</v>
+        <v>1212986</v>
       </c>
       <c r="M9" s="14">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N9" s="14">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="O9" s="14">
-        <v>1987787</v>
+        <v>977912</v>
       </c>
       <c r="P9" s="14">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="14">
-        <v>191602</v>
+        <v>176218</v>
       </c>
       <c r="R9" s="14">
-        <v>8606685</v>
+        <v>10514930</v>
       </c>
       <c r="S9" s="14">
-        <v>387342.16</v>
+        <v>176085</v>
       </c>
       <c r="T9" s="14">
-        <v>10764.11</v>
+        <v>10029.2</v>
       </c>
       <c r="U9" s="14">
-        <v>15961.099</v>
+        <v>21429.419</v>
       </c>
       <c r="V9" s="14">
         <v>0</v>
       </c>
       <c r="W9" s="14">
         <f t="shared" si="3"/>
-        <v>360616.951</v>
+        <v>144626.381</v>
       </c>
       <c r="X9" s="14">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="Y9" s="14">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:25">
@@ -3252,64 +3282,65 @@
         <v>0</v>
       </c>
       <c r="F10" s="14">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G10" s="14">
         <v>6</v>
       </c>
       <c r="H10" s="14">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="I10" s="14">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J10" s="14">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K10" s="14">
-        <v>1462</v>
+        <v>1525</v>
       </c>
       <c r="L10" s="14">
-        <v>1212986</v>
+        <v>2157297</v>
       </c>
       <c r="M10" s="14">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14">
-        <v>492</v>
+        <v>400</v>
       </c>
       <c r="O10" s="14">
-        <v>977912</v>
+        <v>2307298</v>
       </c>
       <c r="P10" s="14">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="14">
-        <v>176218</v>
+        <v>160970</v>
       </c>
       <c r="R10" s="14">
-        <v>10514930</v>
+        <v>18300014</v>
       </c>
       <c r="S10" s="14">
-        <v>176085</v>
+        <v>-105442.84</v>
       </c>
       <c r="T10" s="14">
-        <v>10029.2</v>
+        <v>12158.7</v>
       </c>
       <c r="U10" s="14">
-        <v>21429.419</v>
+        <v>40803.717</v>
       </c>
       <c r="V10" s="14">
         <v>0</v>
       </c>
       <c r="W10" s="14">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-158405.257</v>
       </c>
       <c r="X10" s="14">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y10" s="14">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="6:23">
@@ -3329,74 +3360,74 @@
         <v>27</v>
       </c>
       <c r="C12" s="14">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D12" s="14">
         <v>0</v>
       </c>
       <c r="E12" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F12" s="14">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="G12" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="14">
-        <v>1339</v>
+        <v>1248</v>
       </c>
       <c r="I12" s="14">
-        <v>707</v>
+        <v>659</v>
       </c>
       <c r="J12" s="14">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="K12" s="14">
-        <v>4448</v>
+        <v>3962</v>
       </c>
       <c r="L12" s="14">
-        <v>2334464.2</v>
+        <v>2817638.25</v>
       </c>
       <c r="M12" s="14">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="N12" s="14">
-        <v>1496</v>
+        <v>1294</v>
       </c>
       <c r="O12" s="14">
-        <v>1899333</v>
+        <v>1647792</v>
       </c>
       <c r="P12" s="14">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="14">
-        <v>514038</v>
+        <v>519448</v>
       </c>
       <c r="R12" s="14">
-        <v>19452302</v>
+        <v>84682417</v>
       </c>
       <c r="S12" s="14">
-        <v>697799.63</v>
+        <v>1152001.01</v>
       </c>
       <c r="T12" s="14">
-        <v>104295.2</v>
+        <v>88193.19</v>
       </c>
       <c r="U12" s="14">
-        <v>22577.781</v>
+        <v>22114.965</v>
       </c>
       <c r="V12" s="14">
-        <v>93.021</v>
+        <v>129.26</v>
       </c>
       <c r="W12" s="14">
         <f t="shared" ref="W12:W14" si="4">S12-T12-U12-V12</f>
-        <v>570833.628</v>
+        <v>1041563.595</v>
       </c>
       <c r="X12" s="14">
-        <v>666</v>
+        <v>623</v>
       </c>
       <c r="Y12" s="14">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:25">
@@ -3411,68 +3442,68 @@
         <v>0</v>
       </c>
       <c r="E13" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" s="14">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G13" s="14">
         <v>11</v>
       </c>
       <c r="H13" s="14">
-        <v>1248</v>
+        <v>1165</v>
       </c>
       <c r="I13" s="14">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="J13" s="14">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="K13" s="14">
-        <v>3962</v>
+        <v>3592</v>
       </c>
       <c r="L13" s="14">
-        <v>2817638.25</v>
+        <v>2503034</v>
       </c>
       <c r="M13" s="14">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="N13" s="14">
-        <v>1294</v>
+        <v>1236</v>
       </c>
       <c r="O13" s="14">
-        <v>1647792</v>
+        <v>2253508</v>
       </c>
       <c r="P13" s="14">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="14">
-        <v>519448</v>
+        <v>644318</v>
       </c>
       <c r="R13" s="14">
-        <v>84682417</v>
+        <v>16605527</v>
       </c>
       <c r="S13" s="14">
-        <v>1152001.01</v>
+        <v>357092.42</v>
       </c>
       <c r="T13" s="14">
-        <v>88193.19</v>
+        <v>60464.52</v>
       </c>
       <c r="U13" s="14">
-        <v>22114.965</v>
+        <v>34453.206</v>
       </c>
       <c r="V13" s="14">
-        <v>129.26</v>
+        <v>576.074</v>
       </c>
       <c r="W13" s="14">
         <f t="shared" si="4"/>
-        <v>1041563.595</v>
+        <v>261598.62</v>
       </c>
       <c r="X13" s="14">
-        <v>623</v>
+        <v>554</v>
       </c>
       <c r="Y13" s="14">
-        <v>364</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:25">
@@ -3481,74 +3512,74 @@
         <v>29</v>
       </c>
       <c r="C14" s="14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
       </c>
       <c r="E14" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="14">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="G14" s="14">
         <v>11</v>
       </c>
       <c r="H14" s="14">
-        <v>1165</v>
+        <v>1245</v>
       </c>
       <c r="I14" s="14">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J14" s="14">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="K14" s="14">
-        <v>3592</v>
+        <v>3312</v>
       </c>
       <c r="L14" s="14">
-        <v>2503034</v>
+        <v>2672986.6</v>
       </c>
       <c r="M14" s="14">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="N14" s="14">
-        <v>1236</v>
+        <v>1041</v>
       </c>
       <c r="O14" s="14">
-        <v>2253508</v>
+        <v>2072710</v>
       </c>
       <c r="P14" s="14">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="14">
-        <v>644318</v>
+        <v>595340</v>
       </c>
       <c r="R14" s="14">
-        <v>16605527</v>
+        <v>20294560</v>
       </c>
       <c r="S14" s="14">
-        <v>357092.42</v>
+        <v>668936.83</v>
       </c>
       <c r="T14" s="14">
-        <v>60464.52</v>
+        <v>54412.65</v>
       </c>
       <c r="U14" s="14">
-        <v>34453.206</v>
+        <v>28106.425</v>
       </c>
       <c r="V14" s="14">
-        <v>576.074</v>
+        <v>1013.746</v>
       </c>
       <c r="W14" s="14">
         <f t="shared" si="4"/>
-        <v>261598.62</v>
+        <v>585404.009</v>
       </c>
       <c r="X14" s="14">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Y14" s="14">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="6:23">
@@ -3568,74 +3599,74 @@
         <v>27</v>
       </c>
       <c r="C16" s="14">
+        <v>10</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>117</v>
+      </c>
+      <c r="G16" s="14">
         <v>9</v>
       </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <v>119</v>
-      </c>
-      <c r="G16" s="14">
-        <v>8</v>
-      </c>
       <c r="H16" s="14">
-        <v>676</v>
+        <v>608</v>
       </c>
       <c r="I16" s="14">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J16" s="14">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="K16" s="14">
-        <v>1435</v>
+        <v>1112</v>
       </c>
       <c r="L16" s="14">
-        <v>1070116</v>
+        <v>796856</v>
       </c>
       <c r="M16" s="14">
+        <v>113</v>
+      </c>
+      <c r="N16" s="14">
+        <v>352</v>
+      </c>
+      <c r="O16" s="14">
+        <v>644383</v>
+      </c>
+      <c r="P16" s="14">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>330667</v>
+      </c>
+      <c r="R16" s="14">
+        <v>5455729</v>
+      </c>
+      <c r="S16" s="14">
+        <v>198429.46</v>
+      </c>
+      <c r="T16" s="14">
+        <v>35375.86</v>
+      </c>
+      <c r="U16" s="14">
+        <v>42172.4192</v>
+      </c>
+      <c r="V16" s="14">
+        <v>1595.1873</v>
+      </c>
+      <c r="W16" s="14">
+        <f>S16-T16-U16-V16</f>
+        <v>119285.9935</v>
+      </c>
+      <c r="X16" s="14">
+        <v>258</v>
+      </c>
+      <c r="Y16" s="14">
         <v>124</v>
-      </c>
-      <c r="N16" s="14">
-        <v>462</v>
-      </c>
-      <c r="O16" s="14">
-        <v>906678</v>
-      </c>
-      <c r="P16" s="14">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>384998</v>
-      </c>
-      <c r="R16" s="14">
-        <v>8242000</v>
-      </c>
-      <c r="S16" s="14">
-        <v>231046.03</v>
-      </c>
-      <c r="T16" s="14">
-        <v>37077.97</v>
-      </c>
-      <c r="U16" s="14">
-        <v>59733.6096</v>
-      </c>
-      <c r="V16" s="14">
-        <v>3393.1403</v>
-      </c>
-      <c r="W16" s="14">
-        <f t="shared" ref="W16" si="5">S16-T16-U16-V16</f>
-        <v>130841.3101</v>
-      </c>
-      <c r="X16" s="14">
-        <v>284</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>136</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:25">
@@ -3647,71 +3678,71 @@
         <v>10</v>
       </c>
       <c r="D17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="14">
         <v>0</v>
       </c>
       <c r="F17" s="14">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G17" s="14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H17" s="14">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="I17" s="14">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J17" s="14">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K17" s="14">
-        <v>1112</v>
+        <v>1301</v>
       </c>
       <c r="L17" s="14">
-        <v>796856</v>
+        <v>1077912</v>
       </c>
       <c r="M17" s="14">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="N17" s="14">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="O17" s="14">
-        <v>644383</v>
+        <v>974263</v>
       </c>
       <c r="P17" s="14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="14">
-        <v>330667</v>
+        <v>299013</v>
       </c>
       <c r="R17" s="14">
-        <v>5455729</v>
+        <v>7612333</v>
       </c>
       <c r="S17" s="14">
-        <v>198429.46</v>
+        <v>157494.06</v>
       </c>
       <c r="T17" s="14">
-        <v>35375.86</v>
+        <v>30867.18</v>
       </c>
       <c r="U17" s="14">
-        <v>42172.4192</v>
+        <v>79925.8448</v>
       </c>
       <c r="V17" s="14">
-        <v>1595.1873</v>
+        <v>9102.0038</v>
       </c>
       <c r="W17" s="14">
-        <f>S13-T13-U13-V13</f>
-        <v>1041563.595</v>
+        <f>S17-T17-U17-V17</f>
+        <v>37599.0314</v>
       </c>
       <c r="X17" s="14">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="Y17" s="14">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:25">
@@ -3720,74 +3751,74 @@
         <v>29</v>
       </c>
       <c r="C18" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="14">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="G18" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" s="14">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="I18" s="14">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="J18" s="14">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="K18" s="14">
-        <v>1301</v>
+        <v>1197</v>
       </c>
       <c r="L18" s="14">
-        <v>1077912</v>
+        <v>2167731</v>
       </c>
       <c r="M18" s="14">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="N18" s="14">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="O18" s="14">
-        <v>974263</v>
+        <v>1232873</v>
       </c>
       <c r="P18" s="14">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="14">
-        <v>299013</v>
+        <v>295630</v>
       </c>
       <c r="R18" s="14">
-        <v>7612333</v>
+        <v>7774549</v>
       </c>
       <c r="S18" s="14">
-        <v>157494.06</v>
+        <v>93189.2</v>
       </c>
       <c r="T18" s="14">
-        <v>30867.18</v>
+        <v>37374.43</v>
       </c>
       <c r="U18" s="14">
-        <v>79925.8448</v>
+        <v>96880.2217</v>
       </c>
       <c r="V18" s="14">
-        <v>9102.0038</v>
+        <v>4398.1554</v>
       </c>
       <c r="W18" s="14">
-        <f>S14-T14-U14-V14</f>
-        <v>261598.62</v>
+        <f>S18-T18-U18-V18</f>
+        <v>-45463.6071</v>
       </c>
       <c r="X18" s="14">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="Y18" s="14">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" ht="14.25"/>
@@ -3828,7 +3859,7 @@
       <c r="L24" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="30" t="s">
+      <c r="M24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="N24" s="22" t="s">
@@ -3860,7 +3891,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="33" t="s">
         <v>51</v>
       </c>
       <c r="N25" s="22"/>
@@ -3869,62 +3900,63 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
     </row>
-    <row r="26" ht="16.5" spans="1:19">
+    <row r="26" ht="18.75" spans="1:19">
       <c r="A26" s="21"/>
       <c r="B26" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="24">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="24">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E26" s="24">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F26" s="24">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G26" s="24">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="H26" s="24">
-        <v>273630</v>
+        <v>361668</v>
       </c>
       <c r="I26" s="24">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J26" s="24">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="K26" s="24">
-        <v>331385</v>
+        <v>181252</v>
       </c>
       <c r="L26" s="24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M26" s="24">
-        <v>3544667</v>
+        <v>2408073</v>
       </c>
       <c r="N26" s="24">
-        <v>-49801.11</v>
+        <v>230781.33</v>
       </c>
       <c r="O26" s="24">
-        <v>1829.99</v>
+        <v>2300</v>
       </c>
       <c r="P26" s="24">
-        <v>8741.05</v>
+        <v>7412.297</v>
       </c>
       <c r="Q26" s="24">
         <v>0</v>
       </c>
-      <c r="R26" s="24">
-        <v>-60372.15</v>
+      <c r="R26" s="35">
+        <f t="shared" ref="R26:R28" si="5">N26-O26-P26-Q26</f>
+        <v>221069.033</v>
       </c>
       <c r="S26">
         <f>N26-O26-P26-Q26</f>
-        <v>-60372.15</v>
+        <v>221069.033</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:19">
@@ -3933,57 +3965,57 @@
         <v>53</v>
       </c>
       <c r="C27" s="24">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D27" s="24">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E27" s="24">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" s="24">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G27" s="24">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="H27" s="24">
-        <v>361668</v>
+        <v>128808</v>
       </c>
       <c r="I27" s="24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J27" s="24">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="K27" s="24">
-        <v>181252</v>
+        <v>57795</v>
       </c>
       <c r="L27" s="24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M27" s="24">
-        <v>2408073</v>
+        <v>1099166</v>
       </c>
       <c r="N27" s="24">
-        <v>230781.33</v>
+        <v>38533.61</v>
       </c>
       <c r="O27" s="24">
-        <v>2300</v>
+        <v>1568</v>
       </c>
       <c r="P27" s="24">
-        <v>7412.297</v>
+        <v>2986.682</v>
       </c>
       <c r="Q27" s="24">
         <v>0</v>
       </c>
-      <c r="R27" s="33">
-        <f>N27-O27-P27-Q27</f>
-        <v>221069.033</v>
+      <c r="R27" s="35">
+        <f t="shared" si="5"/>
+        <v>33978.928</v>
       </c>
       <c r="S27">
         <f>N27-O27-P27-Q27</f>
-        <v>221069.033</v>
+        <v>33978.928</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:19">
@@ -3992,57 +4024,57 @@
         <v>54</v>
       </c>
       <c r="C28" s="24">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D28" s="24">
-        <v>179</v>
-      </c>
-      <c r="E28" s="24">
-        <v>46</v>
-      </c>
-      <c r="F28" s="24">
-        <v>41</v>
-      </c>
-      <c r="G28" s="24">
-        <v>163</v>
-      </c>
-      <c r="H28" s="24">
-        <v>128808</v>
-      </c>
-      <c r="I28" s="24">
-        <v>22</v>
-      </c>
-      <c r="J28" s="24">
-        <v>53</v>
-      </c>
-      <c r="K28" s="24">
-        <v>57795</v>
-      </c>
-      <c r="L28" s="24">
-        <v>9</v>
-      </c>
-      <c r="M28" s="24">
-        <v>1099166</v>
-      </c>
-      <c r="N28" s="24">
-        <v>38533.61</v>
-      </c>
-      <c r="O28" s="24">
-        <v>1568</v>
-      </c>
-      <c r="P28" s="24">
-        <v>2986.682</v>
+        <v>208</v>
+      </c>
+      <c r="E28" s="26">
+        <v>65</v>
+      </c>
+      <c r="F28" s="26">
+        <v>59</v>
+      </c>
+      <c r="G28" s="26">
+        <v>197</v>
+      </c>
+      <c r="H28" s="26">
+        <v>114913</v>
+      </c>
+      <c r="I28" s="26">
+        <v>31</v>
+      </c>
+      <c r="J28" s="26">
+        <v>61</v>
+      </c>
+      <c r="K28" s="26">
+        <v>114436</v>
+      </c>
+      <c r="L28" s="26">
+        <v>20</v>
+      </c>
+      <c r="M28" s="26">
+        <v>1570348</v>
+      </c>
+      <c r="N28" s="26">
+        <v>-891.75</v>
+      </c>
+      <c r="O28" s="26">
+        <v>1560</v>
+      </c>
+      <c r="P28" s="26">
+        <v>4098.509</v>
       </c>
       <c r="Q28" s="24">
         <v>0</v>
       </c>
-      <c r="R28" s="33">
-        <f>N28-O28-P28-Q28</f>
-        <v>33978.928</v>
+      <c r="R28" s="35">
+        <f t="shared" si="5"/>
+        <v>-6550.259</v>
       </c>
       <c r="S28">
         <f>N28-O28-P28-Q28</f>
-        <v>33978.928</v>
+        <v>-6550.259</v>
       </c>
     </row>
     <row r="29" ht="15" spans="6:23">
@@ -4054,51 +4086,51 @@
       <c r="S29" s="17"/>
       <c r="W29" s="17"/>
     </row>
-    <row r="30" ht="16.5" spans="1:19">
+    <row r="30" ht="18.75" spans="1:19">
       <c r="A30" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" s="24">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E30" s="24">
+        <v>14</v>
+      </c>
+      <c r="F30" s="24">
         <v>11</v>
       </c>
-      <c r="F30" s="24">
-        <v>9</v>
-      </c>
       <c r="G30" s="24">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H30" s="24">
-        <v>75644</v>
+        <v>87581</v>
       </c>
       <c r="I30" s="24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J30" s="24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K30" s="24">
-        <v>3116041</v>
+        <v>77160</v>
       </c>
       <c r="L30" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="24">
-        <v>1106520</v>
+        <v>687707</v>
       </c>
       <c r="N30" s="24">
-        <v>-37538.39</v>
+        <v>17868.04</v>
       </c>
       <c r="O30" s="24">
-        <v>504.64</v>
+        <v>408.11</v>
       </c>
       <c r="P30" s="24">
         <v>0</v>
@@ -4106,57 +4138,58 @@
       <c r="Q30" s="24">
         <v>0</v>
       </c>
-      <c r="R30" s="24">
-        <v>-38043.03</v>
+      <c r="R30" s="35">
+        <f t="shared" ref="R30:R32" si="6">N30-O30-P30-Q30</f>
+        <v>17459.93</v>
       </c>
       <c r="S30">
         <f>N30-O30-P30-Q30</f>
-        <v>-38043.03</v>
+        <v>17459.93</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:19">
       <c r="A31" s="21"/>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="24">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E31" s="24">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" s="24">
         <v>11</v>
       </c>
       <c r="G31" s="24">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H31" s="24">
-        <v>87581</v>
+        <v>143312</v>
       </c>
       <c r="I31" s="24">
         <v>6</v>
       </c>
       <c r="J31" s="24">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K31" s="24">
-        <v>77160</v>
+        <v>66400</v>
       </c>
       <c r="L31" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" s="24">
-        <v>687707</v>
+        <v>950432</v>
       </c>
       <c r="N31" s="24">
-        <v>17868.04</v>
+        <v>73048.42</v>
       </c>
       <c r="O31" s="24">
-        <v>408.11</v>
+        <v>581.2</v>
       </c>
       <c r="P31" s="24">
         <v>0</v>
@@ -4164,58 +4197,58 @@
       <c r="Q31" s="24">
         <v>0</v>
       </c>
-      <c r="R31" s="33">
-        <f>N31-O31-P31-Q31</f>
-        <v>17459.93</v>
+      <c r="R31" s="35">
+        <f t="shared" si="6"/>
+        <v>72467.22</v>
       </c>
       <c r="S31">
         <f>N31-O31-P31-Q31</f>
-        <v>17459.93</v>
+        <v>72467.22</v>
       </c>
     </row>
     <row r="32" ht="18.75" spans="1:19">
       <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" s="24">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E32" s="24">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F32" s="24">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G32" s="24">
-        <v>89</v>
-      </c>
-      <c r="H32" s="24">
-        <v>143312</v>
-      </c>
-      <c r="I32" s="24">
-        <v>6</v>
-      </c>
-      <c r="J32" s="24">
+        <v>92</v>
+      </c>
+      <c r="H32" s="26">
+        <v>569812</v>
+      </c>
+      <c r="I32" s="26">
         <v>14</v>
       </c>
-      <c r="K32" s="24">
-        <v>66400</v>
-      </c>
-      <c r="L32" s="24">
-        <v>0</v>
-      </c>
-      <c r="M32" s="24">
-        <v>950432</v>
-      </c>
-      <c r="N32" s="24">
-        <v>73048.42</v>
-      </c>
-      <c r="O32" s="24">
-        <v>581.2</v>
+      <c r="J32" s="26">
+        <v>19</v>
+      </c>
+      <c r="K32" s="26">
+        <v>960562</v>
+      </c>
+      <c r="L32" s="26">
+        <v>10</v>
+      </c>
+      <c r="M32" s="26">
+        <v>835493</v>
+      </c>
+      <c r="N32" s="26">
+        <v>-399934.7</v>
+      </c>
+      <c r="O32" s="26">
+        <v>2728.7</v>
       </c>
       <c r="P32" s="24">
         <v>0</v>
@@ -4223,17 +4256,17 @@
       <c r="Q32" s="24">
         <v>0</v>
       </c>
-      <c r="R32" s="33">
-        <f>N32-O32-P32-Q32</f>
-        <v>72467.22</v>
+      <c r="R32" s="35">
+        <f t="shared" si="6"/>
+        <v>-402663.4</v>
       </c>
       <c r="S32">
         <f>N32-O32-P32-Q32</f>
-        <v>72467.22</v>
+        <v>-402663.4</v>
       </c>
     </row>
     <row r="33" ht="15" spans="4:23">
-      <c r="D33" s="27"/>
+      <c r="D33" s="28"/>
       <c r="F33" s="17"/>
       <c r="H33" s="17"/>
       <c r="J33" s="17"/>
@@ -4242,182 +4275,183 @@
       <c r="S33" s="17"/>
       <c r="W33" s="17"/>
     </row>
-    <row r="34" ht="16.5" spans="1:19">
+    <row r="34" ht="18.75" spans="1:19">
       <c r="A34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="24">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D34" s="24">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="E34" s="24">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F34" s="24">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G34" s="24">
-        <v>1335</v>
+        <v>1087</v>
       </c>
       <c r="H34" s="24">
-        <v>797277</v>
+        <v>891596</v>
       </c>
       <c r="I34" s="24">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="J34" s="24">
-        <v>462</v>
+        <v>348</v>
       </c>
       <c r="K34" s="24">
-        <v>773498</v>
+        <v>682618</v>
       </c>
       <c r="L34" s="24">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M34" s="24">
-        <v>5464406</v>
+        <v>5404140</v>
       </c>
       <c r="N34" s="24">
-        <v>92925.75</v>
+        <v>176467.61</v>
       </c>
       <c r="O34" s="24">
-        <v>13268.26</v>
+        <v>8056</v>
       </c>
       <c r="P34" s="24">
-        <v>10255.79</v>
+        <v>8375.022</v>
       </c>
       <c r="Q34" s="24">
         <v>0</v>
       </c>
-      <c r="R34" s="24">
-        <v>69401.7</v>
+      <c r="R34" s="35">
+        <f t="shared" ref="R34:R36" si="7">N34-O34-P34-Q34</f>
+        <v>160036.588</v>
       </c>
       <c r="S34">
         <f>N34-O34-P34-Q34</f>
-        <v>69401.7</v>
+        <v>160036.588</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:19">
       <c r="A35" s="21"/>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="24">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D35" s="24">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="E35" s="24">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F35" s="24">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G35" s="24">
-        <v>1087</v>
+        <v>1205</v>
       </c>
       <c r="H35" s="24">
-        <v>891596</v>
+        <v>937926</v>
       </c>
       <c r="I35" s="24">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J35" s="24">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="K35" s="24">
-        <v>682618</v>
+        <v>848947</v>
       </c>
       <c r="L35" s="24">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M35" s="24">
-        <v>5404140</v>
+        <v>8424700</v>
       </c>
       <c r="N35" s="24">
-        <v>176467.61</v>
+        <v>65711.67</v>
       </c>
       <c r="O35" s="24">
-        <v>8056</v>
+        <v>7880</v>
       </c>
       <c r="P35" s="24">
-        <v>8375.022</v>
+        <v>18237.25</v>
       </c>
       <c r="Q35" s="24">
         <v>0</v>
       </c>
-      <c r="R35" s="33">
-        <f>N35-O35-P35-Q35</f>
-        <v>160036.588</v>
+      <c r="R35" s="35">
+        <f t="shared" si="7"/>
+        <v>39594.42</v>
       </c>
       <c r="S35">
         <f>N35-O35-P35-Q35</f>
-        <v>160036.588</v>
+        <v>39594.42</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:19">
       <c r="A36" s="25"/>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="24">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D36" s="24">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="E36" s="24">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="F36" s="24">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="G36" s="24">
-        <v>1205</v>
-      </c>
-      <c r="H36" s="24">
-        <v>937926</v>
-      </c>
-      <c r="I36" s="24">
-        <v>102</v>
-      </c>
-      <c r="J36" s="24">
-        <v>422</v>
-      </c>
-      <c r="K36" s="24">
-        <v>848947</v>
-      </c>
-      <c r="L36" s="24">
-        <v>43</v>
-      </c>
-      <c r="M36" s="24">
-        <v>8424700</v>
-      </c>
-      <c r="N36" s="24">
-        <v>65711.67</v>
-      </c>
-      <c r="O36" s="24">
-        <v>7880</v>
-      </c>
-      <c r="P36" s="24">
-        <v>18237.25</v>
+        <v>1235</v>
+      </c>
+      <c r="H36" s="26">
+        <v>1472372</v>
+      </c>
+      <c r="I36" s="26">
+        <v>79</v>
+      </c>
+      <c r="J36" s="26">
+        <v>320</v>
+      </c>
+      <c r="K36" s="26">
+        <v>1232300</v>
+      </c>
+      <c r="L36" s="26">
+        <v>24</v>
+      </c>
+      <c r="M36" s="26">
+        <v>15892706</v>
+      </c>
+      <c r="N36" s="26">
+        <v>294780.36</v>
+      </c>
+      <c r="O36" s="26">
+        <v>7870</v>
+      </c>
+      <c r="P36" s="26">
+        <v>36659.708</v>
       </c>
       <c r="Q36" s="24">
         <v>0</v>
       </c>
-      <c r="R36" s="33">
-        <f>N36-O36-P36-Q36</f>
-        <v>39594.42</v>
+      <c r="R36" s="35">
+        <f t="shared" si="7"/>
+        <v>250250.652</v>
       </c>
       <c r="S36">
         <f>N36-O36-P36-Q36</f>
-        <v>39594.42</v>
+        <v>250250.652</v>
       </c>
     </row>
     <row r="37" ht="15" spans="6:23">
@@ -4429,182 +4463,183 @@
       <c r="S37" s="17"/>
       <c r="W37" s="17"/>
     </row>
-    <row r="38" ht="16.5" spans="1:19">
+    <row r="38" ht="18.75" spans="1:19">
       <c r="A38" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="24">
+        <v>2</v>
+      </c>
+      <c r="D38" s="24">
+        <v>28</v>
+      </c>
+      <c r="E38" s="24">
+        <v>6</v>
+      </c>
+      <c r="F38" s="24">
         <v>5</v>
       </c>
-      <c r="D38" s="24">
-        <v>38</v>
-      </c>
-      <c r="E38" s="24">
-        <v>5</v>
-      </c>
-      <c r="F38" s="24">
-        <v>4</v>
-      </c>
       <c r="G38" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H38" s="24">
-        <v>15197</v>
+        <v>2846</v>
       </c>
       <c r="I38" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="24">
-        <v>23590</v>
+        <v>503</v>
       </c>
       <c r="L38" s="24">
         <v>0</v>
       </c>
       <c r="M38" s="24">
-        <v>141975</v>
+        <v>4979</v>
       </c>
       <c r="N38" s="24">
-        <v>-4396.2</v>
+        <v>2385</v>
       </c>
       <c r="O38" s="24">
         <v>0</v>
       </c>
       <c r="P38" s="24">
-        <v>509.32</v>
+        <v>7.23</v>
       </c>
       <c r="Q38" s="24">
         <v>0</v>
       </c>
-      <c r="R38" s="24">
-        <v>-4905.52</v>
+      <c r="R38" s="35">
+        <f t="shared" ref="R38:R40" si="8">N38-O38-P38-Q38</f>
+        <v>2377.77</v>
       </c>
       <c r="S38">
         <f>N38-O38-P38-Q38</f>
-        <v>-4905.52</v>
+        <v>2377.77</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:19">
       <c r="A39" s="21"/>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" s="24">
         <v>28</v>
       </c>
       <c r="E39" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" s="24">
+        <v>1</v>
+      </c>
+      <c r="G39" s="24">
         <v>5</v>
       </c>
-      <c r="G39" s="24">
-        <v>8</v>
-      </c>
       <c r="H39" s="24">
-        <v>2846</v>
+        <v>2940</v>
       </c>
       <c r="I39" s="24">
         <v>1</v>
       </c>
       <c r="J39" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K39" s="24">
-        <v>503</v>
+        <v>4770</v>
       </c>
       <c r="L39" s="24">
         <v>0</v>
       </c>
       <c r="M39" s="24">
-        <v>4979</v>
+        <v>40231</v>
       </c>
       <c r="N39" s="24">
-        <v>2385</v>
+        <v>-1609.7</v>
       </c>
       <c r="O39" s="24">
         <v>0</v>
       </c>
       <c r="P39" s="24">
-        <v>7.23</v>
+        <v>160.638</v>
       </c>
       <c r="Q39" s="24">
         <v>0</v>
       </c>
-      <c r="R39" s="33">
-        <f>N39-O39-P39-Q39</f>
-        <v>2377.77</v>
+      <c r="R39" s="35">
+        <f t="shared" si="8"/>
+        <v>-1770.338</v>
       </c>
       <c r="S39">
         <f>N39-O39-P39-Q39</f>
-        <v>2377.77</v>
+        <v>-1770.338</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:19">
       <c r="A40" s="25"/>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D40" s="24">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E40" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40" s="24">
         <v>1</v>
       </c>
       <c r="G40" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H40" s="24">
-        <v>2940</v>
+        <v>200</v>
       </c>
       <c r="I40" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K40" s="24">
-        <v>4770</v>
+        <v>0</v>
       </c>
       <c r="L40" s="24">
         <v>0</v>
       </c>
-      <c r="M40" s="24">
-        <v>40231</v>
-      </c>
-      <c r="N40" s="24">
-        <v>-1609.7</v>
+      <c r="M40" s="26">
+        <v>1065</v>
+      </c>
+      <c r="N40" s="26">
+        <v>201.25</v>
       </c>
       <c r="O40" s="24">
         <v>0</v>
       </c>
       <c r="P40" s="24">
-        <v>160.638</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="24">
         <v>0</v>
       </c>
-      <c r="R40" s="33">
-        <f>N40-O40-P40-Q40</f>
-        <v>-1770.338</v>
+      <c r="R40" s="35">
+        <f t="shared" si="8"/>
+        <v>201.25</v>
       </c>
       <c r="S40">
         <f>N40-O40-P40-Q40</f>
-        <v>-1770.338</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="41" ht="14.25"/>
@@ -4646,7 +4681,7 @@
       <c r="L43" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M43" s="30" t="s">
+      <c r="M43" s="32" t="s">
         <v>45</v>
       </c>
       <c r="N43" s="22" t="s">
@@ -4678,7 +4713,7 @@
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
-      <c r="M44" s="31" t="s">
+      <c r="M44" s="33" t="s">
         <v>51</v>
       </c>
       <c r="N44" s="22"/>
@@ -4687,62 +4722,63 @@
       <c r="Q44" s="22"/>
       <c r="R44" s="22"/>
     </row>
-    <row r="45" ht="16.5" spans="1:19">
+    <row r="45" ht="18.75" spans="1:19">
       <c r="A45" s="21"/>
       <c r="B45" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="24">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="D45" s="24">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="E45" s="24">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F45" s="24">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G45" s="24">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="H45" s="24">
-        <v>501501</v>
+        <v>708586</v>
       </c>
       <c r="I45" s="24">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J45" s="24">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="K45" s="24">
-        <v>448213</v>
+        <v>638514</v>
       </c>
       <c r="L45" s="24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M45" s="24">
-        <v>3925220</v>
+        <v>4102063</v>
       </c>
       <c r="N45" s="24">
-        <v>82367.43</v>
+        <v>98976.67</v>
       </c>
       <c r="O45" s="24">
-        <v>15993.8</v>
+        <v>25382.48</v>
       </c>
       <c r="P45" s="24">
-        <v>6597.13</v>
+        <v>8004.62</v>
       </c>
       <c r="Q45" s="24">
         <v>0</v>
       </c>
-      <c r="R45" s="24">
-        <v>59776.5</v>
+      <c r="R45" s="35">
+        <f t="shared" ref="R45:R47" si="9">N45-O45-P45-Q45</f>
+        <v>65589.57</v>
       </c>
       <c r="S45">
-        <f t="shared" ref="S45:S47" si="6">N45-O45-P45-Q45</f>
-        <v>59776.5</v>
+        <f t="shared" ref="S45:S47" si="10">N45-O45-P45-Q45</f>
+        <v>65589.57</v>
       </c>
     </row>
     <row r="46" ht="18.75" spans="1:19">
@@ -4751,57 +4787,57 @@
         <v>28</v>
       </c>
       <c r="C46" s="24">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D46" s="24">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="E46" s="24">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F46" s="24">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G46" s="24">
-        <v>703</v>
+        <v>849</v>
       </c>
       <c r="H46" s="24">
-        <v>708586</v>
+        <v>1145111</v>
       </c>
       <c r="I46" s="24">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J46" s="24">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="K46" s="24">
-        <v>638514</v>
+        <v>929091</v>
       </c>
       <c r="L46" s="24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M46" s="24">
-        <v>4102063</v>
+        <v>6929644</v>
       </c>
       <c r="N46" s="24">
-        <v>98976.67</v>
+        <v>222921.06</v>
       </c>
       <c r="O46" s="24">
-        <v>25382.48</v>
+        <v>20874.11</v>
       </c>
       <c r="P46" s="24">
-        <v>8004.62</v>
+        <v>12910.552</v>
       </c>
       <c r="Q46" s="24">
         <v>0</v>
       </c>
-      <c r="R46" s="33">
-        <f>N46-O46-P46-Q46</f>
-        <v>65589.57</v>
+      <c r="R46" s="35">
+        <f t="shared" si="9"/>
+        <v>189136.398</v>
       </c>
       <c r="S46">
-        <f t="shared" si="6"/>
-        <v>65589.57</v>
+        <f t="shared" si="10"/>
+        <v>189136.398</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:19">
@@ -4810,61 +4846,61 @@
         <v>29</v>
       </c>
       <c r="C47" s="24">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D47" s="24">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E47" s="24">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F47" s="24">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G47" s="24">
-        <v>849</v>
-      </c>
-      <c r="H47" s="24">
-        <v>1145111</v>
-      </c>
-      <c r="I47" s="24">
-        <v>73</v>
-      </c>
-      <c r="J47" s="24">
-        <v>279</v>
-      </c>
-      <c r="K47" s="24">
-        <v>929091</v>
-      </c>
-      <c r="L47" s="24">
-        <v>21</v>
-      </c>
-      <c r="M47" s="24">
-        <v>6929644</v>
-      </c>
-      <c r="N47" s="24">
-        <v>222921.06</v>
-      </c>
-      <c r="O47" s="24">
-        <v>20874.11</v>
-      </c>
-      <c r="P47" s="24">
-        <v>12910.552</v>
+        <v>856</v>
+      </c>
+      <c r="H47" s="26">
+        <v>953786</v>
+      </c>
+      <c r="I47" s="26">
+        <v>69</v>
+      </c>
+      <c r="J47" s="26">
+        <v>256</v>
+      </c>
+      <c r="K47" s="26">
+        <v>806903</v>
+      </c>
+      <c r="L47" s="26">
+        <v>22</v>
+      </c>
+      <c r="M47" s="26">
+        <v>7276278</v>
+      </c>
+      <c r="N47" s="26">
+        <v>206380.09</v>
+      </c>
+      <c r="O47" s="26">
+        <v>28938.23</v>
+      </c>
+      <c r="P47" s="26">
+        <v>13975.016</v>
       </c>
       <c r="Q47" s="24">
         <v>0</v>
       </c>
-      <c r="R47" s="33">
-        <f>N47-O47-P47-Q47</f>
-        <v>189136.398</v>
+      <c r="R47" s="35">
+        <f t="shared" si="9"/>
+        <v>163466.844</v>
       </c>
       <c r="S47">
-        <f t="shared" si="6"/>
-        <v>189136.398</v>
+        <f t="shared" si="10"/>
+        <v>163466.844</v>
       </c>
     </row>
     <row r="48" ht="14.25"/>
-    <row r="49" ht="16.5" spans="1:19">
+    <row r="49" ht="18.75" spans="1:19">
       <c r="A49" s="21" t="s">
         <v>59</v>
       </c>
@@ -4872,56 +4908,57 @@
         <v>27</v>
       </c>
       <c r="C49" s="24">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D49" s="24">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E49" s="24">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="F49" s="24">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="G49" s="24">
-        <v>2618</v>
+        <v>2213</v>
       </c>
       <c r="H49" s="24">
-        <v>775634.2</v>
+        <v>604585.25</v>
       </c>
       <c r="I49" s="24">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="J49" s="24">
-        <v>899</v>
+        <v>740</v>
       </c>
       <c r="K49" s="24">
-        <v>844950</v>
+        <v>599151</v>
       </c>
       <c r="L49" s="24">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M49" s="24">
-        <v>3859603</v>
+        <v>2880520</v>
       </c>
       <c r="N49" s="24">
-        <v>61591.25</v>
+        <v>59332.76</v>
       </c>
       <c r="O49" s="24">
-        <v>74142.97</v>
+        <v>49859</v>
       </c>
       <c r="P49" s="24">
-        <v>7016.74</v>
+        <v>5140.064</v>
       </c>
       <c r="Q49" s="24">
         <v>0</v>
       </c>
-      <c r="R49" s="24">
-        <v>-19568.46</v>
+      <c r="R49" s="35">
+        <f t="shared" ref="R49:R51" si="11">N49-O49-P49-Q49</f>
+        <v>4333.696</v>
       </c>
       <c r="S49">
-        <f t="shared" ref="S49:S51" si="7">N49-O49-P49-Q49</f>
-        <v>-19568.46</v>
+        <f t="shared" ref="S49:S51" si="12">N49-O49-P49-Q49</f>
+        <v>4333.696</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:19">
@@ -4930,57 +4967,57 @@
         <v>28</v>
       </c>
       <c r="C50" s="24">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D50" s="24">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="E50" s="24">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="F50" s="24">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="G50" s="24">
-        <v>2213</v>
+        <v>1543</v>
       </c>
       <c r="H50" s="24">
-        <v>604585.25</v>
+        <v>737875</v>
       </c>
       <c r="I50" s="24">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="J50" s="24">
-        <v>740</v>
+        <v>549</v>
       </c>
       <c r="K50" s="24">
-        <v>599151</v>
+        <v>767059</v>
       </c>
       <c r="L50" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M50" s="24">
-        <v>2880520</v>
+        <v>5223341</v>
       </c>
       <c r="N50" s="24">
-        <v>59332.76</v>
+        <v>41745.53</v>
       </c>
       <c r="O50" s="24">
-        <v>49859</v>
+        <v>27266.62</v>
       </c>
       <c r="P50" s="24">
-        <v>5140.064</v>
+        <v>7983.87</v>
       </c>
       <c r="Q50" s="24">
-        <v>0</v>
-      </c>
-      <c r="R50" s="33">
-        <f>N50-O50-P50-Q50</f>
-        <v>4333.696</v>
+        <v>414.842</v>
+      </c>
+      <c r="R50" s="35">
+        <f t="shared" si="11"/>
+        <v>6080.198</v>
       </c>
       <c r="S50">
-        <f t="shared" si="7"/>
-        <v>4333.696</v>
+        <f t="shared" si="12"/>
+        <v>6080.198</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:19">
@@ -4989,61 +5026,61 @@
         <v>29</v>
       </c>
       <c r="C51" s="24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D51" s="24">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="E51" s="24">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="F51" s="24">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="G51" s="24">
-        <v>1543</v>
-      </c>
-      <c r="H51" s="24">
-        <v>737875</v>
-      </c>
-      <c r="I51" s="24">
-        <v>159</v>
-      </c>
-      <c r="J51" s="24">
-        <v>549</v>
-      </c>
-      <c r="K51" s="24">
-        <v>767059</v>
-      </c>
-      <c r="L51" s="24">
-        <v>2</v>
-      </c>
-      <c r="M51" s="24">
-        <v>5223341</v>
-      </c>
-      <c r="N51" s="24">
-        <v>41745.53</v>
-      </c>
-      <c r="O51" s="24">
-        <v>27266.62</v>
-      </c>
-      <c r="P51" s="24">
-        <v>7983.87</v>
-      </c>
-      <c r="Q51" s="24">
-        <v>414.842</v>
-      </c>
-      <c r="R51" s="33">
-        <f>N51-O51-P51-Q51</f>
-        <v>6080.198</v>
+        <v>1088</v>
+      </c>
+      <c r="H51" s="26">
+        <v>491411.6</v>
+      </c>
+      <c r="I51" s="26">
+        <v>100</v>
+      </c>
+      <c r="J51" s="26">
+        <v>341</v>
+      </c>
+      <c r="K51" s="26">
+        <v>378539</v>
+      </c>
+      <c r="L51" s="26">
+        <v>1</v>
+      </c>
+      <c r="M51" s="26">
+        <v>3709680</v>
+      </c>
+      <c r="N51" s="26">
+        <v>123262.32</v>
+      </c>
+      <c r="O51" s="26">
+        <v>6858</v>
+      </c>
+      <c r="P51" s="26">
+        <v>5205.163</v>
+      </c>
+      <c r="Q51" s="26">
+        <v>860.832</v>
+      </c>
+      <c r="R51" s="35">
+        <f t="shared" si="11"/>
+        <v>110338.325</v>
       </c>
       <c r="S51">
-        <f t="shared" si="7"/>
-        <v>6080.198</v>
+        <f t="shared" si="12"/>
+        <v>110338.325</v>
       </c>
     </row>
     <row r="52" ht="14.25"/>
-    <row r="53" ht="16.5" spans="1:19">
+    <row r="53" ht="18.75" spans="1:19">
       <c r="A53" s="21" t="s">
         <v>60</v>
       </c>
@@ -5051,56 +5088,57 @@
         <v>27</v>
       </c>
       <c r="C53" s="24">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D53" s="24">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E53" s="24">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F53" s="24">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G53" s="24">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="H53" s="24">
-        <v>248788</v>
+        <v>177143</v>
       </c>
       <c r="I53" s="24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J53" s="24">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="K53" s="24">
-        <v>199894</v>
+        <v>246174</v>
       </c>
       <c r="L53" s="24">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="24">
-        <v>1666713</v>
+        <v>1757899</v>
       </c>
       <c r="N53" s="24">
-        <v>64040.94</v>
+        <v>-69951.54</v>
       </c>
       <c r="O53" s="24">
-        <v>4080</v>
+        <v>4731</v>
       </c>
       <c r="P53" s="24">
-        <v>7018.1</v>
+        <v>7557.487</v>
       </c>
       <c r="Q53" s="24">
-        <v>93.02</v>
-      </c>
-      <c r="R53" s="24">
-        <v>52849.82</v>
+        <v>129.26</v>
+      </c>
+      <c r="R53" s="35">
+        <f>N53-O53-P53-Q53</f>
+        <v>-82369.287</v>
       </c>
       <c r="S53">
-        <f t="shared" ref="S53:S55" si="8">N53-O53-P53-Q53</f>
-        <v>52849.82</v>
+        <f t="shared" ref="S53:S55" si="13">N53-O53-P53-Q53</f>
+        <v>-82369.287</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:19">
@@ -5109,57 +5147,57 @@
         <v>28</v>
       </c>
       <c r="C54" s="24">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D54" s="24">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E54" s="24">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F54" s="24">
         <v>78</v>
       </c>
       <c r="G54" s="24">
-        <v>444</v>
+        <v>609</v>
       </c>
       <c r="H54" s="24">
-        <v>177143</v>
+        <v>364362</v>
       </c>
       <c r="I54" s="24">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J54" s="24">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="K54" s="24">
-        <v>246174</v>
+        <v>327594</v>
       </c>
       <c r="L54" s="24">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M54" s="24">
-        <v>1757899</v>
+        <v>2835725</v>
       </c>
       <c r="N54" s="24">
-        <v>-69951.54</v>
+        <v>62632.88</v>
       </c>
       <c r="O54" s="24">
-        <v>4731</v>
+        <v>5775</v>
       </c>
       <c r="P54" s="24">
-        <v>7557.487</v>
+        <v>12007.021</v>
       </c>
       <c r="Q54" s="24">
-        <v>129.26</v>
-      </c>
-      <c r="R54" s="33">
+        <v>161.232</v>
+      </c>
+      <c r="R54" s="35">
         <f>N54-O54-P54-Q54</f>
-        <v>-82369.287</v>
+        <v>44689.627</v>
       </c>
       <c r="S54">
-        <f t="shared" si="8"/>
-        <v>-82369.287</v>
+        <f t="shared" si="13"/>
+        <v>44689.627</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:19">
@@ -5168,61 +5206,61 @@
         <v>29</v>
       </c>
       <c r="C55" s="24">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D55" s="24">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E55" s="24">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F55" s="24">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="G55" s="24">
-        <v>609</v>
-      </c>
-      <c r="H55" s="24">
-        <v>364362</v>
-      </c>
-      <c r="I55" s="24">
-        <v>43</v>
-      </c>
-      <c r="J55" s="24">
-        <v>214</v>
-      </c>
-      <c r="K55" s="24">
-        <v>327594</v>
-      </c>
-      <c r="L55" s="24">
-        <v>14</v>
-      </c>
-      <c r="M55" s="24">
-        <v>2835725</v>
-      </c>
-      <c r="N55" s="24">
-        <v>62632.88</v>
-      </c>
-      <c r="O55" s="24">
-        <v>5775</v>
-      </c>
-      <c r="P55" s="24">
-        <v>12007.021</v>
-      </c>
-      <c r="Q55" s="24">
-        <v>161.232</v>
-      </c>
-      <c r="R55" s="33">
-        <f>N55-O55-P55-Q55</f>
-        <v>44689.627</v>
+        <v>606</v>
+      </c>
+      <c r="H55" s="26">
+        <v>439500</v>
+      </c>
+      <c r="I55" s="26">
+        <v>60</v>
+      </c>
+      <c r="J55" s="26">
+        <v>210</v>
+      </c>
+      <c r="K55" s="26">
+        <v>612022</v>
+      </c>
+      <c r="L55" s="26">
+        <v>24</v>
+      </c>
+      <c r="M55" s="26">
+        <v>1835449</v>
+      </c>
+      <c r="N55" s="26">
+        <v>-160904.85</v>
+      </c>
+      <c r="O55" s="26">
+        <v>6718.38</v>
+      </c>
+      <c r="P55" s="26">
+        <v>7142.506</v>
+      </c>
+      <c r="Q55" s="26">
+        <v>152.914</v>
+      </c>
+      <c r="R55" s="35">
+        <f t="shared" ref="R55" si="14">N55-O55-P55-Q55</f>
+        <v>-174918.65</v>
       </c>
       <c r="S55">
-        <f t="shared" si="8"/>
-        <v>44689.627</v>
+        <f t="shared" si="13"/>
+        <v>-174918.65</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="5:5">
-      <c r="E56" s="27"/>
+      <c r="E56" s="28"/>
     </row>
     <row r="57" ht="14.25"/>
     <row r="58" ht="15.75" spans="1:18">
@@ -5262,7 +5300,7 @@
       <c r="L58" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M58" s="30" t="s">
+      <c r="M58" s="32" t="s">
         <v>45</v>
       </c>
       <c r="N58" s="22" t="s">
@@ -5294,7 +5332,7 @@
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
-      <c r="M59" s="31" t="s">
+      <c r="M59" s="33" t="s">
         <v>51</v>
       </c>
       <c r="N59" s="22"/>
@@ -5305,357 +5343,359 @@
     </row>
     <row r="60" ht="18.75" spans="1:19">
       <c r="A60" s="21"/>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="29">
-        <v>7</v>
-      </c>
-      <c r="D60" s="29">
-        <v>124</v>
-      </c>
-      <c r="E60" s="29">
-        <v>59</v>
-      </c>
-      <c r="F60" s="29">
-        <v>48</v>
-      </c>
-      <c r="G60" s="29">
-        <v>387</v>
+      <c r="C60" s="30">
+        <v>13</v>
+      </c>
+      <c r="D60" s="30">
+        <v>92</v>
+      </c>
+      <c r="E60" s="30">
+        <v>36</v>
+      </c>
+      <c r="F60" s="30">
+        <v>28</v>
+      </c>
+      <c r="G60" s="30">
+        <v>168</v>
       </c>
       <c r="H60" s="24">
-        <v>281062</v>
+        <v>207320</v>
       </c>
       <c r="I60" s="24">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J60" s="24">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="K60" s="24">
-        <v>270520</v>
+        <v>146900</v>
       </c>
       <c r="L60" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M60" s="24">
-        <v>2480913</v>
+        <v>1065437</v>
       </c>
       <c r="N60" s="24">
-        <v>43623.65</v>
+        <v>83494.6</v>
       </c>
       <c r="O60" s="24">
-        <v>12331.02</v>
+        <v>8844</v>
       </c>
       <c r="P60" s="24">
-        <v>6537.21</v>
+        <v>14226.742</v>
       </c>
       <c r="Q60" s="24">
-        <v>0</v>
-      </c>
-      <c r="R60" s="24">
-        <v>24755.42</v>
+        <v>31.086</v>
+      </c>
+      <c r="R60" s="35">
+        <f>N60-O60-P60-Q60</f>
+        <v>60392.772</v>
       </c>
       <c r="S60">
-        <f t="shared" ref="S60:S62" si="9">N60-O60-P60-Q60</f>
-        <v>24755.42</v>
+        <f t="shared" ref="S60:S62" si="15">N60-O60-P60-Q60</f>
+        <v>60392.772</v>
       </c>
     </row>
     <row r="61" ht="18.75" spans="1:19">
       <c r="A61" s="21"/>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="29">
+      <c r="C61" s="30">
         <v>13</v>
       </c>
-      <c r="D61" s="29">
-        <v>124</v>
-      </c>
-      <c r="E61" s="29">
-        <v>56</v>
-      </c>
-      <c r="F61" s="29">
-        <v>44</v>
-      </c>
-      <c r="G61" s="29">
-        <v>257</v>
+      <c r="D61" s="30">
+        <v>80</v>
+      </c>
+      <c r="E61" s="30">
+        <v>36</v>
+      </c>
+      <c r="F61" s="30">
+        <v>29</v>
+      </c>
+      <c r="G61" s="30">
+        <v>231</v>
       </c>
       <c r="H61" s="24">
-        <v>177548</v>
+        <v>397993</v>
       </c>
       <c r="I61" s="24">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J61" s="24">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="K61" s="24">
-        <v>110231</v>
+        <v>434964</v>
       </c>
       <c r="L61" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61" s="24">
-        <v>975860</v>
+        <v>2429664</v>
       </c>
       <c r="N61" s="24">
-        <v>76743.57</v>
+        <v>-48729.69</v>
       </c>
       <c r="O61" s="24">
-        <v>8686.36</v>
+        <v>11792</v>
       </c>
       <c r="P61" s="24">
-        <v>2522.965</v>
+        <v>30620.499</v>
       </c>
       <c r="Q61" s="24">
-        <v>0</v>
-      </c>
-      <c r="R61" s="33">
+        <v>5480.679</v>
+      </c>
+      <c r="R61" s="35">
         <f>N61-O61-P61-Q61</f>
-        <v>65534.245</v>
+        <v>-96622.868</v>
       </c>
       <c r="S61">
-        <f t="shared" si="9"/>
-        <v>65534.245</v>
+        <f t="shared" si="15"/>
+        <v>-96622.868</v>
       </c>
     </row>
     <row r="62" ht="18.75" spans="1:19">
       <c r="A62" s="21"/>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="29">
-        <v>9</v>
-      </c>
-      <c r="D62" s="29">
-        <v>112</v>
-      </c>
-      <c r="E62" s="29">
-        <v>60</v>
-      </c>
-      <c r="F62" s="29">
-        <v>45</v>
-      </c>
-      <c r="G62" s="29">
-        <v>260</v>
-      </c>
-      <c r="H62" s="24">
-        <v>111097</v>
-      </c>
-      <c r="I62" s="24">
-        <v>23</v>
-      </c>
-      <c r="J62" s="24">
-        <v>73</v>
-      </c>
-      <c r="K62" s="24">
-        <v>71675</v>
-      </c>
-      <c r="L62" s="24">
-        <v>3</v>
-      </c>
-      <c r="M62" s="24">
-        <v>735747</v>
-      </c>
-      <c r="N62" s="24">
-        <v>34725.32</v>
-      </c>
-      <c r="O62" s="24">
-        <v>3555.96</v>
-      </c>
-      <c r="P62" s="24">
-        <v>2613.962</v>
-      </c>
-      <c r="Q62" s="24">
-        <v>0</v>
-      </c>
-      <c r="R62" s="33">
-        <f>N62-O62-P62-Q62</f>
-        <v>28555.398</v>
+      <c r="C62" s="30">
+        <v>12</v>
+      </c>
+      <c r="D62" s="30">
+        <v>81</v>
+      </c>
+      <c r="E62" s="30">
+        <v>34</v>
+      </c>
+      <c r="F62" s="30">
+        <v>28</v>
+      </c>
+      <c r="G62" s="30">
+        <v>110</v>
+      </c>
+      <c r="H62" s="26">
+        <v>413187</v>
+      </c>
+      <c r="I62" s="26">
+        <v>15</v>
+      </c>
+      <c r="J62" s="26">
+        <v>48</v>
+      </c>
+      <c r="K62" s="26">
+        <v>477806</v>
+      </c>
+      <c r="L62" s="26">
+        <v>2</v>
+      </c>
+      <c r="M62" s="26">
+        <v>1389289</v>
+      </c>
+      <c r="N62" s="26">
+        <v>28878.44</v>
+      </c>
+      <c r="O62" s="26">
+        <v>13512</v>
+      </c>
+      <c r="P62" s="26">
+        <v>19441.602</v>
+      </c>
+      <c r="Q62" s="26">
+        <v>282.239</v>
+      </c>
+      <c r="R62" s="35">
+        <f t="shared" ref="R62:R66" si="16">N62-O62-P62-Q62</f>
+        <v>-4357.401</v>
       </c>
       <c r="S62">
-        <f t="shared" si="9"/>
-        <v>28555.398</v>
+        <f t="shared" si="15"/>
+        <v>-4357.401</v>
       </c>
     </row>
     <row r="63" ht="14.25"/>
     <row r="64" ht="18.75" spans="1:19">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="29">
-        <v>31</v>
-      </c>
-      <c r="D64" s="29">
-        <v>143</v>
-      </c>
-      <c r="E64" s="29">
-        <v>66</v>
-      </c>
-      <c r="F64" s="29">
-        <v>56</v>
-      </c>
-      <c r="G64" s="29">
-        <v>307</v>
-      </c>
-      <c r="H64" s="24">
-        <v>236162</v>
-      </c>
-      <c r="I64" s="24">
-        <v>27</v>
-      </c>
-      <c r="J64" s="24">
-        <v>109</v>
-      </c>
-      <c r="K64" s="24">
-        <v>133128</v>
-      </c>
-      <c r="L64" s="24">
-        <v>9</v>
-      </c>
-      <c r="M64" s="24">
-        <v>1766587</v>
-      </c>
-      <c r="N64" s="24">
-        <v>98710.67</v>
-      </c>
-      <c r="O64" s="24">
-        <v>4834</v>
-      </c>
-      <c r="P64" s="24">
-        <v>3432.57</v>
-      </c>
-      <c r="Q64" s="24">
-        <v>0.52</v>
-      </c>
-      <c r="R64" s="24">
-        <v>90443.58</v>
+      <c r="C64" s="30">
+        <v>7</v>
+      </c>
+      <c r="D64" s="30">
+        <v>45</v>
+      </c>
+      <c r="E64" s="30">
+        <v>19</v>
+      </c>
+      <c r="F64" s="30">
+        <v>15</v>
+      </c>
+      <c r="G64" s="30">
+        <v>55</v>
+      </c>
+      <c r="H64" s="30">
+        <v>65341</v>
+      </c>
+      <c r="I64" s="30">
+        <v>8</v>
+      </c>
+      <c r="J64" s="30">
+        <v>15</v>
+      </c>
+      <c r="K64" s="30">
+        <v>43964</v>
+      </c>
+      <c r="L64" s="30">
+        <v>0</v>
+      </c>
+      <c r="M64" s="30">
+        <v>562191</v>
+      </c>
+      <c r="N64" s="30">
+        <v>33111.13</v>
+      </c>
+      <c r="O64" s="30">
+        <v>0</v>
+      </c>
+      <c r="P64" s="30">
+        <v>14488.7348</v>
+      </c>
+      <c r="Q64" s="30">
+        <v>877.1528</v>
+      </c>
+      <c r="R64" s="35">
+        <f t="shared" si="16"/>
+        <v>17745.2424</v>
       </c>
       <c r="S64">
-        <f t="shared" ref="S64:S66" si="10">N64-O64-P64-Q64</f>
-        <v>90443.58</v>
+        <f t="shared" ref="S64:S66" si="17">N64-O64-P64-Q64</f>
+        <v>17745.2424</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:19">
       <c r="A65" s="21"/>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="29">
-        <v>17</v>
-      </c>
-      <c r="D65" s="29">
-        <v>134</v>
-      </c>
-      <c r="E65" s="29">
-        <v>68</v>
-      </c>
-      <c r="F65" s="29">
-        <v>54</v>
-      </c>
-      <c r="G65" s="29">
-        <v>227</v>
-      </c>
-      <c r="H65" s="24">
-        <v>133137</v>
-      </c>
-      <c r="I65" s="24">
-        <v>32</v>
-      </c>
-      <c r="J65" s="24">
-        <v>84</v>
-      </c>
-      <c r="K65" s="24">
-        <v>109685</v>
-      </c>
-      <c r="L65" s="24">
-        <v>4</v>
-      </c>
-      <c r="M65" s="24">
-        <v>1134333</v>
+      <c r="C65" s="30">
+        <v>11</v>
+      </c>
+      <c r="D65" s="30">
+        <v>45</v>
+      </c>
+      <c r="E65" s="30">
+        <v>24</v>
+      </c>
+      <c r="F65" s="24">
+        <v>19</v>
+      </c>
+      <c r="G65" s="24">
+        <v>67</v>
+      </c>
+      <c r="H65" s="30">
+        <v>113956</v>
+      </c>
+      <c r="I65" s="30">
+        <v>10</v>
+      </c>
+      <c r="J65" s="30">
+        <v>24</v>
+      </c>
+      <c r="K65" s="30">
+        <v>177958</v>
+      </c>
+      <c r="L65" s="30">
+        <v>1</v>
+      </c>
+      <c r="M65" s="30">
+        <v>1131679</v>
       </c>
       <c r="N65" s="24">
-        <v>9747.88</v>
-      </c>
-      <c r="O65" s="24">
-        <v>4982</v>
-      </c>
-      <c r="P65" s="24">
-        <v>1059.214</v>
-      </c>
-      <c r="Q65" s="24">
-        <v>0</v>
-      </c>
-      <c r="R65" s="33">
-        <f>N65-O65-P65-Q65</f>
-        <v>3706.666</v>
+        <v>-30814</v>
+      </c>
+      <c r="O65" s="30">
+        <v>0</v>
+      </c>
+      <c r="P65" s="30">
+        <v>30045.5279</v>
+      </c>
+      <c r="Q65" s="30">
+        <v>1293.3359</v>
+      </c>
+      <c r="R65" s="35">
+        <f t="shared" si="16"/>
+        <v>-62152.8638</v>
       </c>
       <c r="S65">
-        <f t="shared" si="10"/>
-        <v>3706.666</v>
+        <f t="shared" si="17"/>
+        <v>-62152.8638</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:19">
       <c r="A66" s="21"/>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="29">
-        <v>29</v>
-      </c>
-      <c r="D66" s="29">
-        <v>144</v>
-      </c>
-      <c r="E66" s="29">
-        <v>67</v>
-      </c>
-      <c r="F66" s="29">
-        <v>56</v>
-      </c>
-      <c r="G66" s="29">
-        <v>262</v>
-      </c>
-      <c r="H66" s="24">
-        <v>117332</v>
-      </c>
-      <c r="I66" s="24">
-        <v>21</v>
-      </c>
-      <c r="J66" s="24">
-        <v>61</v>
-      </c>
-      <c r="K66" s="24">
-        <v>40766</v>
-      </c>
-      <c r="L66" s="24">
-        <v>3</v>
-      </c>
-      <c r="M66" s="24">
-        <v>898806</v>
-      </c>
-      <c r="N66" s="24">
-        <v>67230.96</v>
-      </c>
-      <c r="O66" s="24">
-        <v>2637</v>
-      </c>
-      <c r="P66" s="24">
-        <v>1478.736</v>
-      </c>
-      <c r="Q66" s="24">
-        <v>0</v>
-      </c>
-      <c r="R66" s="33">
-        <f>N66-O66-P66-Q66</f>
-        <v>63115.224</v>
+      <c r="C66" s="30">
+        <v>11</v>
+      </c>
+      <c r="D66" s="30">
+        <v>46</v>
+      </c>
+      <c r="E66" s="30">
+        <v>25</v>
+      </c>
+      <c r="F66" s="30">
+        <v>20</v>
+      </c>
+      <c r="G66" s="26">
+        <v>80</v>
+      </c>
+      <c r="H66" s="26">
+        <v>172857</v>
+      </c>
+      <c r="I66" s="26">
+        <v>12</v>
+      </c>
+      <c r="J66" s="26">
+        <v>27</v>
+      </c>
+      <c r="K66" s="26">
+        <v>185745</v>
+      </c>
+      <c r="L66" s="26">
+        <v>1</v>
+      </c>
+      <c r="M66" s="26">
+        <v>1671330</v>
+      </c>
+      <c r="N66" s="26">
+        <v>-17305.4</v>
+      </c>
+      <c r="O66" s="26">
+        <v>0</v>
+      </c>
+      <c r="P66" s="26">
+        <v>43379.1287</v>
+      </c>
+      <c r="Q66" s="26">
+        <v>1630.9924</v>
+      </c>
+      <c r="R66" s="35">
+        <f t="shared" si="16"/>
+        <v>-62315.5211</v>
       </c>
       <c r="S66">
-        <f t="shared" si="10"/>
-        <v>63115.224</v>
+        <f t="shared" si="17"/>
+        <v>-62315.5211</v>
       </c>
     </row>
     <row r="67" ht="14.25"/>
@@ -5663,178 +5703,179 @@
       <c r="A68" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="28">
-        <v>37</v>
-      </c>
-      <c r="D68" s="29">
-        <v>128</v>
-      </c>
-      <c r="E68" s="29">
+      <c r="C68" s="30">
         <v>50</v>
       </c>
-      <c r="F68" s="24">
-        <v>36</v>
-      </c>
-      <c r="G68" s="24">
-        <v>201</v>
+      <c r="D68" s="30">
+        <v>101</v>
+      </c>
+      <c r="E68" s="30">
+        <v>63</v>
+      </c>
+      <c r="F68" s="30">
+        <v>23</v>
+      </c>
+      <c r="G68" s="30">
+        <v>190</v>
       </c>
       <c r="H68" s="24">
-        <v>193571</v>
+        <v>187077</v>
       </c>
       <c r="I68" s="24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J68" s="24">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="K68" s="24">
-        <v>189440</v>
+        <v>213653</v>
       </c>
       <c r="L68" s="24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M68" s="24">
-        <v>1407844</v>
-      </c>
-      <c r="N68" s="24">
-        <v>27865.07</v>
+        <v>1626408</v>
+      </c>
+      <c r="N68" s="26">
+        <v>-9148.89</v>
       </c>
       <c r="O68" s="24">
-        <v>8685</v>
+        <v>9611</v>
       </c>
       <c r="P68" s="24">
-        <v>16590.78</v>
+        <v>20261.903</v>
       </c>
       <c r="Q68" s="24">
-        <v>16.61</v>
-      </c>
-      <c r="R68" s="24">
-        <v>2572.69</v>
+        <v>1228.857</v>
+      </c>
+      <c r="R68" s="35">
+        <f>N68-O68-P68-Q68</f>
+        <v>-40250.65</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S70" si="11">N68-O68-P68-Q68</f>
-        <v>2572.68</v>
+        <f t="shared" ref="S68:S70" si="18">N68-O68-P68-Q68</f>
+        <v>-40250.65</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:19">
       <c r="A69" s="21"/>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="29">
-        <v>13</v>
-      </c>
-      <c r="D69" s="29">
-        <v>92</v>
-      </c>
-      <c r="E69" s="29">
-        <v>36</v>
-      </c>
-      <c r="F69" s="29">
-        <v>28</v>
-      </c>
-      <c r="G69" s="29">
-        <v>168</v>
+      <c r="C69" s="30">
+        <v>26</v>
+      </c>
+      <c r="D69" s="30">
+        <v>82</v>
+      </c>
+      <c r="E69" s="30">
+        <v>50</v>
+      </c>
+      <c r="F69" s="30">
+        <v>24</v>
+      </c>
+      <c r="G69" s="30">
+        <v>223</v>
       </c>
       <c r="H69" s="24">
-        <v>207320</v>
+        <v>275766</v>
       </c>
       <c r="I69" s="24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J69" s="24">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K69" s="24">
-        <v>146900</v>
+        <v>292143</v>
       </c>
       <c r="L69" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M69" s="24">
-        <v>1065437</v>
-      </c>
-      <c r="N69" s="24">
-        <v>83494.6</v>
+        <v>2192698</v>
+      </c>
+      <c r="N69" s="26">
+        <v>42808.22</v>
       </c>
       <c r="O69" s="24">
-        <v>8844</v>
+        <v>9470</v>
       </c>
       <c r="P69" s="24">
-        <v>14226.742</v>
+        <v>27904.522</v>
       </c>
       <c r="Q69" s="24">
-        <v>31.086</v>
-      </c>
-      <c r="R69" s="33">
+        <v>2744.172</v>
+      </c>
+      <c r="R69" s="35">
         <f>N69-O69-P69-Q69</f>
-        <v>60392.772</v>
+        <v>2689.526</v>
       </c>
       <c r="S69">
-        <f t="shared" si="11"/>
-        <v>60392.772</v>
+        <f t="shared" si="18"/>
+        <v>2689.526</v>
       </c>
     </row>
     <row r="70" ht="18.75" spans="1:19">
       <c r="A70" s="21"/>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="29">
-        <v>13</v>
-      </c>
-      <c r="D70" s="29">
-        <v>80</v>
-      </c>
-      <c r="E70" s="29">
-        <v>36</v>
-      </c>
-      <c r="F70" s="29">
-        <v>29</v>
-      </c>
-      <c r="G70" s="29">
-        <v>231</v>
-      </c>
-      <c r="H70" s="24">
-        <v>397993</v>
-      </c>
-      <c r="I70" s="24">
-        <v>16</v>
-      </c>
-      <c r="J70" s="24">
-        <v>80</v>
-      </c>
-      <c r="K70" s="24">
-        <v>434964</v>
-      </c>
-      <c r="L70" s="24">
-        <v>2</v>
-      </c>
-      <c r="M70" s="24">
-        <v>2429664</v>
-      </c>
-      <c r="N70" s="24">
-        <v>-48729.69</v>
-      </c>
-      <c r="O70" s="24">
-        <v>11792</v>
-      </c>
-      <c r="P70" s="24">
-        <v>30620.499</v>
-      </c>
-      <c r="Q70" s="24">
-        <v>5480.679</v>
-      </c>
-      <c r="R70" s="33">
+      <c r="C70" s="30">
+        <v>65</v>
+      </c>
+      <c r="D70" s="30">
+        <v>108</v>
+      </c>
+      <c r="E70" s="30">
+        <v>78</v>
+      </c>
+      <c r="F70" s="30">
+        <v>25</v>
+      </c>
+      <c r="G70" s="30">
+        <v>270</v>
+      </c>
+      <c r="H70" s="26">
+        <v>285805</v>
+      </c>
+      <c r="I70" s="26">
+        <v>30</v>
+      </c>
+      <c r="J70" s="26">
+        <v>116</v>
+      </c>
+      <c r="K70" s="26">
+        <v>303891</v>
+      </c>
+      <c r="L70" s="26">
+        <v>9</v>
+      </c>
+      <c r="M70" s="26">
+        <v>1957683</v>
+      </c>
+      <c r="N70" s="26">
+        <v>38186.73</v>
+      </c>
+      <c r="O70" s="26">
+        <v>14105</v>
+      </c>
+      <c r="P70" s="26">
+        <v>23981.668</v>
+      </c>
+      <c r="Q70" s="26">
+        <v>2484.924</v>
+      </c>
+      <c r="R70" s="35">
         <f>N70-O70-P70-Q70</f>
-        <v>-96622.868</v>
+        <v>-2384.862</v>
       </c>
       <c r="S70">
-        <f t="shared" si="11"/>
-        <v>-96622.868</v>
+        <f t="shared" si="18"/>
+        <v>-2384.862</v>
       </c>
     </row>
   </sheetData>
@@ -5915,808 +5956,1700 @@
     <mergeCell ref="Y2:Y3"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:V8">
+    <cfRule type="cellIs" dxfId="0" priority="484" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="483" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="285" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="286" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="291" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="292" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8">
+    <cfRule type="cellIs" dxfId="0" priority="289" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="290" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="cellIs" dxfId="0" priority="287" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="288" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9">
+    <cfRule type="cellIs" dxfId="0" priority="297" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="298" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:V9">
+    <cfRule type="cellIs" dxfId="0" priority="512" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="511" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="482" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="481" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="283" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="284" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9">
+    <cfRule type="cellIs" dxfId="0" priority="488" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="487" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="295" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="296" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9">
+    <cfRule type="cellIs" dxfId="0" priority="486" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="485" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="293" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="294" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:R10">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10:V10">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10">
+    <cfRule type="cellIs" dxfId="0" priority="532" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="531" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="0" priority="526" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="525" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:E12">
+    <cfRule type="cellIs" dxfId="0" priority="273" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="274" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:V12">
+    <cfRule type="cellIs" dxfId="0" priority="474" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="473" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="267" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="268" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="275" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="276" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12">
+    <cfRule type="cellIs" dxfId="0" priority="271" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="272" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12">
+    <cfRule type="cellIs" dxfId="0" priority="269" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="270" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:E13">
+    <cfRule type="cellIs" dxfId="0" priority="480" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="479" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="281" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="282" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:V13">
+    <cfRule type="cellIs" dxfId="0" priority="504" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="503" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="472" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="471" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="265" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="266" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="cellIs" dxfId="0" priority="478" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="477" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="279" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="280" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
+    <cfRule type="cellIs" dxfId="0" priority="476" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="475" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="277" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="278" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:R14">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14:V14">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14">
+    <cfRule type="cellIs" dxfId="0" priority="530" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="529" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="cellIs" dxfId="0" priority="524" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="523" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:V16">
+    <cfRule type="cellIs" dxfId="0" priority="462" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="461" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="251" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="252" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="257" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="258" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16">
+    <cfRule type="cellIs" dxfId="0" priority="255" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="256" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16">
+    <cfRule type="cellIs" dxfId="0" priority="253" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="254" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:E17">
+    <cfRule type="cellIs" dxfId="0" priority="263" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="264" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:V17">
+    <cfRule type="cellIs" dxfId="0" priority="496" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="495" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="460" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="459" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="249" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="250" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17">
+    <cfRule type="cellIs" dxfId="0" priority="466" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="465" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="261" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="262" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y17">
+    <cfRule type="cellIs" dxfId="0" priority="464" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="463" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="259" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="260" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:R18">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18:V18">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="cellIs" dxfId="0" priority="528" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="527" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y18">
+    <cfRule type="cellIs" dxfId="0" priority="522" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="521" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:P28">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="cellIs" dxfId="0" priority="115" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="116" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="117" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="118" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:O32">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="44" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="46" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32">
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="120" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="121" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="122" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:P36">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="47" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="50" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36">
+    <cfRule type="cellIs" dxfId="0" priority="123" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="124" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="125" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="126" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:N40">
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="55" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="56" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R40">
+    <cfRule type="cellIs" dxfId="0" priority="111" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="112" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="113" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="114" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:P47">
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:P49">
+    <cfRule type="cellIs" dxfId="0" priority="217" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="218" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:G50">
+    <cfRule type="cellIs" dxfId="0" priority="221" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="222" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:P50">
+    <cfRule type="cellIs" dxfId="0" priority="394" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="393" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:Q50">
+    <cfRule type="cellIs" dxfId="0" priority="213" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="214" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="215" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="216" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:Q51">
+    <cfRule type="cellIs" dxfId="0" priority="75" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="78" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="71" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="73" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="74" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R51">
+    <cfRule type="cellIs" dxfId="0" priority="131" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="132" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="133" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="134" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:G53">
+    <cfRule type="cellIs" dxfId="0" priority="209" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="210" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:Q53">
+    <cfRule type="cellIs" dxfId="0" priority="207" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="208" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:G54">
+    <cfRule type="cellIs" dxfId="0" priority="392" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="391" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="211" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="212" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:Q54">
+    <cfRule type="cellIs" dxfId="0" priority="388" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="387" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="203" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="204" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="205" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="206" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:Q55">
+    <cfRule type="cellIs" dxfId="0" priority="83" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="84" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="85" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="86" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="81" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R55">
+    <cfRule type="cellIs" dxfId="0" priority="127" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="128" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="129" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="130" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="cellIs" dxfId="0" priority="312" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="311" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="201" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="202" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="0" priority="320" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="319" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="310" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="309" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="199" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="200" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60:Q60">
+    <cfRule type="cellIs" dxfId="0" priority="197" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="198" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="cellIs" dxfId="0" priority="318" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="317" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="0" priority="316" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="315" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:Q61">
+    <cfRule type="cellIs" dxfId="0" priority="306" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="305" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="193" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="194" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="195" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="196" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:Q62">
+    <cfRule type="cellIs" dxfId="0" priority="91" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="92" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="93" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="94" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="87" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="88" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="89" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="90" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R63">
+    <cfRule type="cellIs" dxfId="0" priority="171" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="172" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:G64">
+    <cfRule type="cellIs" dxfId="0" priority="179" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="180" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:E65">
+    <cfRule type="cellIs" dxfId="0" priority="350" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="349" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="181" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="182" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65:G65">
+    <cfRule type="cellIs" dxfId="0" priority="163" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="164" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="165" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="166" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="159" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="160" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="161" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="162" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N65">
+    <cfRule type="cellIs" dxfId="0" priority="139" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="140" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="141" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="142" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="135" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="136" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:V9">
+    <cfRule type="cellIs" dxfId="0" priority="137" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="138" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66:Q66">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="100" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="102" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="95" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="96" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="97" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="98" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="cellIs" dxfId="0" priority="344" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="343" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="191" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="192" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="cellIs" dxfId="0" priority="364" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="363" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="342" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="341" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="189" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="190" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68:Q68">
+    <cfRule type="cellIs" dxfId="0" priority="187" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="188" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R68">
+    <cfRule type="cellIs" dxfId="0" priority="300" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="299" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="cellIs" dxfId="0" priority="362" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="361" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="cellIs" dxfId="0" priority="360" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="359" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:Q69">
+    <cfRule type="cellIs" dxfId="0" priority="338" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="337" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="183" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="184" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="185" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="186" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:Q70">
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="108" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="110" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="103" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="104" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="106" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30:R31">
+    <cfRule type="cellIs" dxfId="0" priority="438" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="437" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34:R35">
+    <cfRule type="cellIs" dxfId="0" priority="434" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="433" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R38:R39">
+    <cfRule type="cellIs" dxfId="0" priority="430" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="429" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R45:R47">
+    <cfRule type="cellIs" dxfId="0" priority="400" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="399" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R49:R50">
+    <cfRule type="cellIs" dxfId="0" priority="396" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="395" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R53:R54">
+    <cfRule type="cellIs" dxfId="0" priority="390" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="389" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R68:R70">
+    <cfRule type="cellIs" dxfId="0" priority="340" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="339" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X3">
+    <cfRule type="cellIs" dxfId="0" priority="556" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="555" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X5">
+    <cfRule type="cellIs" dxfId="0" priority="518" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="517" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8:X9">
+    <cfRule type="cellIs" dxfId="0" priority="510" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="509" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12:X13">
+    <cfRule type="cellIs" dxfId="0" priority="502" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="501" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16:X17">
+    <cfRule type="cellIs" dxfId="0" priority="494" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="493" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y3">
+    <cfRule type="cellIs" dxfId="0" priority="548" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="547" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y5">
+    <cfRule type="cellIs" dxfId="0" priority="516" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="515" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8:Y9">
+    <cfRule type="cellIs" dxfId="0" priority="508" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="507" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12:Y13">
+    <cfRule type="cellIs" dxfId="0" priority="500" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="499" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16:Y17">
+    <cfRule type="cellIs" dxfId="0" priority="492" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="491" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="$A1:$XFD1 B2:W3 A2:A4 A15:A16 Z2:XFD18 A7:A8 B19:XFD25 S26:XFD40 $A41:$XFD42 S43:XFD55 $A56:$XFD57 S58:XFD70 $A71:$XFD1048576 A19:A24 A29:A30 A33:A34 A11:A12 A37:A38">
+    <cfRule type="cellIs" dxfId="0" priority="563" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="564" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B6 B14:E14 B10:E10 B18:E18 B16 B17 B15:Y15 B7:Y7 B8 B9 B13 B11:Y11 B12">
+    <cfRule type="cellIs" dxfId="0" priority="534" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="533" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:Y6 C4:W5">
+    <cfRule type="cellIs" dxfId="0" priority="520" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="519" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:Y6 C4:E4">
+    <cfRule type="cellIs" dxfId="0" priority="470" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="469" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9 C8:W8 W8:W10">
+    <cfRule type="cellIs" dxfId="0" priority="514" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="513" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:E9 W8:W10">
+    <cfRule type="cellIs" dxfId="0" priority="490" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="489" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:E13 C12:W12 W12:W14">
+    <cfRule type="cellIs" dxfId="0" priority="506" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="505" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:E17 C16:W16 W16:W18">
+    <cfRule type="cellIs" dxfId="0" priority="498" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="497" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:E17 W16:W18">
+    <cfRule type="cellIs" dxfId="0" priority="468" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="467" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B27 B29:R29 B30:B31 B33:R33 B34:B35 B37:R37 B38:B39 B32:G32 B36:G36 B40:G40 P32:Q32 Q36 Q40 B28:D28 Q28">
+    <cfRule type="cellIs" dxfId="0" priority="452" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="451" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:R27">
+    <cfRule type="cellIs" dxfId="0" priority="450" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="449" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:Q27">
+    <cfRule type="cellIs" dxfId="0" priority="442" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="441" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:G27 Q27 I27:J27 L27">
+    <cfRule type="cellIs" dxfId="0" priority="247" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="248" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:G31 P30:R31">
+    <cfRule type="cellIs" dxfId="0" priority="448" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="447" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:G30 P30:Q30">
+    <cfRule type="cellIs" dxfId="0" priority="243" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="244" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:O31">
+    <cfRule type="cellIs" dxfId="0" priority="426" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="425" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="424" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="423" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:G31 P31:Q31">
+    <cfRule type="cellIs" dxfId="0" priority="440" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="439" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="245" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="246" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:J31 L31">
+    <cfRule type="cellIs" dxfId="0" priority="241" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="242" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:G35 Q34:R35 R37:R38">
+    <cfRule type="cellIs" dxfId="0" priority="446" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="445" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:G34 Q34">
+    <cfRule type="cellIs" dxfId="0" priority="237" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="238" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="237" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="133" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="134" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X9">
-    <cfRule type="cellIs" dxfId="0" priority="139" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="140" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y9">
-    <cfRule type="cellIs" dxfId="0" priority="137" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="138" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:V10">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X10">
-    <cfRule type="cellIs" dxfId="0" priority="266" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="265" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
-    <cfRule type="cellIs" dxfId="0" priority="252" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="251" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:V12">
-    <cfRule type="cellIs" dxfId="0" priority="125" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="126" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:E13">
-    <cfRule type="cellIs" dxfId="0" priority="131" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="132" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:V13">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:P35">
+    <cfRule type="cellIs" dxfId="0" priority="420" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="419" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="418" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="417" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:G35 Q35">
+    <cfRule type="cellIs" dxfId="0" priority="436" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="435" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="239" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="240" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:J35 L35">
+    <cfRule type="cellIs" dxfId="0" priority="235" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="236" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:G39 Q38:R39">
+    <cfRule type="cellIs" dxfId="0" priority="444" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="443" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:G38 Q38">
+    <cfRule type="cellIs" dxfId="0" priority="231" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="232" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:P39 H40:L40 O40:P40">
+    <cfRule type="cellIs" dxfId="0" priority="414" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="413" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="412" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="411" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:G39 Q39">
+    <cfRule type="cellIs" dxfId="0" priority="432" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="431" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="233" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="234" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:J39 L39">
+    <cfRule type="cellIs" dxfId="0" priority="229" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="230" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="229" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="123" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="124" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X13">
-    <cfRule type="cellIs" dxfId="0" priority="129" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="130" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13">
-    <cfRule type="cellIs" dxfId="0" priority="127" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="128" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:V14">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="0" priority="264" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="263" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14">
-    <cfRule type="cellIs" dxfId="0" priority="250" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="249" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:V16">
-    <cfRule type="cellIs" dxfId="0" priority="111" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="112" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:V17">
-    <cfRule type="cellIs" dxfId="0" priority="222" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="221" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="109" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="110" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X17">
-    <cfRule type="cellIs" dxfId="0" priority="115" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="116" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y17">
-    <cfRule type="cellIs" dxfId="0" priority="113" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="114" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:V18">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X18">
-    <cfRule type="cellIs" dxfId="0" priority="262" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="261" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y18">
-    <cfRule type="cellIs" dxfId="0" priority="248" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="247" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:P50">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="78" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:Q51">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:G54">
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:Q54">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:Q55">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:P61">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62:P62">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65:P65">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66:P66">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="0" priority="195" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="196" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="cellIs" dxfId="0" priority="191" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="192" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
-    <cfRule type="cellIs" dxfId="0" priority="189" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="190" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69:Q69">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70:Q70">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31:R32">
-    <cfRule type="cellIs" dxfId="0" priority="103" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="104" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R35:R36">
-    <cfRule type="cellIs" dxfId="0" priority="97" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="98" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R39:R40">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R46:R47">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="86" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R50:R51">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="80" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R54:R55">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R61:R62">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R65:R66">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R69:R70">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X3">
-    <cfRule type="cellIs" dxfId="0" priority="268" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="267" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X5">
-    <cfRule type="cellIs" dxfId="0" priority="244" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="243" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X8:X9">
-    <cfRule type="cellIs" dxfId="0" priority="236" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="235" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X12:X13">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:J40 L40">
+    <cfRule type="cellIs" dxfId="0" priority="416" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="415" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:R44 B45:B46 B48:R48 B49:B50 B52:R52 B53:B54 A43 A48:A49 A52:A53 B47:G47 B51:G51 B55:G55 Q47">
+    <cfRule type="cellIs" dxfId="0" priority="410" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="409" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:G46 Q45:R46 R47">
+    <cfRule type="cellIs" dxfId="0" priority="408" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="407" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:G45 Q45">
+    <cfRule type="cellIs" dxfId="0" priority="225" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="226" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:P46">
+    <cfRule type="cellIs" dxfId="0" priority="384" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="383" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="382" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="381" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:G46 Q46">
+    <cfRule type="cellIs" dxfId="0" priority="402" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="401" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="227" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="228" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="227" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X16:X17">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:J46 L46">
+    <cfRule type="cellIs" dxfId="0" priority="223" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="224" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:R50">
+    <cfRule type="cellIs" dxfId="0" priority="406" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="405" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:G49 Q49">
+    <cfRule type="cellIs" dxfId="0" priority="219" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="220" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="219" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="cellIs" dxfId="0" priority="260" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="259" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y5">
-    <cfRule type="cellIs" dxfId="0" priority="242" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="241" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y9">
-    <cfRule type="cellIs" dxfId="0" priority="234" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="233" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y12:Y13">
-    <cfRule type="cellIs" dxfId="0" priority="226" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="225" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:Y17">
-    <cfRule type="cellIs" dxfId="0" priority="218" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="217" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD1 B2:W3 B4:B6 A2:A4 B14:E14 B10:E10 B18:E18 A16:B16 B17 $A15:$XFD15 Z2:XFD6 $A7:$XFD7 A8:B8 B9 B19:XFD25 B26:B27 B29:XFD29 B30:B31 B33:XFD33 B34:B35 B37:XFD37 B38:B39 B41:XFD44 B45:B46 B48:XFD48 B49:B50 B52:XFD52 B53:B54 B56:XFD59 B60:B61 B63:XFD63 B64:B65 B67:XFD67 $A71:$XFD1048576 A19:A24 Z12:XFD14 A29:A30 B13 A33:A34 $A11:$XFD11 A37:A38 Z8:XFD10 A41:A43 Z16:XFD18 A48:A49 A52:A53 A12:B12 A56:A58 A63:A64 A67:A68 C68 S26:XFD28 B32:G32 S30:XFD32 B36:G36 S34:XFD36 B40:G40 S38:XFD40 B47:G47 S45:XFD47 B51:G51 S49:XFD51 B55:G55 S53:XFD55 B62:G62 S60:XFD62 B66:G66 S64:XFD66 S68:XFD70 P32:Q32 Q36 Q40 Q47 Q62 Q66 B28:G28 C69:G70 E68:E69 Q28 I28:J28 L28">
-    <cfRule type="cellIs" dxfId="0" priority="275" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="276" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:W5 C6:Y6">
-    <cfRule type="cellIs" dxfId="0" priority="246" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="245" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:Y6">
-    <cfRule type="cellIs" dxfId="0" priority="119" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="120" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:E9 C8:W8 W8:W10">
-    <cfRule type="cellIs" dxfId="0" priority="240" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="239" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:E9 W9:W10">
-    <cfRule type="cellIs" dxfId="0" priority="141" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="142" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:E13 C12:W12 W13:W14">
-    <cfRule type="cellIs" dxfId="0" priority="232" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="231" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:E17 C16:W16 W17:W18">
-    <cfRule type="cellIs" dxfId="0" priority="224" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="223" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:E17 W17:W18">
-    <cfRule type="cellIs" dxfId="0" priority="117" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="118" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:R27 R27:R28 H26:P28">
-    <cfRule type="cellIs" dxfId="0" priority="216" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="215" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:Q27 H26:P28">
-    <cfRule type="cellIs" dxfId="0" priority="107" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="108" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:G31 R32 P30:R31">
-    <cfRule type="cellIs" dxfId="0" priority="214" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="213" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:O32">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:G31 P31:Q31">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="106" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:J32 L32">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:G35 R36 Q34:R35">
-    <cfRule type="cellIs" dxfId="0" priority="212" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="211" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:P36">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:G35 Q35">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="100" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36 L36">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:G39 R40 Q38:R39">
-    <cfRule type="cellIs" dxfId="0" priority="210" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="209" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:P40">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39:G39 Q39">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="94" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40 L40">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45:G46 R47 Q45:R46">
-    <cfRule type="cellIs" dxfId="0" priority="208" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="207" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:P47">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:G46 Q46">
-    <cfRule type="cellIs" dxfId="0" priority="87" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="88" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:J47 L47">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:R50 R51">
-    <cfRule type="cellIs" dxfId="0" priority="206" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="205" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:G50 Q50">
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:R54 R55">
-    <cfRule type="cellIs" dxfId="0" priority="204" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="203" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:R61 R62">
-    <cfRule type="cellIs" dxfId="0" priority="202" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="201" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:G61 Q61">
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64:R65 R66">
-    <cfRule type="cellIs" dxfId="0" priority="200" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="199" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65:G65 Q65">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="398" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="397" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:R54">
+    <cfRule type="cellIs" dxfId="0" priority="404" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="403" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:R59 B63:Q63 B64:B65 B67:R67 A58 A63:A64 A67:A68 B66:F66 C68:G70">
+    <cfRule type="cellIs" dxfId="0" priority="372" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="371" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B61 B62">
+    <cfRule type="cellIs" dxfId="0" priority="322" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="321" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:G62">
+    <cfRule type="cellIs" dxfId="0" priority="324" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="323" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60:R61 R62 R64:R66">
+    <cfRule type="cellIs" dxfId="0" priority="314" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="313" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R60:R62 R64:R66">
+    <cfRule type="cellIs" dxfId="0" priority="308" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="307" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:E65 C64:G64">
+    <cfRule type="cellIs" dxfId="0" priority="368" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="367" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64:Q64 H65:M65 O65:Q65">
+    <cfRule type="cellIs" dxfId="0" priority="169" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="170" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="167" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="168" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69 B70">
-    <cfRule type="cellIs" dxfId="0" priority="198" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="197" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68:R69 R70">
-    <cfRule type="cellIs" dxfId="0" priority="187" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="188" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="366" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="365" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:R69 R68:R70">
+    <cfRule type="cellIs" dxfId="0" priority="358" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="357" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6739,12 +7672,12 @@
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
     <col min="3" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="12.8833333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="5" customWidth="1"/>
     <col min="8" max="11" width="9" style="5"/>
     <col min="12" max="12" width="10" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.8833333333333" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="5" customWidth="1"/>
     <col min="14" max="16" width="9" style="5"/>
-    <col min="17" max="17" width="10.3833333333333" style="5" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="5" customWidth="1"/>
     <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -7002,15 +7935,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -7038,445 +7971,493 @@
       <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" ht="24.75" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2">
-        <v>1432</v>
+        <v>6279</v>
       </c>
       <c r="C2" s="2">
-        <v>77941</v>
+        <v>1971719</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>63583.2</v>
+        <v>1805562.75</v>
       </c>
       <c r="F2" s="2">
-        <v>8001.8</v>
+        <v>-13565.75</v>
       </c>
       <c r="G2" s="2">
-        <v>71585</v>
+        <v>1791997</v>
       </c>
       <c r="H2" s="2">
-        <v>7723.9465</v>
+        <v>-15683.0835</v>
       </c>
       <c r="I2" s="2">
-        <v>277.85</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:9">
+        <v>2103.35</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2">
-        <v>3542</v>
+        <v>6323</v>
       </c>
       <c r="C3" s="2">
-        <v>147307</v>
+        <v>1471887</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>138328</v>
+        <v>1438618.5</v>
       </c>
       <c r="F3" s="2">
-        <v>-1719</v>
+        <v>271.5</v>
       </c>
       <c r="G3" s="2">
-        <v>136609</v>
+        <v>1438890</v>
       </c>
       <c r="H3" s="2">
-        <v>-2163.032</v>
+        <v>-5350.444</v>
       </c>
       <c r="I3" s="2">
-        <v>444.03</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:9">
+        <v>5621.86</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-3.72</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4.98</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" ht="24.75" spans="1:9">
+    </row>
+    <row r="5" ht="24.75" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2">
-        <v>1195</v>
+        <v>6091</v>
       </c>
       <c r="C5" s="2">
-        <v>66120</v>
+        <v>2511384</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>76122.8</v>
+        <v>2065190.55</v>
       </c>
       <c r="F5" s="2">
-        <v>-12739.8</v>
+        <v>196845.45</v>
       </c>
       <c r="G5" s="2">
-        <v>63383</v>
+        <v>2262036</v>
       </c>
       <c r="H5" s="2">
-        <v>-12972.256</v>
+        <v>191892.232</v>
       </c>
       <c r="I5" s="2">
-        <v>232.46</v>
-      </c>
-    </row>
-    <row r="6" ht="24.75" spans="1:9">
+        <v>4947.43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2">
-        <v>803</v>
+        <v>5425</v>
       </c>
       <c r="C6" s="2">
-        <v>54681</v>
+        <v>1346370</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>41911.35</v>
+        <v>1258884.6</v>
       </c>
       <c r="F6" s="2">
-        <v>4006.65</v>
+        <v>-15726.6</v>
       </c>
       <c r="G6" s="2">
-        <v>45918</v>
+        <v>1243158</v>
       </c>
       <c r="H6" s="2">
-        <v>3844.671</v>
+        <v>-20674.573</v>
       </c>
       <c r="I6" s="2">
-        <v>161.98</v>
-      </c>
-    </row>
-    <row r="7" ht="24.75" spans="1:9">
+        <v>4941.13</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="24.75" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2">
-        <v>943</v>
+        <v>5345</v>
       </c>
       <c r="C7" s="2">
-        <v>48222</v>
+        <v>1342491</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>43804.35</v>
+        <v>1211118.15</v>
       </c>
       <c r="F7" s="2">
-        <v>-1446.35</v>
+        <v>-4956.15</v>
       </c>
       <c r="G7" s="2">
-        <v>42358</v>
+        <v>1206162</v>
       </c>
       <c r="H7" s="2">
-        <v>-1606.5115</v>
+        <v>-9772.5355</v>
       </c>
       <c r="I7" s="2">
-        <v>160.16</v>
-      </c>
-    </row>
-    <row r="8" ht="24.75" spans="1:9">
+        <v>4803.41</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="24.75" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2">
-        <v>1055</v>
+        <v>5149</v>
       </c>
       <c r="C8" s="2">
-        <v>90029</v>
+        <v>2312796</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>82984.65</v>
+        <v>1992122.4</v>
       </c>
       <c r="F8" s="2">
-        <v>1530.35</v>
+        <v>91393.6</v>
       </c>
       <c r="G8" s="2">
-        <v>84515</v>
+        <v>2083516</v>
       </c>
       <c r="H8" s="2">
-        <v>1221.1365</v>
+        <v>87027.8785</v>
       </c>
       <c r="I8" s="2">
-        <v>309.21</v>
-      </c>
-    </row>
-    <row r="9" ht="24" spans="1:9">
+        <v>4351.06</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="24" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2">
-        <v>8159</v>
+        <v>18731</v>
       </c>
       <c r="C9" s="2">
-        <v>372991</v>
+        <v>3141625</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>316606</v>
+        <v>2584599.3</v>
       </c>
       <c r="F9" s="2">
-        <v>13943</v>
+        <v>263307.7</v>
       </c>
       <c r="G9" s="2">
-        <v>330549</v>
+        <v>2847907</v>
       </c>
       <c r="H9" s="2">
-        <v>12691.6265</v>
+        <v>253142.1205</v>
       </c>
       <c r="I9" s="2">
-        <v>1251.37</v>
-      </c>
-    </row>
-    <row r="10" ht="24.75" spans="1:9">
+        <v>10013.78</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2">
-        <v>1836</v>
+        <v>5480</v>
       </c>
       <c r="C10" s="2">
-        <v>152302</v>
+        <v>1278836</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2">
-        <v>143626.5</v>
+        <v>1166790.25</v>
       </c>
       <c r="F10" s="2">
-        <v>-4652.5</v>
+        <v>17270.75</v>
       </c>
       <c r="G10" s="2">
-        <v>138974</v>
+        <v>1184061</v>
       </c>
       <c r="H10" s="2">
-        <v>-5192.3095</v>
+        <v>14148.1445</v>
       </c>
       <c r="I10" s="2">
-        <v>539.81</v>
-      </c>
-    </row>
-    <row r="11" ht="24.75" spans="1:9">
+        <v>3118.89</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2">
-        <v>1379</v>
+        <v>6395</v>
       </c>
       <c r="C11" s="2">
-        <v>104095</v>
+        <v>2097858</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>93070.1</v>
+        <v>1857252.2</v>
       </c>
       <c r="F11" s="2">
-        <v>254.9</v>
+        <v>93343.8</v>
       </c>
       <c r="G11" s="2">
-        <v>93325</v>
+        <v>1950596</v>
       </c>
       <c r="H11" s="2">
-        <v>-84.5195</v>
+        <v>88376.1385</v>
       </c>
       <c r="I11" s="2">
-        <v>339.42</v>
-      </c>
-    </row>
-    <row r="12" ht="24.75" spans="1:9">
+        <v>4958.48</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="24.75" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2">
-        <v>2524</v>
+        <v>5880</v>
       </c>
       <c r="C12" s="2">
-        <v>230682</v>
+        <v>1568523</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>192751</v>
+        <v>1378343.1</v>
       </c>
       <c r="F12" s="2">
-        <v>14530</v>
+        <v>35790.9</v>
       </c>
       <c r="G12" s="2">
-        <v>207281</v>
+        <v>1414134</v>
       </c>
       <c r="H12" s="2">
-        <v>13719.314</v>
+        <v>32462.538</v>
       </c>
       <c r="I12" s="2">
-        <v>810.69</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" spans="1:9">
+        <v>3323.31</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2">
-        <v>1166</v>
+        <v>5955</v>
       </c>
       <c r="C13" s="2">
-        <v>53059</v>
+        <v>1281115</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>50185.3</v>
+        <v>1215072.3</v>
       </c>
       <c r="F13" s="2">
-        <v>-3641.3</v>
+        <v>-55062.3</v>
       </c>
       <c r="G13" s="2">
-        <v>46544</v>
+        <v>1160010</v>
       </c>
       <c r="H13" s="2">
-        <v>-3817.2065</v>
+        <v>-59680.6125</v>
       </c>
       <c r="I13" s="2">
-        <v>175.91</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
+        <v>4613.37</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2">
-        <v>8423</v>
+        <v>28268</v>
       </c>
       <c r="C14" s="2">
-        <v>258024</v>
+        <v>687922</v>
       </c>
       <c r="D14" s="2">
-        <v>1882</v>
+        <v>4005</v>
       </c>
       <c r="E14" s="2">
-        <v>248122.81</v>
+        <v>657480.62</v>
       </c>
       <c r="F14" s="2">
-        <v>10001.19</v>
+        <v>30541.38</v>
       </c>
       <c r="G14" s="2">
-        <v>258124</v>
+        <v>688022</v>
       </c>
       <c r="H14" s="2">
-        <v>7141.8777</v>
+        <v>26801.1297</v>
       </c>
       <c r="I14" s="2">
-        <v>2851.51</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:9">
+        <v>3703.49</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2">
-        <v>419</v>
+        <v>4877</v>
       </c>
       <c r="C15" s="2">
-        <v>3974</v>
+        <v>113304</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2">
-        <v>3051.2</v>
+        <v>112162.14</v>
       </c>
       <c r="F15" s="2">
-        <v>922.8</v>
+        <v>1141.86</v>
       </c>
       <c r="G15" s="2">
-        <v>3974</v>
+        <v>113304</v>
       </c>
       <c r="H15" s="2">
-        <v>890.477</v>
+        <v>828.923</v>
       </c>
       <c r="I15" s="2">
-        <v>32.32</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:9">
+        <v>312.94</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2">
-        <v>58</v>
+        <v>3120</v>
       </c>
       <c r="C16" s="2">
-        <v>1812</v>
+        <v>416542</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>3131</v>
       </c>
       <c r="E16" s="2">
-        <v>1642.35</v>
+        <v>404633.05</v>
       </c>
       <c r="F16" s="2">
-        <v>169.65</v>
+        <v>11908.95</v>
       </c>
       <c r="G16" s="2">
-        <v>1812</v>
+        <v>416542</v>
       </c>
       <c r="H16" s="2">
-        <v>168.107</v>
+        <v>11494.547</v>
       </c>
       <c r="I16" s="2">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:9">
+        <v>414.4</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -7502,474 +8483,525 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:9">
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" s="2">
-        <v>7385</v>
+        <v>26648</v>
       </c>
       <c r="C18" s="2">
-        <v>628041</v>
+        <v>2360995</v>
       </c>
       <c r="D18" s="2">
-        <v>3095</v>
+        <v>4903</v>
       </c>
       <c r="E18" s="2">
-        <v>595013.47</v>
+        <v>2268380.86</v>
       </c>
       <c r="F18" s="2">
-        <v>33027.53</v>
+        <v>92614.14</v>
       </c>
       <c r="G18" s="2">
-        <v>628041</v>
+        <v>2360995</v>
       </c>
       <c r="H18" s="2">
-        <v>22276.0275</v>
+        <v>78596.5915</v>
       </c>
       <c r="I18" s="2">
-        <v>10448.52</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:9">
+        <v>13714.55</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" s="2">
-        <v>4901</v>
+        <v>22162</v>
       </c>
       <c r="C19" s="2">
-        <v>373002</v>
+        <v>1031142</v>
       </c>
       <c r="D19" s="2">
-        <v>6</v>
+        <v>7292</v>
       </c>
       <c r="E19" s="2">
-        <v>368560.43</v>
+        <v>1071500.49</v>
       </c>
       <c r="F19" s="2">
-        <v>4441.57</v>
+        <v>-40358.49</v>
       </c>
       <c r="G19" s="2">
-        <v>373002</v>
+        <v>1031142</v>
       </c>
       <c r="H19" s="2">
-        <v>-5831.5784</v>
+        <v>-52239.3854</v>
       </c>
       <c r="I19" s="2">
-        <v>9564.05</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:9">
+        <v>11157.28</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>585.6</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>-309.6</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>-309.6</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:9">
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2">
-        <v>11689</v>
+        <v>32505</v>
       </c>
       <c r="C21" s="2">
-        <v>129116</v>
+        <v>485253</v>
       </c>
       <c r="D21" s="2">
-        <v>258</v>
+        <v>4274</v>
       </c>
       <c r="E21" s="2">
-        <v>123046.07</v>
+        <v>431905.53</v>
       </c>
       <c r="F21" s="2">
-        <v>6069.93</v>
+        <v>53347.47</v>
       </c>
       <c r="G21" s="2">
-        <v>129116</v>
+        <v>485253</v>
       </c>
       <c r="H21" s="2">
-        <v>3371.8899</v>
+        <v>49728.1879</v>
       </c>
       <c r="I21" s="2">
-        <v>2563.4</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:9">
+        <v>3484.25</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2">
-        <v>11191</v>
+        <v>43886</v>
       </c>
       <c r="C22" s="2">
-        <v>255874</v>
+        <v>1595995</v>
       </c>
       <c r="D22" s="2">
-        <v>14456</v>
+        <v>21969</v>
       </c>
       <c r="E22" s="2">
-        <v>283636.68</v>
+        <v>1861634.03</v>
       </c>
       <c r="F22" s="2">
-        <v>-27762.68</v>
+        <v>-265752.03</v>
       </c>
       <c r="G22" s="2">
-        <v>255874</v>
+        <v>1595882</v>
       </c>
       <c r="H22" s="2">
-        <v>-27790.88</v>
+        <v>-265793.93</v>
       </c>
       <c r="I22" s="2">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
+        <v>41.9</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2">
-        <v>763</v>
+        <v>1453</v>
       </c>
       <c r="C23" s="2">
-        <v>2199</v>
+        <v>11901</v>
       </c>
       <c r="D23" s="2">
-        <v>7</v>
+        <v>1556</v>
       </c>
       <c r="E23" s="2">
-        <v>2069.1</v>
+        <v>14597.66</v>
       </c>
       <c r="F23" s="2">
-        <v>129.9</v>
+        <v>-2696.66</v>
       </c>
       <c r="G23" s="2">
-        <v>2199</v>
+        <v>11901</v>
       </c>
       <c r="H23" s="2">
-        <v>107.91</v>
+        <v>-2730.848</v>
       </c>
       <c r="I23" s="2">
-        <v>21.99</v>
-      </c>
-    </row>
-    <row r="24" ht="24" spans="1:9">
+        <v>34.19</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2">
-        <v>7804</v>
+        <v>29685</v>
       </c>
       <c r="C24" s="2">
-        <v>51314</v>
+        <v>249589</v>
       </c>
       <c r="D24" s="2">
-        <v>1275</v>
+        <v>3462</v>
       </c>
       <c r="E24" s="2">
-        <v>47012.71</v>
+        <v>240783.67</v>
       </c>
       <c r="F24" s="2">
-        <v>4273.29</v>
+        <v>8827.33</v>
       </c>
       <c r="G24" s="2">
-        <v>51286</v>
+        <v>249611</v>
       </c>
       <c r="H24" s="2">
-        <v>4273.29</v>
+        <v>8820.63</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="24" spans="1:9">
+        <v>6.7</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="24" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2">
-        <v>5301</v>
+        <v>24215</v>
       </c>
       <c r="C25" s="2">
-        <v>38799</v>
+        <v>1036602</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="E25" s="2">
-        <v>40458.46</v>
+        <v>1047722</v>
       </c>
       <c r="F25" s="2">
-        <v>-1659.46</v>
+        <v>-11120</v>
       </c>
       <c r="G25" s="2">
-        <v>38799</v>
+        <v>1036602</v>
       </c>
       <c r="H25" s="2">
-        <v>-2096.503</v>
+        <v>-13524.479</v>
       </c>
       <c r="I25" s="2">
-        <v>437.04</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:9">
+        <v>2404.48</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2">
-        <v>74683</v>
+        <v>218615</v>
       </c>
       <c r="C26" s="2">
-        <v>3228823</v>
+        <v>7060089</v>
       </c>
       <c r="D26" s="2">
-        <v>20399</v>
+        <v>48605</v>
       </c>
       <c r="E26" s="2">
-        <v>3218956.72</v>
+        <v>6884459.67</v>
       </c>
       <c r="F26" s="2">
-        <v>10366.28</v>
+        <v>178978.33</v>
       </c>
       <c r="G26" s="2">
-        <v>3229323</v>
+        <v>7063438</v>
       </c>
       <c r="H26" s="2">
-        <v>-39487.4223</v>
+        <v>123035.4047</v>
       </c>
       <c r="I26" s="2">
-        <v>46843.93</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:9">
+        <v>52435.54</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2">
-        <v>700</v>
+        <v>5078</v>
       </c>
       <c r="C27" s="2">
-        <v>27992</v>
+        <v>302878</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="E27" s="2">
-        <v>26114.33</v>
+        <v>232898.28</v>
       </c>
       <c r="F27" s="2">
-        <v>1877.67</v>
+        <v>69717.72</v>
       </c>
       <c r="G27" s="2">
-        <v>27992</v>
+        <v>302616</v>
       </c>
       <c r="H27" s="2">
-        <v>1397.67</v>
+        <v>69202.62</v>
       </c>
       <c r="I27" s="2">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="28" ht="24" spans="1:9">
+        <v>515.1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="24" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2">
-        <v>47126</v>
+        <v>110433</v>
       </c>
       <c r="C28" s="2">
-        <v>216995</v>
+        <v>1374655</v>
       </c>
       <c r="D28" s="2">
-        <v>2973</v>
+        <v>3223</v>
       </c>
       <c r="E28" s="2">
-        <v>206785.38</v>
+        <v>1335028.8</v>
       </c>
       <c r="F28" s="2">
-        <v>10209.62</v>
+        <v>39552.2</v>
       </c>
       <c r="G28" s="2">
-        <v>216995</v>
+        <v>1374581</v>
       </c>
       <c r="H28" s="2">
-        <v>10209.62</v>
+        <v>39552.2</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:9">
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2">
-        <v>1594</v>
+        <v>3021</v>
       </c>
       <c r="C29" s="2">
-        <v>4585</v>
+        <v>26933</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="E29" s="2">
-        <v>4680.44</v>
+        <v>22886.69</v>
       </c>
       <c r="F29" s="2">
-        <v>-95.44</v>
+        <v>4046.31</v>
       </c>
       <c r="G29" s="2">
-        <v>4585</v>
+        <v>26933</v>
       </c>
       <c r="H29" s="2">
-        <v>-141.29</v>
+        <v>3971.676</v>
       </c>
       <c r="I29" s="2">
-        <v>45.85</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:9">
+        <v>74.63</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2">
-        <v>0</v>
+        <v>3653</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>293026</v>
       </c>
       <c r="D30" s="2">
-        <v>0</v>
+        <v>5322</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>457896.6</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>-164870.6</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>293026</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>-164870.6</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:9">
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" s="2">
-        <v>43809</v>
+        <v>212267</v>
       </c>
       <c r="C31" s="2">
-        <v>234091</v>
+        <v>8296230</v>
       </c>
       <c r="D31" s="2">
-        <v>107</v>
+        <v>7499</v>
       </c>
       <c r="E31" s="2">
-        <v>236813.52</v>
+        <v>8171257.72</v>
       </c>
       <c r="F31" s="2">
-        <v>-2714.52</v>
+        <v>124980.28</v>
       </c>
       <c r="G31" s="2">
-        <v>234099</v>
+        <v>8296238</v>
       </c>
       <c r="H31" s="2">
-        <v>-3707.6914</v>
+        <v>120259.9956</v>
       </c>
       <c r="I31" s="2">
-        <v>924.04</v>
-      </c>
-    </row>
-    <row r="32" ht="24" spans="1:9">
+        <v>4650.7</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B32" s="2">
-        <v>33903</v>
+        <v>46046</v>
       </c>
       <c r="C32" s="2">
-        <v>377173</v>
+        <v>476822</v>
       </c>
       <c r="D32" s="2">
-        <v>6796</v>
+        <v>6891</v>
       </c>
       <c r="E32" s="2">
-        <v>380265.04</v>
+        <v>460101.38</v>
       </c>
       <c r="F32" s="2">
-        <v>-3092.04</v>
+        <v>16720.62</v>
       </c>
       <c r="G32" s="2">
-        <v>377173</v>
+        <v>476822</v>
       </c>
       <c r="H32" s="2">
-        <v>-3092.04</v>
+        <v>16715.22</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:9">
+        <v>5.4</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2">
-        <v>11846</v>
+        <v>159088</v>
       </c>
       <c r="C33" s="2">
-        <v>681183</v>
+        <v>4755550</v>
       </c>
       <c r="D33" s="2">
-        <v>753</v>
+        <v>14264</v>
       </c>
       <c r="E33" s="2">
-        <v>652172.02</v>
+        <v>4650703.8</v>
       </c>
       <c r="F33" s="2">
-        <v>29010.98</v>
+        <v>106585.2</v>
       </c>
       <c r="G33" s="2">
-        <v>681183</v>
+        <v>4757289</v>
       </c>
       <c r="H33" s="2">
-        <v>10911.3394</v>
+        <v>78226.5944</v>
       </c>
       <c r="I33" s="2">
-        <v>17934.92</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:9">
+        <v>27951.12</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -7994,6 +9026,9 @@
       </c>
       <c r="I34" s="3">
         <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8008,7 +9043,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="M12" sqref="M12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8044,65 +9079,65 @@
     </row>
     <row r="2" ht="24.75" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2">
-        <v>578</v>
+        <v>6010</v>
       </c>
       <c r="C2" s="2">
-        <v>79187</v>
+        <v>376414</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
-        <v>65105.65</v>
+        <v>349623.95</v>
       </c>
       <c r="F2" s="2">
-        <v>7152.35</v>
+        <v>-12026.95</v>
       </c>
       <c r="G2" s="2">
-        <v>72258</v>
+        <v>337597</v>
       </c>
       <c r="H2" s="2">
-        <v>6863.366</v>
+        <v>-13381.512</v>
       </c>
       <c r="I2" s="2">
-        <v>288.98</v>
+        <v>1347.66</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2">
-        <v>4159</v>
+        <v>6740</v>
       </c>
       <c r="C3" s="2">
-        <v>157534</v>
+        <v>399237</v>
       </c>
       <c r="D3" s="2">
         <v>45</v>
       </c>
       <c r="E3" s="2">
-        <v>144823</v>
+        <v>360157</v>
       </c>
       <c r="F3" s="2">
-        <v>2118</v>
+        <v>14163</v>
       </c>
       <c r="G3" s="2">
-        <v>146941</v>
+        <v>374320</v>
       </c>
       <c r="H3" s="2">
-        <v>1884.668</v>
+        <v>13174.279</v>
       </c>
       <c r="I3" s="2">
-        <v>233.33</v>
+        <v>988.46</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -8131,355 +9166,355 @@
     </row>
     <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2">
-        <v>917</v>
+        <v>6462</v>
       </c>
       <c r="C5" s="2">
-        <v>72418</v>
+        <v>846468</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2">
-        <v>53167.5</v>
+        <v>760647.6</v>
       </c>
       <c r="F5" s="2">
-        <v>12531.5</v>
+        <v>33014.4</v>
       </c>
       <c r="G5" s="2">
-        <v>65699</v>
+        <v>793662</v>
       </c>
       <c r="H5" s="2">
-        <v>12268.56</v>
+        <v>29839.518</v>
       </c>
       <c r="I5" s="2">
-        <v>262.94</v>
+        <v>3170.71</v>
       </c>
     </row>
     <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2">
-        <v>632</v>
+        <v>4468</v>
       </c>
       <c r="C6" s="2">
-        <v>57921</v>
+        <v>604603</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>52257.55</v>
+        <v>540936.45</v>
       </c>
       <c r="F6" s="2">
-        <v>-701.55</v>
+        <v>215.55</v>
       </c>
       <c r="G6" s="2">
-        <v>51556</v>
+        <v>541152</v>
       </c>
       <c r="H6" s="2">
-        <v>-907.654</v>
+        <v>-1956.796</v>
       </c>
       <c r="I6" s="2">
-        <v>206.1</v>
+        <v>2159.25</v>
       </c>
     </row>
     <row r="7" ht="24.75" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2">
-        <v>715</v>
+        <v>4685</v>
       </c>
       <c r="C7" s="2">
-        <v>82975</v>
+        <v>511770</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>73171.95</v>
+        <v>468617.25</v>
       </c>
       <c r="F7" s="2">
-        <v>845.05</v>
+        <v>-12020.25</v>
       </c>
       <c r="G7" s="2">
-        <v>74017</v>
+        <v>456597</v>
       </c>
       <c r="H7" s="2">
-        <v>548.942</v>
+        <v>-13842.286</v>
       </c>
       <c r="I7" s="2">
-        <v>296.11</v>
+        <v>1813.49</v>
       </c>
     </row>
     <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2">
-        <v>954</v>
+        <v>4348</v>
       </c>
       <c r="C8" s="2">
-        <v>69130</v>
+        <v>594408</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>77539.95</v>
+        <v>508942.05</v>
       </c>
       <c r="F8" s="2">
-        <v>-11905.95</v>
+        <v>48908.95</v>
       </c>
       <c r="G8" s="2">
-        <v>65634</v>
+        <v>557851</v>
       </c>
       <c r="H8" s="2">
-        <v>-12169.25</v>
+        <v>46667.38</v>
       </c>
       <c r="I8" s="2">
-        <v>263.3</v>
+        <v>2233.24</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2">
-        <v>5843</v>
+        <v>22089</v>
       </c>
       <c r="C9" s="2">
-        <v>194434</v>
+        <v>1784878</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>166028.7</v>
+        <v>1634520.65</v>
       </c>
       <c r="F9" s="2">
-        <v>13504.3</v>
+        <v>-5267.65</v>
       </c>
       <c r="G9" s="2">
-        <v>179533</v>
+        <v>1629253</v>
       </c>
       <c r="H9" s="2">
-        <v>12775.814</v>
+        <v>-11728.072</v>
       </c>
       <c r="I9" s="2">
-        <v>728.49</v>
+        <v>6264.21</v>
       </c>
     </row>
     <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2">
-        <v>1098</v>
+        <v>5042</v>
       </c>
       <c r="C10" s="2">
-        <v>157724</v>
+        <v>452209</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
-        <v>130433.4</v>
+        <v>401536.3</v>
       </c>
       <c r="F10" s="2">
-        <v>14147.6</v>
+        <v>17462.7</v>
       </c>
       <c r="G10" s="2">
-        <v>144581</v>
+        <v>418999</v>
       </c>
       <c r="H10" s="2">
-        <v>13578.296</v>
+        <v>15807.652</v>
       </c>
       <c r="I10" s="2">
-        <v>569.3</v>
+        <v>1647.31</v>
       </c>
     </row>
     <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2">
-        <v>946</v>
+        <v>6917</v>
       </c>
       <c r="C11" s="2">
-        <v>70750</v>
+        <v>510863</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="E11" s="2">
-        <v>66717.7</v>
+        <v>427915.85</v>
       </c>
       <c r="F11" s="2">
-        <v>-4356.7</v>
+        <v>41673.15</v>
       </c>
       <c r="G11" s="2">
-        <v>62361</v>
+        <v>469589</v>
       </c>
       <c r="H11" s="2">
-        <v>-4605.352</v>
+        <v>39815.032</v>
       </c>
       <c r="I11" s="2">
-        <v>248.65</v>
+        <v>1844.64</v>
       </c>
     </row>
     <row r="12" ht="24.75" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2">
-        <v>1947</v>
+        <v>6400</v>
       </c>
       <c r="C12" s="2">
-        <v>278534</v>
+        <v>601924</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>263160.1</v>
+        <v>572901.35</v>
       </c>
       <c r="F12" s="2">
-        <v>-6006.1</v>
+        <v>-13401.35</v>
       </c>
       <c r="G12" s="2">
-        <v>257154</v>
+        <v>559500</v>
       </c>
       <c r="H12" s="2">
-        <v>-7024.024</v>
+        <v>-15617.852</v>
       </c>
       <c r="I12" s="2">
-        <v>1017.92</v>
+        <v>2207.25</v>
       </c>
     </row>
     <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2">
-        <v>844</v>
+        <v>5347</v>
       </c>
       <c r="C13" s="2">
-        <v>57909</v>
+        <v>452521</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>56415.9</v>
+        <v>401056.35</v>
       </c>
       <c r="F13" s="2">
-        <v>-2608.9</v>
+        <v>15588.65</v>
       </c>
       <c r="G13" s="2">
-        <v>53807</v>
+        <v>416645</v>
       </c>
       <c r="H13" s="2">
-        <v>-2824.024</v>
+        <v>13927.1</v>
       </c>
       <c r="I13" s="2">
-        <v>215.12</v>
+        <v>1646.62</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2">
-        <v>7062</v>
+        <v>19413</v>
       </c>
       <c r="C14" s="2">
-        <v>220975</v>
+        <v>680977</v>
       </c>
       <c r="D14" s="2">
-        <v>570</v>
+        <v>1193</v>
       </c>
       <c r="E14" s="2">
-        <v>216919.82</v>
+        <v>620422.29</v>
       </c>
       <c r="F14" s="2">
-        <v>4055.18</v>
+        <v>60554.71</v>
       </c>
       <c r="G14" s="2">
-        <v>220975</v>
+        <v>680977</v>
       </c>
       <c r="H14" s="2">
-        <v>2050.063</v>
+        <v>57786.672</v>
       </c>
       <c r="I14" s="2">
-        <v>1986.21</v>
+        <v>2745.26</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2">
-        <v>2666</v>
+        <v>5181</v>
       </c>
       <c r="C15" s="2">
-        <v>73978</v>
+        <v>1129413</v>
       </c>
       <c r="D15" s="2">
-        <v>1857</v>
+        <v>14406</v>
       </c>
       <c r="E15" s="2">
-        <v>75631.83</v>
+        <v>239070.76</v>
       </c>
       <c r="F15" s="2">
-        <v>-1653.83</v>
+        <v>890342.24</v>
       </c>
       <c r="G15" s="2">
-        <v>73978</v>
+        <v>1129413</v>
       </c>
       <c r="H15" s="2">
-        <v>-2099.927</v>
+        <v>889183.957</v>
       </c>
       <c r="I15" s="2">
-        <v>443.91</v>
+        <v>1156.1</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2">
-        <v>227</v>
+        <v>2782</v>
       </c>
       <c r="C16" s="2">
-        <v>8558</v>
+        <v>121601</v>
       </c>
       <c r="D16" s="2">
-        <v>230</v>
+        <v>2914</v>
       </c>
       <c r="E16" s="2">
-        <v>7867.9</v>
+        <v>105960.58</v>
       </c>
       <c r="F16" s="2">
-        <v>690.1</v>
+        <v>15412.42</v>
       </c>
       <c r="G16" s="2">
-        <v>8558</v>
+        <v>121373</v>
       </c>
       <c r="H16" s="2">
-        <v>689.6</v>
+        <v>15284.451</v>
       </c>
       <c r="I16" s="2">
-        <v>0.5</v>
+        <v>127.97</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -8508,376 +9543,376 @@
     </row>
     <row r="18" ht="14.25" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" s="2">
-        <v>3286</v>
+        <v>36543</v>
       </c>
       <c r="C18" s="2">
-        <v>439521</v>
+        <v>1352339</v>
       </c>
       <c r="D18" s="2">
-        <v>4148</v>
+        <v>12779</v>
       </c>
       <c r="E18" s="2">
-        <v>432152.37</v>
+        <v>1301147.56</v>
       </c>
       <c r="F18" s="2">
-        <v>7368.63</v>
+        <v>51191.44</v>
       </c>
       <c r="G18" s="2">
-        <v>439521</v>
+        <v>1352339</v>
       </c>
       <c r="H18" s="2">
-        <v>561.3398</v>
+        <v>42877.1938</v>
       </c>
       <c r="I18" s="2">
-        <v>6718.56</v>
+        <v>8223.53</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" s="2">
-        <v>6895</v>
+        <v>30204</v>
       </c>
       <c r="C19" s="2">
-        <v>63914</v>
+        <v>1870333</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>27034</v>
       </c>
       <c r="E19" s="2">
-        <v>57606.32</v>
+        <v>1862777.73</v>
       </c>
       <c r="F19" s="2">
-        <v>6307.68</v>
+        <v>-15944.73</v>
       </c>
       <c r="G19" s="2">
-        <v>63914</v>
+        <v>1846833</v>
       </c>
       <c r="H19" s="2">
-        <v>5788.2193</v>
+        <v>-20500.6227</v>
       </c>
       <c r="I19" s="2">
-        <v>508.05</v>
+        <v>4523.62</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>97.6</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>164.4</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>161.4</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2">
-        <v>2398</v>
+        <v>20533</v>
       </c>
       <c r="C21" s="2">
-        <v>64135</v>
+        <v>360588</v>
       </c>
       <c r="D21" s="2">
-        <v>63</v>
+        <v>3934</v>
       </c>
       <c r="E21" s="2">
-        <v>68720.66</v>
+        <v>348875.18</v>
       </c>
       <c r="F21" s="2">
-        <v>-4585.66</v>
+        <v>11712.82</v>
       </c>
       <c r="G21" s="2">
-        <v>64135</v>
+        <v>360588</v>
       </c>
       <c r="H21" s="2">
-        <v>-5004.3401</v>
+        <v>10575.5429</v>
       </c>
       <c r="I21" s="2">
-        <v>413.86</v>
+        <v>1131.74</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2">
-        <v>8422</v>
+        <v>41280</v>
       </c>
       <c r="C22" s="2">
-        <v>193068</v>
+        <v>1117494</v>
       </c>
       <c r="D22" s="2">
-        <v>11932</v>
+        <v>18327</v>
       </c>
       <c r="E22" s="2">
-        <v>126087.51</v>
+        <v>819703.04</v>
       </c>
       <c r="F22" s="2">
-        <v>66754.49</v>
+        <v>296964.96</v>
       </c>
       <c r="G22" s="2">
-        <v>192842</v>
+        <v>1116668</v>
       </c>
       <c r="H22" s="2">
-        <v>66754.49</v>
+        <v>296871.88</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>93.08</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2">
-        <v>135</v>
+        <v>1211</v>
       </c>
       <c r="C23" s="2">
-        <v>292</v>
+        <v>11172</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2">
-        <v>195.04</v>
+        <v>10731.09</v>
       </c>
       <c r="F23" s="2">
-        <v>96.96</v>
+        <v>437.91</v>
       </c>
       <c r="G23" s="2">
-        <v>292</v>
+        <v>11169</v>
       </c>
       <c r="H23" s="2">
-        <v>94.01</v>
+        <v>421.232</v>
       </c>
       <c r="I23" s="2">
-        <v>2.95</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="24" ht="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2">
-        <v>8895</v>
+        <v>58640</v>
       </c>
       <c r="C24" s="2">
-        <v>76601</v>
+        <v>362195</v>
       </c>
       <c r="D24" s="2">
-        <v>1289</v>
+        <v>2962</v>
       </c>
       <c r="E24" s="2">
-        <v>63120.31</v>
+        <v>340391.75</v>
       </c>
       <c r="F24" s="2">
-        <v>13376.69</v>
+        <v>21699.25</v>
       </c>
       <c r="G24" s="2">
-        <v>76497</v>
+        <v>362091</v>
       </c>
       <c r="H24" s="2">
-        <v>13376.69</v>
+        <v>21699</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" ht="24" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2">
-        <v>8244</v>
+        <v>24676</v>
       </c>
       <c r="C25" s="2">
-        <v>43969</v>
+        <v>941250</v>
       </c>
       <c r="D25" s="2">
-        <v>130</v>
+        <v>3448</v>
       </c>
       <c r="E25" s="2">
-        <v>41402.22</v>
+        <v>943129.74</v>
       </c>
       <c r="F25" s="2">
-        <v>2566.78</v>
+        <v>-1879.74</v>
       </c>
       <c r="G25" s="2">
-        <v>43969</v>
+        <v>941250</v>
       </c>
       <c r="H25" s="2">
-        <v>2188.879</v>
+        <v>-3547.491</v>
       </c>
       <c r="I25" s="2">
-        <v>377.9</v>
+        <v>1667.75</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2">
-        <v>98509</v>
+        <v>303869</v>
       </c>
       <c r="C26" s="2">
-        <v>4306715</v>
+        <v>10682054</v>
       </c>
       <c r="D26" s="2">
-        <v>10934</v>
+        <v>75520</v>
       </c>
       <c r="E26" s="2">
-        <v>4306853.21</v>
+        <v>10563811.85</v>
       </c>
       <c r="F26" s="2">
-        <v>-138.21</v>
+        <v>109291.15</v>
       </c>
       <c r="G26" s="2">
-        <v>4306715</v>
+        <v>10673103</v>
       </c>
       <c r="H26" s="2">
-        <v>-69663.0903</v>
+        <v>30238.6477</v>
       </c>
       <c r="I26" s="2">
-        <v>60760.3</v>
+        <v>70191.64</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2">
-        <v>1034</v>
+        <v>7339</v>
       </c>
       <c r="C27" s="2">
-        <v>20184</v>
+        <v>160608</v>
       </c>
       <c r="D27" s="2">
-        <v>572</v>
+        <v>2151</v>
       </c>
       <c r="E27" s="2">
-        <v>22660.83</v>
+        <v>175408.71</v>
       </c>
       <c r="F27" s="2">
-        <v>-2476.83</v>
+        <v>-14800.71</v>
       </c>
       <c r="G27" s="2">
-        <v>20184</v>
+        <v>160608</v>
       </c>
       <c r="H27" s="2">
-        <v>-2476.83</v>
+        <v>-14805.51</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="28" ht="24" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2">
-        <v>66315</v>
+        <v>133800</v>
       </c>
       <c r="C28" s="2">
-        <v>308592</v>
+        <v>1251266</v>
       </c>
       <c r="D28" s="2">
-        <v>3562</v>
+        <v>4420</v>
       </c>
       <c r="E28" s="2">
-        <v>294677.25</v>
+        <v>1231371.68</v>
       </c>
       <c r="F28" s="2">
-        <v>13914.75</v>
+        <v>19445.32</v>
       </c>
       <c r="G28" s="2">
-        <v>308592</v>
+        <v>1250817</v>
       </c>
       <c r="H28" s="2">
-        <v>13914.75</v>
+        <v>19444.52</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2">
-        <v>167</v>
+        <v>1876</v>
       </c>
       <c r="C29" s="2">
-        <v>408</v>
+        <v>16989</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="E29" s="2">
-        <v>381.48</v>
+        <v>15570.38</v>
       </c>
       <c r="F29" s="2">
-        <v>26.52</v>
+        <v>1418.62</v>
       </c>
       <c r="G29" s="2">
-        <v>408</v>
+        <v>16989</v>
       </c>
       <c r="H29" s="2">
-        <v>22.39</v>
+        <v>1403.01</v>
       </c>
       <c r="I29" s="2">
-        <v>4.13</v>
+        <v>15.61</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2">
-        <v>0</v>
+        <v>2756</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>114155</v>
       </c>
       <c r="D30" s="2">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>121523.94</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>-7368.94</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>114155</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>-7368.94</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -8885,117 +9920,117 @@
     </row>
     <row r="31" ht="14.25" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" s="2">
-        <v>9414</v>
+        <v>135210</v>
       </c>
       <c r="C31" s="2">
-        <v>120060</v>
+        <v>3085063</v>
       </c>
       <c r="D31" s="2">
-        <v>283</v>
+        <v>13408</v>
       </c>
       <c r="E31" s="2">
-        <v>111734.06</v>
+        <v>3136658.27</v>
       </c>
       <c r="F31" s="2">
-        <v>8325.94</v>
+        <v>-75914.27</v>
       </c>
       <c r="G31" s="2">
-        <v>120060</v>
+        <v>3060744</v>
       </c>
       <c r="H31" s="2">
-        <v>6422.9712</v>
+        <v>-80106.7508</v>
       </c>
       <c r="I31" s="2">
-        <v>1818.63</v>
+        <v>4108.14</v>
       </c>
     </row>
     <row r="32" ht="24" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B32" s="2">
-        <v>40411</v>
+        <v>61337</v>
       </c>
       <c r="C32" s="2">
-        <v>315265</v>
+        <v>531074</v>
       </c>
       <c r="D32" s="2">
-        <v>3842</v>
+        <v>4169</v>
       </c>
       <c r="E32" s="2">
-        <v>310804.92</v>
+        <v>532295.41</v>
       </c>
       <c r="F32" s="2">
-        <v>4335.08</v>
+        <v>-1478.41</v>
       </c>
       <c r="G32" s="2">
-        <v>315140</v>
+        <v>530817</v>
       </c>
       <c r="H32" s="2">
-        <v>4335.08</v>
+        <v>-1478.41</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:9">
-      <c r="A33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="3">
-        <v>16300</v>
-      </c>
-      <c r="C33" s="3">
-        <v>183012</v>
-      </c>
-      <c r="D33" s="3">
-        <v>419</v>
-      </c>
-      <c r="E33" s="3">
-        <v>169201.81</v>
-      </c>
-      <c r="F33" s="3">
-        <v>13810.19</v>
-      </c>
-      <c r="G33" s="3">
-        <v>183012</v>
-      </c>
-      <c r="H33" s="3">
-        <v>11122.5745</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2560.58</v>
+      <c r="A33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="2">
+        <v>154555</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6067217</v>
+      </c>
+      <c r="D33" s="2">
+        <v>15454</v>
+      </c>
+      <c r="E33" s="2">
+        <v>6014442.86</v>
+      </c>
+      <c r="F33" s="2">
+        <v>48983.14</v>
+      </c>
+      <c r="G33" s="2">
+        <v>6063426</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30744.2625</v>
+      </c>
+      <c r="I33" s="2">
+        <v>17942.41</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:9">
-      <c r="A34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="A34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9003,20 +10038,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/document/周报数据表.xlsx
+++ b/document/周报数据表.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="百分比统计" sheetId="2" r:id="rId2"/>
-    <sheet name="本周游戏数据" sheetId="3" r:id="rId3"/>
-    <sheet name="上周游戏数据" sheetId="4" r:id="rId4"/>
+    <sheet name="G7" sheetId="3" r:id="rId3"/>
+    <sheet name="YY" sheetId="4" r:id="rId4"/>
+    <sheet name="BY" sheetId="5" r:id="rId5"/>
+    <sheet name="G7上周" sheetId="6" r:id="rId6"/>
+    <sheet name="YY上周" sheetId="7" r:id="rId7"/>
+    <sheet name="BY上周" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="127">
   <si>
     <r>
       <rPr>
@@ -800,7 +804,7 @@
     <t>游戏名称</t>
   </si>
   <si>
-    <t>笔数</t>
+    <t>投注笔数</t>
   </si>
   <si>
     <t>总投注额</t>
@@ -7937,11 +7941,15 @@
   <sheetPr/>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -7975,487 +7983,487 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" ht="24.75" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="2">
-        <v>6279</v>
+        <v>1383</v>
       </c>
       <c r="C2" s="2">
-        <v>1971719</v>
+        <v>518179</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>1805562.75</v>
+        <v>396408.25</v>
       </c>
       <c r="F2" s="2">
-        <v>-13565.75</v>
+        <v>61170.75</v>
       </c>
       <c r="G2" s="2">
-        <v>1791997</v>
+        <v>457579</v>
       </c>
       <c r="H2" s="2">
-        <v>-15683.0835</v>
+        <v>59409.294</v>
       </c>
       <c r="I2" s="2">
-        <v>2103.35</v>
-      </c>
-      <c r="J2">
+        <v>1761.46</v>
+      </c>
+      <c r="J2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="2">
-        <v>6323</v>
+        <v>1008</v>
       </c>
       <c r="C3" s="2">
-        <v>1471887</v>
+        <v>206647</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>1438618.5</v>
+        <v>185174</v>
       </c>
       <c r="F3" s="2">
-        <v>271.5</v>
+        <v>6229</v>
       </c>
       <c r="G3" s="2">
-        <v>1438890</v>
+        <v>191403</v>
       </c>
       <c r="H3" s="2">
-        <v>-5350.444</v>
+        <v>5464.268</v>
       </c>
       <c r="I3" s="2">
-        <v>5621.86</v>
-      </c>
-      <c r="J3">
+        <v>764.73</v>
+      </c>
+      <c r="J3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>-3.72</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="24.75" spans="1:10">
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="2">
-        <v>6091</v>
+        <v>1929</v>
       </c>
       <c r="C5" s="2">
-        <v>2511384</v>
+        <v>1104311</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>2065190.55</v>
+        <v>1100184</v>
       </c>
       <c r="F5" s="2">
-        <v>196845.45</v>
+        <v>-124421</v>
       </c>
       <c r="G5" s="2">
-        <v>2262036</v>
+        <v>975763</v>
       </c>
       <c r="H5" s="2">
-        <v>191892.232</v>
+        <v>-128290.132</v>
       </c>
       <c r="I5" s="2">
-        <v>4947.43</v>
-      </c>
-      <c r="J5">
+        <v>3869.13</v>
+      </c>
+      <c r="J5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="24.75" spans="1:10">
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="2">
-        <v>5425</v>
+        <v>1189</v>
       </c>
       <c r="C6" s="2">
-        <v>1346370</v>
+        <v>494100</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>1258884.6</v>
+        <v>518246.5</v>
       </c>
       <c r="F6" s="2">
-        <v>-15726.6</v>
+        <v>-74810.5</v>
       </c>
       <c r="G6" s="2">
-        <v>1243158</v>
+        <v>443436</v>
       </c>
       <c r="H6" s="2">
-        <v>-20674.573</v>
+        <v>-76515.604</v>
       </c>
       <c r="I6" s="2">
-        <v>4941.13</v>
-      </c>
-      <c r="J6">
+        <v>1705.1</v>
+      </c>
+      <c r="J6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="24.75" spans="1:10">
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="2">
-        <v>5345</v>
+        <v>2103</v>
       </c>
       <c r="C7" s="2">
-        <v>1342491</v>
+        <v>1208605</v>
       </c>
       <c r="D7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>1211118.15</v>
+        <v>981857.05</v>
       </c>
       <c r="F7" s="2">
-        <v>-4956.15</v>
+        <v>151963.95</v>
       </c>
       <c r="G7" s="2">
-        <v>1206162</v>
+        <v>1133821</v>
       </c>
       <c r="H7" s="2">
-        <v>-9772.5355</v>
+        <v>147461.666</v>
       </c>
       <c r="I7" s="2">
-        <v>4803.41</v>
-      </c>
-      <c r="J7">
+        <v>4502.28</v>
+      </c>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="24.75" spans="1:10">
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B8" s="2">
-        <v>5149</v>
+        <v>1875</v>
       </c>
       <c r="C8" s="2">
-        <v>2312796</v>
+        <v>864858</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>1992122.4</v>
+        <v>798800.75</v>
       </c>
       <c r="F8" s="2">
-        <v>91393.6</v>
+        <v>-4942.75</v>
       </c>
       <c r="G8" s="2">
-        <v>2083516</v>
+        <v>793858</v>
       </c>
       <c r="H8" s="2">
-        <v>87027.8785</v>
+        <v>-8062.222</v>
       </c>
       <c r="I8" s="2">
-        <v>4351.06</v>
-      </c>
-      <c r="J8">
+        <v>3119.47</v>
+      </c>
+      <c r="J8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="24" spans="1:10">
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B9" s="2">
-        <v>18731</v>
+        <v>10846</v>
       </c>
       <c r="C9" s="2">
-        <v>3141625</v>
+        <v>1911148</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>2584599.3</v>
+        <v>1789110.3</v>
       </c>
       <c r="F9" s="2">
-        <v>263307.7</v>
+        <v>-59124.3</v>
       </c>
       <c r="G9" s="2">
-        <v>2847907</v>
+        <v>1729986</v>
       </c>
       <c r="H9" s="2">
-        <v>253142.1205</v>
+        <v>-66020.908</v>
       </c>
       <c r="I9" s="2">
-        <v>10013.78</v>
-      </c>
-      <c r="J9">
+        <v>6896.61</v>
+      </c>
+      <c r="J9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="24.75" spans="1:10">
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="2">
-        <v>5480</v>
+        <v>2241</v>
       </c>
       <c r="C10" s="2">
-        <v>1278836</v>
+        <v>458095</v>
       </c>
       <c r="D10" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>1166790.25</v>
+        <v>366051.75</v>
       </c>
       <c r="F10" s="2">
-        <v>17270.75</v>
+        <v>53973.25</v>
       </c>
       <c r="G10" s="2">
-        <v>1184061</v>
+        <v>420025</v>
       </c>
       <c r="H10" s="2">
-        <v>14148.1445</v>
+        <v>52313.39</v>
       </c>
       <c r="I10" s="2">
-        <v>3118.89</v>
-      </c>
-      <c r="J10">
+        <v>1659.86</v>
+      </c>
+      <c r="J10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="24.75" spans="1:10">
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="2">
-        <v>6395</v>
+        <v>3445</v>
       </c>
       <c r="C11" s="2">
-        <v>2097858</v>
+        <v>1447810</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>1857252.2</v>
+        <v>1201764.7</v>
       </c>
       <c r="F11" s="2">
-        <v>93343.8</v>
+        <v>67635.3</v>
       </c>
       <c r="G11" s="2">
-        <v>1950596</v>
+        <v>1269400</v>
       </c>
       <c r="H11" s="2">
-        <v>88376.1385</v>
+        <v>62572.52</v>
       </c>
       <c r="I11" s="2">
-        <v>4958.48</v>
-      </c>
-      <c r="J11">
+        <v>5062.78</v>
+      </c>
+      <c r="J11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="24.75" spans="1:10">
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="2">
-        <v>5880</v>
+        <v>1643</v>
       </c>
       <c r="C12" s="2">
-        <v>1568523</v>
+        <v>401857</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>1378343.1</v>
+        <v>331934.6</v>
       </c>
       <c r="F12" s="2">
-        <v>35790.9</v>
+        <v>21099.4</v>
       </c>
       <c r="G12" s="2">
-        <v>1414134</v>
+        <v>353034</v>
       </c>
       <c r="H12" s="2">
-        <v>32462.538</v>
+        <v>19746.424</v>
       </c>
       <c r="I12" s="2">
-        <v>3323.31</v>
-      </c>
-      <c r="J12">
+        <v>1352.98</v>
+      </c>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="24.75" spans="1:10">
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B13" s="2">
-        <v>5955</v>
+        <v>2808</v>
       </c>
       <c r="C13" s="2">
-        <v>1281115</v>
+        <v>1167489</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>1215072.3</v>
+        <v>1018734.2</v>
       </c>
       <c r="F13" s="2">
-        <v>-55062.3</v>
+        <v>33344.8</v>
       </c>
       <c r="G13" s="2">
-        <v>1160010</v>
+        <v>1052079</v>
       </c>
       <c r="H13" s="2">
-        <v>-59680.6125</v>
+        <v>29181.984</v>
       </c>
       <c r="I13" s="2">
-        <v>4613.37</v>
-      </c>
-      <c r="J13">
+        <v>4162.82</v>
+      </c>
+      <c r="J13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:10">
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="2">
-        <v>28268</v>
+        <v>3628</v>
       </c>
       <c r="C14" s="2">
-        <v>687922</v>
+        <v>88257</v>
       </c>
       <c r="D14" s="2">
-        <v>4005</v>
+        <v>2290</v>
       </c>
       <c r="E14" s="2">
-        <v>657480.62</v>
+        <v>85620.96</v>
       </c>
       <c r="F14" s="2">
-        <v>30541.38</v>
+        <v>2636.04</v>
       </c>
       <c r="G14" s="2">
-        <v>688022</v>
+        <v>88257</v>
       </c>
       <c r="H14" s="2">
-        <v>26801.1297</v>
+        <v>2481.898</v>
       </c>
       <c r="I14" s="2">
-        <v>3703.49</v>
-      </c>
-      <c r="J14">
+        <v>154.14</v>
+      </c>
+      <c r="J14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:10">
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="2">
-        <v>4877</v>
+        <v>567</v>
       </c>
       <c r="C15" s="2">
-        <v>113304</v>
+        <v>22610</v>
       </c>
       <c r="D15" s="2">
-        <v>192</v>
+        <v>695</v>
       </c>
       <c r="E15" s="2">
-        <v>112162.14</v>
+        <v>21865.44</v>
       </c>
       <c r="F15" s="2">
-        <v>1141.86</v>
+        <v>744.56</v>
       </c>
       <c r="G15" s="2">
-        <v>113304</v>
+        <v>22610</v>
       </c>
       <c r="H15" s="2">
-        <v>828.923</v>
+        <v>702.748</v>
       </c>
       <c r="I15" s="2">
-        <v>312.94</v>
-      </c>
-      <c r="J15">
+        <v>41.81</v>
+      </c>
+      <c r="J15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:10">
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="2">
-        <v>3120</v>
+        <v>2038</v>
       </c>
       <c r="C16" s="2">
-        <v>416542</v>
+        <v>70711</v>
       </c>
       <c r="D16" s="2">
-        <v>3131</v>
+        <v>1420</v>
       </c>
       <c r="E16" s="2">
-        <v>404633.05</v>
+        <v>79206.86</v>
       </c>
       <c r="F16" s="2">
-        <v>11908.95</v>
+        <v>-8495.86</v>
       </c>
       <c r="G16" s="2">
-        <v>416542</v>
+        <v>70711</v>
       </c>
       <c r="H16" s="2">
-        <v>11494.547</v>
+        <v>-8566.551</v>
       </c>
       <c r="I16" s="2">
-        <v>414.4</v>
-      </c>
-      <c r="J16">
+        <v>70.69</v>
+      </c>
+      <c r="J16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:10">
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -8483,551 +8491,551 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:10">
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="2">
-        <v>26648</v>
+        <v>671</v>
       </c>
       <c r="C18" s="2">
-        <v>2360995</v>
+        <v>30667</v>
       </c>
       <c r="D18" s="2">
-        <v>4903</v>
+        <v>740</v>
       </c>
       <c r="E18" s="2">
-        <v>2268380.86</v>
+        <v>22304.32</v>
       </c>
       <c r="F18" s="2">
-        <v>92614.14</v>
+        <v>8362.68</v>
       </c>
       <c r="G18" s="2">
-        <v>2360995</v>
+        <v>30667</v>
       </c>
       <c r="H18" s="2">
-        <v>78596.5915</v>
+        <v>8305.366</v>
       </c>
       <c r="I18" s="2">
-        <v>13714.55</v>
-      </c>
-      <c r="J18">
+        <v>57.31</v>
+      </c>
+      <c r="J18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:10">
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="2">
-        <v>22162</v>
+        <v>16530</v>
       </c>
       <c r="C19" s="2">
-        <v>1031142</v>
+        <v>225410</v>
       </c>
       <c r="D19" s="2">
-        <v>7292</v>
+        <v>1448</v>
       </c>
       <c r="E19" s="2">
-        <v>1071500.49</v>
+        <v>216352.12</v>
       </c>
       <c r="F19" s="2">
-        <v>-40358.49</v>
+        <v>9057.88</v>
       </c>
       <c r="G19" s="2">
-        <v>1031142</v>
+        <v>225410</v>
       </c>
       <c r="H19" s="2">
-        <v>-52239.3854</v>
+        <v>8723.196</v>
       </c>
       <c r="I19" s="2">
-        <v>11157.28</v>
-      </c>
-      <c r="J19">
+        <v>334.68</v>
+      </c>
+      <c r="J19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:10">
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="2">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>585.6</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>-309.6</v>
+        <v>126</v>
       </c>
       <c r="G20" s="2">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="H20" s="2">
-        <v>-309.6</v>
+        <v>126</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:10">
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="2">
-        <v>32505</v>
+        <v>2999</v>
       </c>
       <c r="C21" s="2">
-        <v>485253</v>
+        <v>43710</v>
       </c>
       <c r="D21" s="2">
-        <v>4274</v>
+        <v>365</v>
       </c>
       <c r="E21" s="2">
-        <v>431905.53</v>
+        <v>41853.33</v>
       </c>
       <c r="F21" s="2">
-        <v>53347.47</v>
+        <v>1856.67</v>
       </c>
       <c r="G21" s="2">
-        <v>485253</v>
+        <v>43710</v>
       </c>
       <c r="H21" s="2">
-        <v>49728.1879</v>
+        <v>1776.072</v>
       </c>
       <c r="I21" s="2">
-        <v>3484.25</v>
-      </c>
-      <c r="J21">
+        <v>80.6</v>
+      </c>
+      <c r="J21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:10">
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="2">
-        <v>43886</v>
+        <v>8320</v>
       </c>
       <c r="C22" s="2">
-        <v>1595995</v>
+        <v>413529</v>
       </c>
       <c r="D22" s="2">
-        <v>21969</v>
+        <v>1588</v>
       </c>
       <c r="E22" s="2">
-        <v>1861634.03</v>
+        <v>369534.35</v>
       </c>
       <c r="F22" s="2">
-        <v>-265752.03</v>
+        <v>43994.65</v>
       </c>
       <c r="G22" s="2">
-        <v>1595882</v>
+        <v>413529</v>
       </c>
       <c r="H22" s="2">
-        <v>-265793.93</v>
+        <v>43826.95</v>
       </c>
       <c r="I22" s="2">
-        <v>41.9</v>
-      </c>
-      <c r="J22">
+        <v>167.7</v>
+      </c>
+      <c r="J22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:10">
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="2">
-        <v>1453</v>
+        <v>653</v>
       </c>
       <c r="C23" s="2">
-        <v>11901</v>
+        <v>4131</v>
       </c>
       <c r="D23" s="2">
-        <v>1556</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2">
-        <v>14597.66</v>
+        <v>4160.59</v>
       </c>
       <c r="F23" s="2">
-        <v>-2696.66</v>
+        <v>-29.59</v>
       </c>
       <c r="G23" s="2">
-        <v>11901</v>
+        <v>4131</v>
       </c>
       <c r="H23" s="2">
-        <v>-2730.848</v>
+        <v>-29.59</v>
       </c>
       <c r="I23" s="2">
-        <v>34.19</v>
-      </c>
-      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" ht="24" spans="1:10">
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="2">
-        <v>29685</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2">
-        <v>249589</v>
+        <v>26010</v>
       </c>
       <c r="D24" s="2">
-        <v>3462</v>
+        <v>4000</v>
       </c>
       <c r="E24" s="2">
-        <v>240783.67</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>8827.33</v>
+        <v>26010</v>
       </c>
       <c r="G24" s="2">
-        <v>249611</v>
+        <v>26010</v>
       </c>
       <c r="H24" s="2">
-        <v>8820.63</v>
+        <v>26010</v>
       </c>
       <c r="I24" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="25" ht="24" spans="1:10">
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="2">
-        <v>24215</v>
+        <v>6955</v>
       </c>
       <c r="C25" s="2">
-        <v>1036602</v>
+        <v>1566744</v>
       </c>
       <c r="D25" s="2">
-        <v>922</v>
+        <v>376</v>
       </c>
       <c r="E25" s="2">
-        <v>1047722</v>
+        <v>1550321.22</v>
       </c>
       <c r="F25" s="2">
-        <v>-11120</v>
+        <v>16422.78</v>
       </c>
       <c r="G25" s="2">
-        <v>1036602</v>
+        <v>1566744</v>
       </c>
       <c r="H25" s="2">
-        <v>-13524.479</v>
+        <v>13738.616</v>
       </c>
       <c r="I25" s="2">
-        <v>2404.48</v>
-      </c>
-      <c r="J25">
+        <v>2684.16</v>
+      </c>
+      <c r="J25" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:10">
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="2">
-        <v>218615</v>
+        <v>15054</v>
       </c>
       <c r="C26" s="2">
-        <v>7060089</v>
+        <v>425450</v>
       </c>
       <c r="D26" s="2">
-        <v>48605</v>
+        <v>1839</v>
       </c>
       <c r="E26" s="2">
-        <v>6884459.67</v>
+        <v>417056.04</v>
       </c>
       <c r="F26" s="2">
-        <v>178978.33</v>
+        <v>8393.96</v>
       </c>
       <c r="G26" s="2">
-        <v>7063438</v>
+        <v>425450</v>
       </c>
       <c r="H26" s="2">
-        <v>123035.4047</v>
+        <v>7826.936</v>
       </c>
       <c r="I26" s="2">
-        <v>52435.54</v>
-      </c>
-      <c r="J26">
+        <v>567.02</v>
+      </c>
+      <c r="J26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:10">
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B27" s="2">
-        <v>5078</v>
+        <v>1644</v>
       </c>
       <c r="C27" s="2">
-        <v>302878</v>
+        <v>145134</v>
       </c>
       <c r="D27" s="2">
-        <v>1120</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2">
-        <v>232898.28</v>
+        <v>174017.8</v>
       </c>
       <c r="F27" s="2">
-        <v>69717.72</v>
+        <v>-29245.8</v>
       </c>
       <c r="G27" s="2">
-        <v>302616</v>
+        <v>144772</v>
       </c>
       <c r="H27" s="2">
-        <v>69202.62</v>
+        <v>-29245.8</v>
       </c>
       <c r="I27" s="2">
-        <v>515.1</v>
-      </c>
-      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" ht="24" spans="1:10">
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="2">
-        <v>110433</v>
+        <v>3751</v>
       </c>
       <c r="C28" s="2">
-        <v>1374655</v>
+        <v>381524</v>
       </c>
       <c r="D28" s="2">
-        <v>3223</v>
+        <v>2108</v>
       </c>
       <c r="E28" s="2">
-        <v>1335028.8</v>
+        <v>468224.19</v>
       </c>
       <c r="F28" s="2">
-        <v>39552.2</v>
+        <v>-86700.19</v>
       </c>
       <c r="G28" s="2">
-        <v>1374581</v>
+        <v>381524</v>
       </c>
       <c r="H28" s="2">
-        <v>39552.2</v>
+        <v>-86700.19</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:10">
+    <row r="29" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B29" s="2">
-        <v>3021</v>
+        <v>1909</v>
       </c>
       <c r="C29" s="2">
-        <v>26933</v>
+        <v>17018</v>
       </c>
       <c r="D29" s="2">
-        <v>930</v>
+        <v>8495</v>
       </c>
       <c r="E29" s="2">
-        <v>22886.69</v>
+        <v>19879.02</v>
       </c>
       <c r="F29" s="2">
-        <v>4046.31</v>
+        <v>-2861.02</v>
       </c>
       <c r="G29" s="2">
-        <v>26933</v>
+        <v>17018</v>
       </c>
       <c r="H29" s="2">
-        <v>3971.676</v>
+        <v>-2861.02</v>
       </c>
       <c r="I29" s="2">
-        <v>74.63</v>
-      </c>
-      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:10">
+    <row r="30" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B30" s="2">
-        <v>3653</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2">
-        <v>293026</v>
+        <v>3001</v>
       </c>
       <c r="D30" s="2">
-        <v>5322</v>
+        <v>150</v>
       </c>
       <c r="E30" s="2">
-        <v>457896.6</v>
+        <v>1464</v>
       </c>
       <c r="F30" s="2">
-        <v>-164870.6</v>
+        <v>1537</v>
       </c>
       <c r="G30" s="2">
-        <v>293026</v>
+        <v>3001</v>
       </c>
       <c r="H30" s="2">
-        <v>-164870.6</v>
+        <v>1537</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:10">
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B31" s="2">
-        <v>212267</v>
+        <v>57942</v>
       </c>
       <c r="C31" s="2">
-        <v>8296230</v>
+        <v>1621503</v>
       </c>
       <c r="D31" s="2">
-        <v>7499</v>
+        <v>32999</v>
       </c>
       <c r="E31" s="2">
-        <v>8171257.72</v>
+        <v>1468636.74</v>
       </c>
       <c r="F31" s="2">
-        <v>124980.28</v>
+        <v>152866.26</v>
       </c>
       <c r="G31" s="2">
-        <v>8296238</v>
+        <v>1621503</v>
       </c>
       <c r="H31" s="2">
-        <v>120259.9956</v>
+        <v>152866.26</v>
       </c>
       <c r="I31" s="2">
-        <v>4650.7</v>
-      </c>
-      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" ht="24" spans="1:10">
+    <row r="32" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B32" s="2">
-        <v>46046</v>
+        <v>326</v>
       </c>
       <c r="C32" s="2">
-        <v>476822</v>
+        <v>150428</v>
       </c>
       <c r="D32" s="2">
-        <v>6891</v>
+        <v>8800</v>
       </c>
       <c r="E32" s="2">
-        <v>460101.38</v>
+        <v>206076.8</v>
       </c>
       <c r="F32" s="2">
-        <v>16720.62</v>
+        <v>-55648.8</v>
       </c>
       <c r="G32" s="2">
-        <v>476822</v>
+        <v>150428</v>
       </c>
       <c r="H32" s="2">
-        <v>16715.22</v>
+        <v>-55648.8</v>
       </c>
       <c r="I32" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:10">
-      <c r="A33" s="2" t="s">
+    <row r="33" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="2">
-        <v>159088</v>
-      </c>
-      <c r="C33" s="2">
-        <v>4755550</v>
-      </c>
-      <c r="D33" s="2">
-        <v>14264</v>
-      </c>
-      <c r="E33" s="2">
-        <v>4650703.8</v>
-      </c>
-      <c r="F33" s="2">
-        <v>106585.2</v>
-      </c>
-      <c r="G33" s="2">
-        <v>4757289</v>
-      </c>
-      <c r="H33" s="2">
-        <v>78226.5944</v>
-      </c>
-      <c r="I33" s="2">
-        <v>27951.12</v>
-      </c>
-      <c r="J33">
+      <c r="B33" s="3">
+        <v>7108</v>
+      </c>
+      <c r="C33" s="3">
+        <v>136656</v>
+      </c>
+      <c r="D33" s="3">
+        <v>925</v>
+      </c>
+      <c r="E33" s="3">
+        <v>140191.63</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-3535.63</v>
+      </c>
+      <c r="G33" s="3">
+        <v>136656</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-3805.642</v>
+      </c>
+      <c r="I33" s="3">
+        <v>270.01</v>
+      </c>
+      <c r="J33" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:10">
-      <c r="A34" s="3" t="s">
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A34" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34">
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
         <v>2</v>
       </c>
     </row>
@@ -9040,15 +9048,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:N12"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -9076,66 +9088,75 @@
       <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" ht="24.75" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="2">
-        <v>6010</v>
+        <v>4719</v>
       </c>
       <c r="C2" s="2">
-        <v>376414</v>
+        <v>206286</v>
       </c>
       <c r="D2" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>349623.95</v>
+        <v>180341.05</v>
       </c>
       <c r="F2" s="2">
-        <v>-12026.95</v>
+        <v>6865.95</v>
       </c>
       <c r="G2" s="2">
-        <v>337597</v>
+        <v>187207</v>
       </c>
       <c r="H2" s="2">
-        <v>-13381.512</v>
+        <v>6221.246</v>
       </c>
       <c r="I2" s="2">
-        <v>1347.66</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:9">
+        <v>633.47</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="2">
-        <v>6740</v>
+        <v>486</v>
       </c>
       <c r="C3" s="2">
-        <v>399237</v>
+        <v>14967</v>
       </c>
       <c r="D3" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>360157</v>
+        <v>15010</v>
       </c>
       <c r="F3" s="2">
-        <v>14163</v>
+        <v>-651</v>
       </c>
       <c r="G3" s="2">
-        <v>374320</v>
+        <v>14359</v>
       </c>
       <c r="H3" s="2">
-        <v>13174.279</v>
+        <v>-708.596</v>
       </c>
       <c r="I3" s="2">
-        <v>988.46</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:9">
+        <v>57.44</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>96</v>
       </c>
@@ -9163,356 +9184,395 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" ht="24.75" spans="1:9">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="2">
-        <v>6462</v>
+        <v>3571</v>
       </c>
       <c r="C5" s="2">
-        <v>846468</v>
+        <v>290507</v>
       </c>
       <c r="D5" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>760647.6</v>
+        <v>238325.35</v>
       </c>
       <c r="F5" s="2">
-        <v>33014.4</v>
+        <v>11341.65</v>
       </c>
       <c r="G5" s="2">
-        <v>793662</v>
+        <v>249667</v>
       </c>
       <c r="H5" s="2">
-        <v>29839.518</v>
+        <v>10576.8</v>
       </c>
       <c r="I5" s="2">
-        <v>3170.71</v>
-      </c>
-    </row>
-    <row r="6" ht="24.75" spans="1:9">
+        <v>747.66</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="2">
-        <v>4468</v>
+        <v>2066</v>
       </c>
       <c r="C6" s="2">
-        <v>604603</v>
+        <v>140251</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>540936.45</v>
+        <v>135852.7</v>
       </c>
       <c r="F6" s="2">
-        <v>215.55</v>
+        <v>-7764.7</v>
       </c>
       <c r="G6" s="2">
-        <v>541152</v>
+        <v>128088</v>
       </c>
       <c r="H6" s="2">
-        <v>-1956.796</v>
+        <v>-8289.458</v>
       </c>
       <c r="I6" s="2">
-        <v>2159.25</v>
-      </c>
-    </row>
-    <row r="7" ht="24.75" spans="1:9">
+        <v>503.37</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="2">
-        <v>4685</v>
+        <v>3011</v>
       </c>
       <c r="C7" s="2">
-        <v>511770</v>
+        <v>171845</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>468617.25</v>
+        <v>162763</v>
       </c>
       <c r="F7" s="2">
-        <v>-12020.25</v>
+        <v>-10019</v>
       </c>
       <c r="G7" s="2">
-        <v>456597</v>
+        <v>152744</v>
       </c>
       <c r="H7" s="2">
-        <v>-13842.286</v>
+        <v>-10659.84</v>
       </c>
       <c r="I7" s="2">
-        <v>1813.49</v>
-      </c>
-    </row>
-    <row r="8" ht="24.75" spans="1:9">
+        <v>606.4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B8" s="2">
-        <v>4348</v>
+        <v>3361</v>
       </c>
       <c r="C8" s="2">
-        <v>594408</v>
+        <v>274494</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>508942.05</v>
+        <v>238486.85</v>
       </c>
       <c r="F8" s="2">
-        <v>48908.95</v>
+        <v>17127.15</v>
       </c>
       <c r="G8" s="2">
-        <v>557851</v>
+        <v>255614</v>
       </c>
       <c r="H8" s="2">
-        <v>46667.38</v>
+        <v>16385.424</v>
       </c>
       <c r="I8" s="2">
-        <v>2233.24</v>
-      </c>
-    </row>
-    <row r="9" ht="24" spans="1:9">
+        <v>692.8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B9" s="2">
-        <v>22089</v>
+        <v>2893</v>
       </c>
       <c r="C9" s="2">
-        <v>1784878</v>
+        <v>217861</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>1634520.65</v>
+        <v>197134.75</v>
       </c>
       <c r="F9" s="2">
-        <v>-5267.65</v>
+        <v>1808.25</v>
       </c>
       <c r="G9" s="2">
-        <v>1629253</v>
+        <v>198943</v>
       </c>
       <c r="H9" s="2">
-        <v>-11728.072</v>
+        <v>1023.806</v>
       </c>
       <c r="I9" s="2">
-        <v>6264.21</v>
-      </c>
-    </row>
-    <row r="10" ht="24.75" spans="1:9">
+        <v>752.86</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="2">
-        <v>5042</v>
+        <v>3634</v>
       </c>
       <c r="C10" s="2">
-        <v>452209</v>
+        <v>209728</v>
       </c>
       <c r="D10" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>401536.3</v>
+        <v>179368.35</v>
       </c>
       <c r="F10" s="2">
-        <v>17462.7</v>
+        <v>7432.65</v>
       </c>
       <c r="G10" s="2">
-        <v>418999</v>
+        <v>186801</v>
       </c>
       <c r="H10" s="2">
-        <v>15807.652</v>
+        <v>6757.658</v>
       </c>
       <c r="I10" s="2">
-        <v>1647.31</v>
-      </c>
-    </row>
-    <row r="11" ht="24.75" spans="1:9">
+        <v>661.19</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="2">
-        <v>6917</v>
+        <v>2229</v>
       </c>
       <c r="C11" s="2">
-        <v>510863</v>
+        <v>138482</v>
       </c>
       <c r="D11" s="2">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>427915.85</v>
+        <v>115102.15</v>
       </c>
       <c r="F11" s="2">
-        <v>41673.15</v>
+        <v>9294.85</v>
       </c>
       <c r="G11" s="2">
-        <v>469589</v>
+        <v>124397</v>
       </c>
       <c r="H11" s="2">
-        <v>39815.032</v>
+        <v>8811.574</v>
       </c>
       <c r="I11" s="2">
-        <v>1844.64</v>
-      </c>
-    </row>
-    <row r="12" ht="24.75" spans="1:9">
+        <v>465.31</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="2">
-        <v>6400</v>
+        <v>3459</v>
       </c>
       <c r="C12" s="2">
-        <v>601924</v>
+        <v>285646</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>572901.35</v>
+        <v>259789.1</v>
       </c>
       <c r="F12" s="2">
-        <v>-13401.35</v>
+        <v>2408.9</v>
       </c>
       <c r="G12" s="2">
-        <v>559500</v>
+        <v>262198</v>
       </c>
       <c r="H12" s="2">
-        <v>-15617.852</v>
+        <v>1458.046</v>
       </c>
       <c r="I12" s="2">
-        <v>2207.25</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" spans="1:9">
+        <v>936.76</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B13" s="2">
-        <v>5347</v>
+        <v>2586</v>
       </c>
       <c r="C13" s="2">
-        <v>452521</v>
+        <v>122270</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>401056.35</v>
+        <v>102781.8</v>
       </c>
       <c r="F13" s="2">
-        <v>15588.65</v>
+        <v>11561.2</v>
       </c>
       <c r="G13" s="2">
-        <v>416645</v>
+        <v>114343</v>
       </c>
       <c r="H13" s="2">
-        <v>13927.1</v>
+        <v>11071.868</v>
       </c>
       <c r="I13" s="2">
-        <v>1646.62</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
+        <v>456.9</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="2">
-        <v>19413</v>
+        <v>30737</v>
       </c>
       <c r="C14" s="2">
-        <v>680977</v>
+        <v>875787</v>
       </c>
       <c r="D14" s="2">
-        <v>1193</v>
+        <v>1062</v>
       </c>
       <c r="E14" s="2">
-        <v>620422.29</v>
+        <v>820857.36</v>
       </c>
       <c r="F14" s="2">
-        <v>60554.71</v>
+        <v>54889.64</v>
       </c>
       <c r="G14" s="2">
-        <v>680977</v>
+        <v>875747</v>
       </c>
       <c r="H14" s="2">
-        <v>57786.672</v>
+        <v>52970.468</v>
       </c>
       <c r="I14" s="2">
-        <v>2745.26</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:9">
+        <v>1892.35</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="2">
-        <v>5181</v>
+        <v>2651</v>
       </c>
       <c r="C15" s="2">
-        <v>1129413</v>
+        <v>107814</v>
       </c>
       <c r="D15" s="2">
-        <v>14406</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2">
-        <v>239070.76</v>
+        <v>92879.82</v>
       </c>
       <c r="F15" s="2">
-        <v>890342.24</v>
+        <v>14934.18</v>
       </c>
       <c r="G15" s="2">
-        <v>1129413</v>
+        <v>107814</v>
       </c>
       <c r="H15" s="2">
-        <v>889183.957</v>
+        <v>14350.101</v>
       </c>
       <c r="I15" s="2">
-        <v>1156.1</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:9">
+        <v>584.08</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="2">
-        <v>2782</v>
+        <v>4852</v>
       </c>
       <c r="C16" s="2">
-        <v>121601</v>
+        <v>67175</v>
       </c>
       <c r="D16" s="2">
-        <v>2914</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2">
-        <v>105960.58</v>
+        <v>75716.88</v>
       </c>
       <c r="F16" s="2">
-        <v>15412.42</v>
+        <v>-8541.88</v>
       </c>
       <c r="G16" s="2">
-        <v>121373</v>
+        <v>67175</v>
       </c>
       <c r="H16" s="2">
-        <v>15284.451</v>
+        <v>-8641.082</v>
       </c>
       <c r="I16" s="2">
-        <v>127.97</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:9">
+        <v>99.19</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -9540,472 +9600,4959 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:9">
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="2">
-        <v>36543</v>
+        <v>17479</v>
       </c>
       <c r="C18" s="2">
-        <v>1352339</v>
+        <v>1108817</v>
       </c>
       <c r="D18" s="2">
-        <v>12779</v>
+        <v>963</v>
       </c>
       <c r="E18" s="2">
-        <v>1301147.56</v>
+        <v>1087441.02</v>
       </c>
       <c r="F18" s="2">
-        <v>51191.44</v>
+        <v>21375.98</v>
       </c>
       <c r="G18" s="2">
-        <v>1352339</v>
+        <v>1108817</v>
       </c>
       <c r="H18" s="2">
-        <v>42877.1938</v>
+        <v>19829.23</v>
       </c>
       <c r="I18" s="2">
-        <v>8223.53</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:9">
+        <v>1545.54</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="2">
-        <v>30204</v>
+        <v>26055</v>
       </c>
       <c r="C19" s="2">
-        <v>1870333</v>
+        <v>236894</v>
       </c>
       <c r="D19" s="2">
-        <v>27034</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>1862777.73</v>
+        <v>227116.87</v>
       </c>
       <c r="F19" s="2">
-        <v>-15944.73</v>
+        <v>9777.13</v>
       </c>
       <c r="G19" s="2">
-        <v>1846833</v>
+        <v>236894</v>
       </c>
       <c r="H19" s="2">
-        <v>-20500.6227</v>
+        <v>9309.786</v>
       </c>
       <c r="I19" s="2">
-        <v>4523.62</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:9">
+        <v>459.41</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="2">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>90</v>
+      </c>
+      <c r="G20" s="2">
+        <v>90</v>
+      </c>
+      <c r="H20" s="2">
+        <v>90</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2">
+        <v>13716</v>
+      </c>
+      <c r="C21" s="2">
+        <v>188639</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4119</v>
+      </c>
+      <c r="E21" s="2">
+        <v>190846.58</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-2207.58</v>
+      </c>
+      <c r="G21" s="2">
+        <v>188639</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-2539.247</v>
+      </c>
+      <c r="I21" s="2">
+        <v>331.02</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="2">
+        <v>28128</v>
+      </c>
+      <c r="C22" s="2">
+        <v>623571</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8626</v>
+      </c>
+      <c r="E22" s="2">
+        <v>546083.71</v>
+      </c>
+      <c r="F22" s="2">
+        <v>77487.29</v>
+      </c>
+      <c r="G22" s="2">
+        <v>623571</v>
+      </c>
+      <c r="H22" s="2">
+        <v>77483.29</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2">
+        <v>141</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5958</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6052.76</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-94.76</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5958</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-106.676</v>
+      </c>
+      <c r="I23" s="2">
+        <v>11.92</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6767</v>
+      </c>
+      <c r="C24" s="2">
+        <v>59517</v>
+      </c>
+      <c r="D24" s="2">
+        <v>376</v>
+      </c>
+      <c r="E24" s="2">
+        <v>55222.01</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4294.99</v>
+      </c>
+      <c r="G24" s="2">
+        <v>59517</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4294.99</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="2">
+        <v>18894</v>
+      </c>
+      <c r="C25" s="2">
+        <v>119975</v>
+      </c>
+      <c r="D25" s="2">
+        <v>183</v>
+      </c>
+      <c r="E25" s="2">
+        <v>124596.1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-4621.1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>119975</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-4940.349</v>
+      </c>
+      <c r="I25" s="2">
+        <v>319.25</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="2">
+        <v>119063</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2553837</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4321</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2535625.91</v>
+      </c>
+      <c r="F26" s="2">
+        <v>18103.09</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2553729</v>
+      </c>
+      <c r="H26" s="2">
+        <v>12050.429</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5833.05</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3536</v>
+      </c>
+      <c r="C27" s="2">
+        <v>92264</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4442</v>
+      </c>
+      <c r="E27" s="2">
+        <v>88842.6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2641.4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>91484</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2641.4</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="2">
+        <v>78048</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1610538</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1017</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1589460.37</v>
+      </c>
+      <c r="F28" s="2">
+        <v>20541.63</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1610002</v>
+      </c>
+      <c r="H28" s="2">
+        <v>20541.63</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2">
+        <v>194</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9931</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7532.76</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2398.24</v>
+      </c>
+      <c r="G29" s="2">
+        <v>9931</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2378.378</v>
+      </c>
+      <c r="I29" s="2">
+        <v>19.86</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3469</v>
+      </c>
+      <c r="C30" s="2">
+        <v>287293</v>
+      </c>
+      <c r="D30" s="2">
+        <v>35660</v>
+      </c>
+      <c r="E30" s="2">
+        <v>434628.88</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-147335.88</v>
+      </c>
+      <c r="G30" s="2">
+        <v>287293</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-147335.88</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="2">
+        <v>34838</v>
+      </c>
+      <c r="C31" s="2">
+        <v>466845</v>
+      </c>
+      <c r="D31" s="2">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2">
+        <v>439484.08</v>
+      </c>
+      <c r="F31" s="2">
+        <v>27360.92</v>
+      </c>
+      <c r="G31" s="2">
+        <v>466845</v>
+      </c>
+      <c r="H31" s="2">
+        <v>26469.293</v>
+      </c>
+      <c r="I31" s="2">
+        <v>891.63</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="3">
+        <v>14278</v>
+      </c>
+      <c r="C32" s="3">
+        <v>231704</v>
+      </c>
+      <c r="D32" s="3">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3">
+        <v>213632.71</v>
+      </c>
+      <c r="F32" s="3">
+        <v>18071.29</v>
+      </c>
+      <c r="G32" s="3">
+        <v>231704</v>
+      </c>
+      <c r="H32" s="3">
+        <v>18071.29</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="2">
+        <v>139543</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2723851</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7121</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2692195.11</v>
+      </c>
+      <c r="F33" s="2">
+        <v>31655.89</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2723851</v>
+      </c>
+      <c r="H33" s="2">
+        <v>24748.297</v>
+      </c>
+      <c r="I33" s="2">
+        <v>6735.12</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1528</v>
+      </c>
+      <c r="C2" s="2">
+        <v>103087</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>94513.75</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2258.25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>96772</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1870.32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>387.93</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1183</v>
+      </c>
+      <c r="C3" s="2">
+        <v>60488</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>54160.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>606.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>54767</v>
+      </c>
+      <c r="H3" s="2">
+        <v>393.58</v>
+      </c>
+      <c r="I3" s="2">
+        <v>212.92</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1765</v>
+      </c>
+      <c r="C5" s="2">
+        <v>115146</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>103904.65</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1111.65</v>
+      </c>
+      <c r="G5" s="2">
+        <v>102793</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-1522.714</v>
+      </c>
+      <c r="I5" s="2">
+        <v>411.06</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2">
+        <v>750</v>
+      </c>
+      <c r="C6" s="2">
+        <v>62157</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>51986.05</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6773.95</v>
+      </c>
+      <c r="G6" s="2">
+        <v>58760</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6538.91</v>
+      </c>
+      <c r="I6" s="2">
+        <v>235.04</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1464</v>
+      </c>
+      <c r="C7" s="2">
+        <v>104946</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>101201.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-6016.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>95185</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-6397.3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>380.8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1278</v>
+      </c>
+      <c r="C8" s="2">
+        <v>107918</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>108488</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-9202</v>
+      </c>
+      <c r="G8" s="2">
+        <v>99286</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-9594.9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>392.9</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11380</v>
+      </c>
+      <c r="C9" s="2">
+        <v>671395</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>573658.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>34106.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>607765</v>
+      </c>
+      <c r="H9" s="2">
+        <v>31697.52</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2408.98</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2192</v>
+      </c>
+      <c r="C10" s="2">
+        <v>166724</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>148736.8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2769.2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>151506</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2134.346</v>
+      </c>
+      <c r="I10" s="2">
+        <v>634.85</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1295</v>
+      </c>
+      <c r="C11" s="2">
+        <v>106480</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>113746.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-13398.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100348</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-13801.776</v>
+      </c>
+      <c r="I11" s="2">
+        <v>403.28</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3025</v>
+      </c>
+      <c r="C12" s="2">
+        <v>249871</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>219531.2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11244.8</v>
+      </c>
+      <c r="G12" s="2">
+        <v>230776</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10322.46</v>
+      </c>
+      <c r="I12" s="2">
+        <v>922.34</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2248</v>
+      </c>
+      <c r="C13" s="2">
+        <v>143576</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>129629.9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2325.1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>131955</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1798.304</v>
+      </c>
+      <c r="I13" s="2">
+        <v>526.8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="2">
+        <v>17518</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1198881</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11288</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1201989.99</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-3588.99</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1198401</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-18631.024</v>
+      </c>
+      <c r="I14" s="2">
+        <v>15040.34</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="2">
+        <v>678</v>
+      </c>
+      <c r="C15" s="2">
+        <v>38886</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>36087.1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2798.9</v>
+      </c>
+      <c r="G15" s="2">
+        <v>38886</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2566.768</v>
+      </c>
+      <c r="I15" s="2">
+        <v>232.03</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4535</v>
+      </c>
+      <c r="C16" s="2">
+        <v>215921</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8289</v>
+      </c>
+      <c r="E16" s="2">
+        <v>216380.8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-459.8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>215921</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-461.347</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5452</v>
+      </c>
+      <c r="C18" s="2">
+        <v>516652</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12836</v>
+      </c>
+      <c r="E18" s="2">
+        <v>489248.18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>27403.82</v>
+      </c>
+      <c r="G18" s="2">
+        <v>516652</v>
+      </c>
+      <c r="H18" s="2">
+        <v>19458.9202</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7718.95</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6382</v>
+      </c>
+      <c r="C19" s="2">
+        <v>39473</v>
+      </c>
+      <c r="D19" s="2">
+        <v>184</v>
+      </c>
+      <c r="E19" s="2">
+        <v>34097.62</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5375.38</v>
+      </c>
+      <c r="G19" s="2">
+        <v>39473</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4950.0858</v>
+      </c>
+      <c r="I19" s="2">
+        <v>386.62</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
       <c r="C20" s="2">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>97.6</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>164.4</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>161.4</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2">
+        <v>569</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5168</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2571.6</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2596.4</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5168</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2529.41</v>
+      </c>
+      <c r="I21" s="2">
+        <v>66.53</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9603</v>
+      </c>
+      <c r="C22" s="2">
+        <v>211917</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1942</v>
+      </c>
+      <c r="E22" s="2">
+        <v>177314.86</v>
+      </c>
+      <c r="F22" s="2">
+        <v>33647.14</v>
+      </c>
+      <c r="G22" s="2">
+        <v>210962</v>
+      </c>
+      <c r="H22" s="2">
+        <v>33455.14</v>
+      </c>
+      <c r="I22" s="2">
+        <v>192</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2">
+        <v>378</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1694</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>909.86</v>
+      </c>
+      <c r="F23" s="2">
+        <v>784.14</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1694</v>
+      </c>
+      <c r="H23" s="2">
+        <v>767.2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>16.94</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4864</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44101</v>
+      </c>
+      <c r="D24" s="2">
+        <v>466</v>
+      </c>
+      <c r="E24" s="2">
+        <v>46654.4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-2553.4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>44101</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-2553.4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="2">
+        <v>11683</v>
+      </c>
+      <c r="C25" s="2">
+        <v>95126</v>
+      </c>
+      <c r="D25" s="2">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2">
+        <v>93586.62</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1539.38</v>
+      </c>
+      <c r="G25" s="2">
+        <v>95126</v>
+      </c>
+      <c r="H25" s="2">
+        <v>841.385</v>
+      </c>
+      <c r="I25" s="2">
+        <v>698</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="2">
+        <v>86478</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3888163</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44193</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3846097.4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>41999.6</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3888097</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-26551.1249</v>
+      </c>
+      <c r="I26" s="2">
+        <v>62708.91</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="2">
+        <v>735</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8552</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>12643.08</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-4091.08</v>
+      </c>
+      <c r="G27" s="2">
+        <v>8552</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-4091.08</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="2">
+        <v>56239</v>
+      </c>
+      <c r="C28" s="2">
+        <v>346424</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5679</v>
+      </c>
+      <c r="E28" s="2">
+        <v>335473.38</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10918.62</v>
+      </c>
+      <c r="G28" s="2">
+        <v>346392</v>
+      </c>
+      <c r="H28" s="2">
+        <v>10918.62</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2">
+        <v>706</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2625</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2289.52</v>
+      </c>
+      <c r="F29" s="2">
+        <v>335.48</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2625</v>
+      </c>
+      <c r="H29" s="2">
+        <v>309.23</v>
+      </c>
+      <c r="I29" s="2">
+        <v>26.25</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2">
+        <v>8</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="2">
+        <v>52564</v>
+      </c>
+      <c r="C31" s="2">
+        <v>331341</v>
+      </c>
+      <c r="D31" s="2">
+        <v>676</v>
+      </c>
+      <c r="E31" s="2">
+        <v>307331.63</v>
+      </c>
+      <c r="F31" s="2">
+        <v>24009.37</v>
+      </c>
+      <c r="G31" s="2">
+        <v>331341</v>
+      </c>
+      <c r="H31" s="2">
+        <v>22468.8482</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1477.46</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="2">
+        <v>51163</v>
+      </c>
+      <c r="C32" s="2">
+        <v>506777</v>
+      </c>
+      <c r="D32" s="2">
+        <v>15366</v>
+      </c>
+      <c r="E32" s="2">
+        <v>495699.1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>11077.9</v>
+      </c>
+      <c r="G32" s="2">
+        <v>506777</v>
+      </c>
+      <c r="H32" s="2">
+        <v>11077.9</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7066</v>
+      </c>
+      <c r="C33" s="2">
+        <v>260145</v>
+      </c>
+      <c r="D33" s="2">
+        <v>570</v>
+      </c>
+      <c r="E33" s="2">
+        <v>231698.47</v>
+      </c>
+      <c r="F33" s="2">
+        <v>28446.53</v>
+      </c>
+      <c r="G33" s="2">
+        <v>260145</v>
+      </c>
+      <c r="H33" s="2">
+        <v>22375.805</v>
+      </c>
+      <c r="I33" s="2">
+        <v>5674.66</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2">
+        <v>947</v>
+      </c>
+      <c r="C2" s="2">
+        <v>504670</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>449885.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12169.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>462055</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10322.96</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1846.54</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1296</v>
+      </c>
+      <c r="C3" s="2">
+        <v>213544</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>221492</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-21756</v>
+      </c>
+      <c r="G3" s="2">
+        <v>199736</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-22550.544</v>
+      </c>
+      <c r="I3" s="2">
+        <v>794.54</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2181</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2008127</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1813730.45</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-8683.45</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1805047</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-15891.498</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7208.05</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1770</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1469779</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1328029</v>
+      </c>
+      <c r="F6" s="2">
+        <v>34935</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1362964</v>
+      </c>
+      <c r="H6" s="2">
+        <v>29506.424</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5428.58</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2153</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2131072</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1934356.75</v>
+      </c>
+      <c r="F7" s="2">
+        <v>28505.25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1962862</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20665.082</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7840.17</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1970</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1882152</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1551994.15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>117172.85</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1669167</v>
+      </c>
+      <c r="H8" s="2">
+        <v>110501.422</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6671.43</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3127</v>
+      </c>
+      <c r="C9" s="2">
+        <v>550672</v>
+      </c>
+      <c r="D9" s="2">
+        <v>840</v>
+      </c>
+      <c r="E9" s="2">
+        <v>556705.65</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-44251.65</v>
+      </c>
+      <c r="G9" s="2">
+        <v>512454</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-46299.466</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2047.82</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1582</v>
+      </c>
+      <c r="C10" s="2">
+        <v>543002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>529143.8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-43498.8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>485645</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-45436.18</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1937.38</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3234</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4034060</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3683839.7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>760.3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3684600</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-13910.86</v>
+      </c>
+      <c r="I11" s="2">
+        <v>14671.16</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1567</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1339653</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1195477.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-5122.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1190355</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-9871.96</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4749.46</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2594</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2302500</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2222393.9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-86367.9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2136026</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-94848.244</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8480.34</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6039</v>
+      </c>
+      <c r="C14" s="2">
+        <v>145486</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E14" s="2">
+        <v>154010.79</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-8524.79</v>
+      </c>
+      <c r="G14" s="2">
+        <v>145486</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-8806.674</v>
+      </c>
+      <c r="I14" s="2">
+        <v>281.88</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1601</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16320</v>
+      </c>
+      <c r="D15" s="2">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2">
+        <v>17251.72</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-931.72</v>
+      </c>
+      <c r="G15" s="2">
+        <v>16320</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-960.228</v>
+      </c>
+      <c r="I15" s="2">
+        <v>28.51</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C16" s="2">
+        <v>39823</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2205</v>
+      </c>
+      <c r="E16" s="2">
+        <v>33859.95</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5963.05</v>
+      </c>
+      <c r="G16" s="2">
+        <v>39823</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5923.227</v>
+      </c>
+      <c r="I16" s="2">
+        <v>39.82</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3291</v>
+      </c>
+      <c r="C18" s="2">
+        <v>52504</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1084</v>
+      </c>
+      <c r="E18" s="2">
+        <v>51770.35</v>
+      </c>
+      <c r="F18" s="2">
+        <v>733.65</v>
+      </c>
+      <c r="G18" s="2">
+        <v>52504</v>
+      </c>
+      <c r="H18" s="2">
+        <v>628.642</v>
+      </c>
+      <c r="I18" s="2">
+        <v>105.01</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="2">
+        <v>9002</v>
+      </c>
+      <c r="C19" s="2">
+        <v>162458</v>
+      </c>
+      <c r="D19" s="2">
+        <v>507</v>
+      </c>
+      <c r="E19" s="2">
+        <v>155578.37</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6879.63</v>
+      </c>
+      <c r="G19" s="2">
+        <v>162458</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6561.678</v>
+      </c>
+      <c r="I19" s="2">
+        <v>317.95</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2877</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42242</v>
+      </c>
+      <c r="D21" s="2">
+        <v>513</v>
+      </c>
+      <c r="E21" s="2">
+        <v>36731.33</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5510.67</v>
+      </c>
+      <c r="G21" s="2">
+        <v>42242</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5426.6</v>
+      </c>
+      <c r="I21" s="2">
+        <v>84.07</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7775</v>
+      </c>
+      <c r="C22" s="2">
+        <v>426410</v>
+      </c>
+      <c r="D22" s="2">
+        <v>547</v>
+      </c>
+      <c r="E22" s="2">
+        <v>314204.36</v>
+      </c>
+      <c r="F22" s="2">
+        <v>112115.64</v>
+      </c>
+      <c r="G22" s="2">
+        <v>426320</v>
+      </c>
+      <c r="H22" s="2">
+        <v>112103.14</v>
+      </c>
+      <c r="I22" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2">
+        <v>543</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3296</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1474.29</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1821.71</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3296</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1821.71</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="2">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8203</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7976.3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>226.7</v>
+      </c>
+      <c r="G24" s="2">
+        <v>8203</v>
+      </c>
+      <c r="H24" s="2">
+        <v>226.7</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="2">
+        <v>11136</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2493293</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2491109.57</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2183.43</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2493293</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-2501.498</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4684.93</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="2">
+        <v>28736</v>
+      </c>
+      <c r="C26" s="2">
+        <v>439582</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5314</v>
+      </c>
+      <c r="E26" s="2">
+        <v>419905.05</v>
+      </c>
+      <c r="F26" s="2">
+        <v>19676.95</v>
+      </c>
+      <c r="G26" s="2">
+        <v>439582</v>
+      </c>
+      <c r="H26" s="2">
+        <v>18867.538</v>
+      </c>
+      <c r="I26" s="2">
+        <v>809.41</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1363</v>
+      </c>
+      <c r="C27" s="2">
+        <v>71160</v>
+      </c>
+      <c r="D27" s="2">
+        <v>240</v>
+      </c>
+      <c r="E27" s="2">
+        <v>41362.6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>29797.4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>71160</v>
+      </c>
+      <c r="H27" s="2">
+        <v>29796.1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4014</v>
+      </c>
+      <c r="C28" s="2">
+        <v>76157</v>
+      </c>
+      <c r="D28" s="2">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2">
+        <v>107870.6</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-31713.6</v>
+      </c>
+      <c r="G28" s="2">
+        <v>76157</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-31713.6</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1472</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12359</v>
+      </c>
+      <c r="D29" s="2">
+        <v>434</v>
+      </c>
+      <c r="E29" s="2">
+        <v>14018.31</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-1659.31</v>
+      </c>
+      <c r="G29" s="2">
+        <v>12359</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-1659.31</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="2">
+        <v>250</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2777</v>
+      </c>
+      <c r="D30" s="2">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1488.3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1288.7</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2777</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1288.7</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="2">
+        <v>49092</v>
+      </c>
+      <c r="C31" s="2">
+        <v>993456</v>
+      </c>
+      <c r="D31" s="2">
+        <v>6882</v>
+      </c>
+      <c r="E31" s="2">
+        <v>899217.01</v>
+      </c>
+      <c r="F31" s="2">
+        <v>94238.99</v>
+      </c>
+      <c r="G31" s="2">
+        <v>993456</v>
+      </c>
+      <c r="H31" s="2">
+        <v>94238.99</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="2">
+        <v>331</v>
+      </c>
+      <c r="C32" s="2">
+        <v>12462</v>
+      </c>
+      <c r="D32" s="2">
+        <v>160</v>
+      </c>
+      <c r="E32" s="2">
+        <v>11452.8</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1009.2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>12462</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1009.2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5764</v>
+      </c>
+      <c r="C33" s="2">
+        <v>109420</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1365</v>
+      </c>
+      <c r="E33" s="2">
+        <v>103358.47</v>
+      </c>
+      <c r="F33" s="2">
+        <v>6061.53</v>
+      </c>
+      <c r="G33" s="2">
+        <v>109420</v>
+      </c>
+      <c r="H33" s="2">
+        <v>5849.822</v>
+      </c>
+      <c r="I33" s="2">
+        <v>211.71</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5423</v>
+      </c>
+      <c r="C2" s="2">
+        <v>732586</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>604783.35</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45573.65</v>
+      </c>
+      <c r="G2" s="2">
+        <v>650357</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45136.034</v>
+      </c>
+      <c r="I2" s="2">
+        <v>431.58</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2">
+        <v>862</v>
+      </c>
+      <c r="C3" s="2">
+        <v>53772</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>48740</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1982</v>
+      </c>
+      <c r="G3" s="2">
+        <v>50722</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1779.528</v>
+      </c>
+      <c r="I3" s="2">
+        <v>202.47</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3661</v>
+      </c>
+      <c r="C5" s="2">
+        <v>698771</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>617365.15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15825.85</v>
+      </c>
+      <c r="G5" s="2">
+        <v>633191</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15467.322</v>
+      </c>
+      <c r="I5" s="2">
+        <v>330.62</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3715</v>
+      </c>
+      <c r="C6" s="2">
+        <v>110633</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>96876</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4804</v>
+      </c>
+      <c r="G6" s="2">
+        <v>101680</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4530.492</v>
+      </c>
+      <c r="I6" s="2">
+        <v>259.72</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2888</v>
+      </c>
+      <c r="C7" s="2">
+        <v>98538</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>83495.6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4621.4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>88117</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4337.816</v>
+      </c>
+      <c r="I7" s="2">
+        <v>279.44</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3380</v>
+      </c>
+      <c r="C8" s="2">
+        <v>997178</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>831373.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>53983.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>885357</v>
+      </c>
+      <c r="H8" s="2">
+        <v>53721.76</v>
+      </c>
+      <c r="I8" s="2">
+        <v>254.76</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2281</v>
+      </c>
+      <c r="C9" s="2">
+        <v>446435</v>
+      </c>
+      <c r="D9" s="2">
+        <v>530</v>
+      </c>
+      <c r="E9" s="2">
+        <v>390849.8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>18919.2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>409769</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18308.86</v>
+      </c>
+      <c r="I9" s="2">
+        <v>607.51</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3437</v>
+      </c>
+      <c r="C10" s="2">
+        <v>816848</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>740630.15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-737.15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>739893</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-1046.386</v>
+      </c>
+      <c r="I10" s="2">
+        <v>301.72</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3307</v>
+      </c>
+      <c r="C11" s="2">
+        <v>722999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>643519.35</v>
+      </c>
+      <c r="F11" s="2">
+        <v>27171.65</v>
+      </c>
+      <c r="G11" s="2">
+        <v>670691</v>
+      </c>
+      <c r="H11" s="2">
+        <v>26856.178</v>
+      </c>
+      <c r="I11" s="2">
+        <v>311.17</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3233</v>
+      </c>
+      <c r="C12" s="2">
+        <v>713230</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>585464.3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>67943.7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>653408</v>
+      </c>
+      <c r="H12" s="2">
+        <v>67629.164</v>
+      </c>
+      <c r="I12" s="2">
+        <v>310.25</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2243</v>
+      </c>
+      <c r="C13" s="2">
+        <v>80849</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>77448.85</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-1033.85</v>
+      </c>
+      <c r="G13" s="2">
+        <v>76415</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-1315.35</v>
+      </c>
+      <c r="I13" s="2">
+        <v>270.48</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="2">
+        <v>27928</v>
+      </c>
+      <c r="C14" s="2">
+        <v>784520</v>
+      </c>
+      <c r="D14" s="2">
+        <v>289</v>
+      </c>
+      <c r="E14" s="2">
+        <v>759188.12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>25131.88</v>
+      </c>
+      <c r="G14" s="2">
+        <v>784320</v>
+      </c>
+      <c r="H14" s="2">
+        <v>22958.968</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2172.91</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7095</v>
+      </c>
+      <c r="C15" s="2">
+        <v>179210</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2">
+        <v>197594.56</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-18384.56</v>
+      </c>
+      <c r="G15" s="2">
+        <v>179210</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-19132.55</v>
+      </c>
+      <c r="I15" s="2">
+        <v>747.99</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2">
+        <v>488</v>
+      </c>
+      <c r="C16" s="2">
+        <v>36897</v>
+      </c>
+      <c r="D16" s="2">
+        <v>300</v>
+      </c>
+      <c r="E16" s="2">
+        <v>29069.75</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7827.25</v>
+      </c>
+      <c r="G16" s="2">
+        <v>36897</v>
+      </c>
+      <c r="H16" s="2">
+        <v>7762.44</v>
+      </c>
+      <c r="I16" s="2">
+        <v>64.8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="2">
+        <v>16852</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1339144</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6685</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1288093.22</v>
+      </c>
+      <c r="F18" s="2">
+        <v>51050.78</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1339144</v>
+      </c>
+      <c r="H18" s="2">
+        <v>48587.551</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2463.23</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="2">
+        <v>24667</v>
+      </c>
+      <c r="C19" s="2">
+        <v>543591</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>515218.76</v>
+      </c>
+      <c r="F19" s="2">
+        <v>28372.24</v>
+      </c>
+      <c r="G19" s="2">
+        <v>543591</v>
+      </c>
+      <c r="H19" s="2">
+        <v>26313.776</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2058.45</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="2">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>525</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>525</v>
+      </c>
+      <c r="G20" s="2">
+        <v>525</v>
+      </c>
+      <c r="H20" s="2">
+        <v>522</v>
       </c>
       <c r="I20" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:9">
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="2">
-        <v>20533</v>
+        <v>17135</v>
       </c>
       <c r="C21" s="2">
-        <v>360588</v>
+        <v>202005</v>
       </c>
       <c r="D21" s="2">
-        <v>3934</v>
+        <v>4459</v>
       </c>
       <c r="E21" s="2">
-        <v>348875.18</v>
+        <v>200629.51</v>
       </c>
       <c r="F21" s="2">
-        <v>11712.82</v>
+        <v>1375.49</v>
       </c>
       <c r="G21" s="2">
-        <v>360588</v>
+        <v>202005</v>
       </c>
       <c r="H21" s="2">
-        <v>10575.5429</v>
+        <v>898.702</v>
       </c>
       <c r="I21" s="2">
-        <v>1131.74</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:9">
+        <v>475.05</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="2">
-        <v>41280</v>
+        <v>26518</v>
       </c>
       <c r="C22" s="2">
-        <v>1117494</v>
+        <v>488420</v>
       </c>
       <c r="D22" s="2">
-        <v>18327</v>
+        <v>11452</v>
       </c>
       <c r="E22" s="2">
-        <v>819703.04</v>
+        <v>547901.76</v>
       </c>
       <c r="F22" s="2">
-        <v>296964.96</v>
+        <v>-61311.76</v>
       </c>
       <c r="G22" s="2">
-        <v>1116668</v>
+        <v>486590</v>
       </c>
       <c r="H22" s="2">
-        <v>296871.88</v>
+        <v>-61311.76</v>
       </c>
       <c r="I22" s="2">
-        <v>93.08</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="2">
-        <v>1211</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2">
-        <v>11172</v>
+        <v>11968</v>
       </c>
       <c r="D23" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>10731.09</v>
+        <v>10151.86</v>
       </c>
       <c r="F23" s="2">
-        <v>437.91</v>
+        <v>1816.14</v>
       </c>
       <c r="G23" s="2">
-        <v>11169</v>
+        <v>11968</v>
       </c>
       <c r="H23" s="2">
-        <v>421.232</v>
+        <v>1792.104</v>
       </c>
       <c r="I23" s="2">
-        <v>16.68</v>
-      </c>
-    </row>
-    <row r="24" ht="24" spans="1:9">
+        <v>24.04</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="2">
-        <v>58640</v>
+        <v>12548</v>
       </c>
       <c r="C24" s="2">
-        <v>362195</v>
+        <v>106295</v>
       </c>
       <c r="D24" s="2">
-        <v>2962</v>
+        <v>550</v>
       </c>
       <c r="E24" s="2">
-        <v>340391.75</v>
+        <v>96684.07</v>
       </c>
       <c r="F24" s="2">
-        <v>21699.25</v>
+        <v>9610.93</v>
       </c>
       <c r="G24" s="2">
-        <v>362091</v>
+        <v>106295</v>
       </c>
       <c r="H24" s="2">
-        <v>21699</v>
+        <v>9609.43</v>
       </c>
       <c r="I24" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" ht="24" spans="1:9">
+        <v>1.5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="2">
-        <v>24676</v>
+        <v>23933</v>
       </c>
       <c r="C25" s="2">
-        <v>941250</v>
+        <v>496151</v>
       </c>
       <c r="D25" s="2">
-        <v>3448</v>
+        <v>482</v>
       </c>
       <c r="E25" s="2">
-        <v>943129.74</v>
+        <v>447068.88</v>
       </c>
       <c r="F25" s="2">
-        <v>-1879.74</v>
+        <v>49082.12</v>
       </c>
       <c r="G25" s="2">
-        <v>941250</v>
+        <v>496151</v>
       </c>
       <c r="H25" s="2">
-        <v>-3547.491</v>
+        <v>47132.558</v>
       </c>
       <c r="I25" s="2">
-        <v>1667.75</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:9">
+        <v>1949.55</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="2">
-        <v>303869</v>
+        <v>125393</v>
       </c>
       <c r="C26" s="2">
-        <v>10682054</v>
+        <v>2452140</v>
       </c>
       <c r="D26" s="2">
-        <v>75520</v>
+        <v>4846</v>
       </c>
       <c r="E26" s="2">
-        <v>10563811.85</v>
+        <v>2389941.18</v>
       </c>
       <c r="F26" s="2">
-        <v>109291.15</v>
+        <v>62198.82</v>
       </c>
       <c r="G26" s="2">
-        <v>10673103</v>
+        <v>2452140</v>
       </c>
       <c r="H26" s="2">
-        <v>30238.6477</v>
+        <v>57419.067</v>
       </c>
       <c r="I26" s="2">
-        <v>70191.64</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:9">
+        <v>4779.73</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B27" s="2">
-        <v>7339</v>
+        <v>2996</v>
       </c>
       <c r="C27" s="2">
-        <v>160608</v>
+        <v>68820</v>
       </c>
       <c r="D27" s="2">
-        <v>2151</v>
+        <v>419</v>
       </c>
       <c r="E27" s="2">
-        <v>175408.71</v>
+        <v>65552.15</v>
       </c>
       <c r="F27" s="2">
-        <v>-14800.71</v>
+        <v>3263.85</v>
       </c>
       <c r="G27" s="2">
-        <v>160608</v>
+        <v>68816</v>
       </c>
       <c r="H27" s="2">
-        <v>-14805.51</v>
+        <v>3263.85</v>
       </c>
       <c r="I27" s="2">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="28" ht="24" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="2">
-        <v>133800</v>
+        <v>88481</v>
       </c>
       <c r="C28" s="2">
-        <v>1251266</v>
+        <v>1694941</v>
       </c>
       <c r="D28" s="2">
-        <v>4420</v>
+        <v>6406</v>
       </c>
       <c r="E28" s="2">
-        <v>1231371.68</v>
+        <v>1656060.43</v>
       </c>
       <c r="F28" s="2">
-        <v>19445.32</v>
+        <v>38880.57</v>
       </c>
       <c r="G28" s="2">
-        <v>1250817</v>
+        <v>1694941</v>
       </c>
       <c r="H28" s="2">
-        <v>19444.52</v>
+        <v>38880.57</v>
       </c>
       <c r="I28" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B29" s="2">
-        <v>1876</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2">
-        <v>16989</v>
+        <v>19163</v>
       </c>
       <c r="D29" s="2">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>15570.38</v>
+        <v>20797.6</v>
       </c>
       <c r="F29" s="2">
-        <v>1418.62</v>
+        <v>-1634.6</v>
       </c>
       <c r="G29" s="2">
-        <v>16989</v>
+        <v>19163</v>
       </c>
       <c r="H29" s="2">
-        <v>1403.01</v>
+        <v>-1673.158</v>
       </c>
       <c r="I29" s="2">
-        <v>15.61</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:9">
+        <v>38.56</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B30" s="2">
-        <v>2756</v>
+        <v>2518</v>
       </c>
       <c r="C30" s="2">
-        <v>114155</v>
+        <v>113155</v>
       </c>
       <c r="D30" s="2">
-        <v>532</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2">
-        <v>121523.94</v>
+        <v>68321.04</v>
       </c>
       <c r="F30" s="2">
-        <v>-7368.94</v>
+        <v>44833.96</v>
       </c>
       <c r="G30" s="2">
-        <v>114155</v>
+        <v>113155</v>
       </c>
       <c r="H30" s="2">
-        <v>-7368.94</v>
+        <v>44833.96</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:9">
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B31" s="2">
-        <v>135210</v>
+        <v>47945</v>
       </c>
       <c r="C31" s="2">
-        <v>3085063</v>
+        <v>1108643</v>
       </c>
       <c r="D31" s="2">
-        <v>13408</v>
+        <v>166</v>
       </c>
       <c r="E31" s="2">
-        <v>3136658.27</v>
+        <v>1039234.54</v>
       </c>
       <c r="F31" s="2">
-        <v>-75914.27</v>
+        <v>69388.46</v>
       </c>
       <c r="G31" s="2">
-        <v>3060744</v>
+        <v>1108623</v>
       </c>
       <c r="H31" s="2">
-        <v>-80106.7508</v>
+        <v>67694.152</v>
       </c>
       <c r="I31" s="2">
-        <v>4108.14</v>
-      </c>
-    </row>
-    <row r="32" ht="24" spans="1:9">
+        <v>1694.31</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B32" s="2">
-        <v>61337</v>
+        <v>15038</v>
       </c>
       <c r="C32" s="2">
-        <v>531074</v>
+        <v>151020</v>
       </c>
       <c r="D32" s="2">
-        <v>4169</v>
+        <v>302</v>
       </c>
       <c r="E32" s="2">
-        <v>532295.41</v>
+        <v>126215.7</v>
       </c>
       <c r="F32" s="2">
-        <v>-1478.41</v>
+        <v>24804.3</v>
       </c>
       <c r="G32" s="2">
-        <v>530817</v>
+        <v>151020</v>
       </c>
       <c r="H32" s="2">
-        <v>-1478.41</v>
+        <v>24804.3</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:9">
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="3">
+        <v>118179</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2733945</v>
+      </c>
+      <c r="D33" s="3">
+        <v>6359</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2728803.49</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4979.51</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2733783</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-4099.74</v>
+      </c>
+      <c r="I33" s="3">
+        <v>9026.13</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1964</v>
+      </c>
+      <c r="C2" s="2">
+        <v>164785</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>143622.9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6219.1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>149842</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5620.492</v>
+      </c>
+      <c r="I2" s="2">
+        <v>598.61</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5990</v>
+      </c>
+      <c r="C3" s="2">
+        <v>441173</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>424923.3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-14439.3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>410484</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-15905.384</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1466.08</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2055</v>
+      </c>
+      <c r="C5" s="2">
+        <v>111682</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>94140.6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9479.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>103620</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9065.443</v>
+      </c>
+      <c r="I5" s="2">
+        <v>413.96</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1236</v>
+      </c>
+      <c r="C6" s="2">
+        <v>86387</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>74544.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4775.8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>79320</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4458.817</v>
+      </c>
+      <c r="I6" s="2">
+        <v>316.98</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1607</v>
+      </c>
+      <c r="C7" s="2">
+        <v>120808</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>109561.55</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1883.55</v>
+      </c>
+      <c r="G7" s="2">
+        <v>107678</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-2317.842</v>
+      </c>
+      <c r="I7" s="2">
+        <v>434.29</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1677</v>
+      </c>
+      <c r="C8" s="2">
+        <v>114714</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100755.05</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2717.95</v>
+      </c>
+      <c r="G8" s="2">
+        <v>103473</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2305.422</v>
+      </c>
+      <c r="I8" s="2">
+        <v>412.53</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5722</v>
+      </c>
+      <c r="C9" s="2">
+        <v>261411</v>
+      </c>
+      <c r="D9" s="2">
+        <v>95</v>
+      </c>
+      <c r="E9" s="2">
+        <v>246551.85</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-5856.85</v>
+      </c>
+      <c r="G9" s="2">
+        <v>240695</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-6859.062</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1002.21</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2394</v>
+      </c>
+      <c r="C10" s="2">
+        <v>281640</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>245042.55</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9939.45</v>
+      </c>
+      <c r="G10" s="2">
+        <v>254982</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8945.606</v>
+      </c>
+      <c r="I10" s="2">
+        <v>993.84</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2361</v>
+      </c>
+      <c r="C11" s="2">
+        <v>137245</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>126879.9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-1126.9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>125753</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-1640.74</v>
+      </c>
+      <c r="I11" s="2">
+        <v>513.84</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3676</v>
+      </c>
+      <c r="C12" s="2">
+        <v>478509</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>412030.3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>30770.7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>442801</v>
+      </c>
+      <c r="H12" s="2">
+        <v>28991.64</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1779.06</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2504</v>
+      </c>
+      <c r="C13" s="2">
+        <v>147539</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>134618.15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>757.85</v>
+      </c>
+      <c r="G13" s="2">
+        <v>135376</v>
+      </c>
+      <c r="H13" s="2">
+        <v>217.31</v>
+      </c>
+      <c r="I13" s="2">
+        <v>540.54</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7928</v>
+      </c>
+      <c r="C14" s="2">
+        <v>341209</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2690</v>
+      </c>
+      <c r="E14" s="2">
+        <v>335449.35</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5759.65</v>
+      </c>
+      <c r="G14" s="2">
+        <v>341209</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2172.418</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3580.87</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="2">
+        <v>638</v>
+      </c>
+      <c r="C15" s="2">
+        <v>19522</v>
+      </c>
+      <c r="D15" s="2">
+        <v>192</v>
+      </c>
+      <c r="E15" s="2">
+        <v>23829.05</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-4307.05</v>
+      </c>
+      <c r="G15" s="2">
+        <v>19522</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-4529.0605</v>
+      </c>
+      <c r="I15" s="2">
+        <v>221.91</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2">
+        <v>858</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22442</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1436</v>
+      </c>
+      <c r="E16" s="2">
+        <v>21055</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1387</v>
+      </c>
+      <c r="G16" s="2">
+        <v>22442</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1384.425</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6239</v>
+      </c>
+      <c r="C18" s="2">
+        <v>645477</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5439</v>
+      </c>
+      <c r="E18" s="2">
+        <v>516849.16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>128627.84</v>
+      </c>
+      <c r="G18" s="2">
+        <v>645477</v>
+      </c>
+      <c r="H18" s="2">
+        <v>117055.5267</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10652.11</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6371</v>
+      </c>
+      <c r="C19" s="2">
+        <v>74740</v>
+      </c>
+      <c r="D19" s="2">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2">
+        <v>68527.91</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6212.09</v>
+      </c>
+      <c r="G19" s="2">
+        <v>74740</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5628.9002</v>
+      </c>
+      <c r="I19" s="2">
+        <v>561.19</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4852</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43255</v>
+      </c>
+      <c r="D21" s="2">
+        <v>425</v>
+      </c>
+      <c r="E21" s="2">
+        <v>40740.84</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2514.16</v>
+      </c>
+      <c r="G21" s="2">
+        <v>43255</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1868.461</v>
+      </c>
+      <c r="I21" s="2">
+        <v>527.21</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10227</v>
+      </c>
+      <c r="C22" s="2">
+        <v>185992</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6730</v>
+      </c>
+      <c r="E22" s="2">
+        <v>159978.97</v>
+      </c>
+      <c r="F22" s="2">
+        <v>25900.03</v>
+      </c>
+      <c r="G22" s="2">
+        <v>185879</v>
+      </c>
+      <c r="H22" s="2">
+        <v>25894.03</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2">
+        <v>259</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1697</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1500.76</v>
+      </c>
+      <c r="F23" s="2">
+        <v>196.24</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1697</v>
+      </c>
+      <c r="H23" s="2">
+        <v>179.25</v>
+      </c>
+      <c r="I23" s="2">
+        <v>16.99</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="2">
+        <v>510</v>
+      </c>
+      <c r="C24" s="2">
+        <v>11430</v>
+      </c>
+      <c r="D24" s="2">
+        <v>400</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9042.43</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2387.57</v>
+      </c>
+      <c r="G24" s="2">
+        <v>11430</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2387.57</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="2">
+        <v>13891</v>
+      </c>
+      <c r="C25" s="2">
+        <v>163623</v>
+      </c>
+      <c r="D25" s="2">
+        <v>180</v>
+      </c>
+      <c r="E25" s="2">
+        <v>165403.06</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1780.06</v>
+      </c>
+      <c r="G25" s="2">
+        <v>163623</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-3087.907</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1307.85</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="2">
+        <v>69581</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4512233</v>
+      </c>
+      <c r="D26" s="2">
+        <v>52002</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4298230.04</v>
+      </c>
+      <c r="F26" s="2">
+        <v>214002.96</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4512233</v>
+      </c>
+      <c r="H26" s="2">
+        <v>134655.9283</v>
+      </c>
+      <c r="I26" s="2">
+        <v>68565.29</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1118</v>
+      </c>
+      <c r="C27" s="2">
+        <v>14052</v>
+      </c>
+      <c r="D27" s="2">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7610.9</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6432.1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>14043</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6432.1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="2">
+        <v>80295</v>
+      </c>
+      <c r="C28" s="2">
+        <v>472829</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10369</v>
+      </c>
+      <c r="E28" s="2">
+        <v>460911.51</v>
+      </c>
+      <c r="F28" s="2">
+        <v>11917.49</v>
+      </c>
+      <c r="G28" s="2">
+        <v>472829</v>
+      </c>
+      <c r="H28" s="2">
+        <v>11917.49</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1255</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3710</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2721.06</v>
+      </c>
+      <c r="F29" s="2">
+        <v>988.94</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3710</v>
+      </c>
+      <c r="H29" s="2">
+        <v>951.84</v>
+      </c>
+      <c r="I29" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="2">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2">
+        <v>295</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>290</v>
+      </c>
+      <c r="G30" s="2">
+        <v>290</v>
+      </c>
+      <c r="H30" s="2">
+        <v>290</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="2">
+        <v>31438</v>
+      </c>
+      <c r="C31" s="2">
+        <v>197402</v>
+      </c>
+      <c r="D31" s="2">
+        <v>360</v>
+      </c>
+      <c r="E31" s="2">
+        <v>195727.22</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1654.78</v>
+      </c>
+      <c r="G31" s="2">
+        <v>197382</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-273.8857</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1825.26</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="2">
+        <v>60459</v>
+      </c>
+      <c r="C32" s="2">
+        <v>625770</v>
+      </c>
+      <c r="D32" s="2">
+        <v>13133</v>
+      </c>
+      <c r="E32" s="2">
+        <v>616476.45</v>
+      </c>
+      <c r="F32" s="2">
+        <v>9293.55</v>
+      </c>
+      <c r="G32" s="2">
+        <v>625770</v>
+      </c>
+      <c r="H32" s="2">
+        <v>9293.55</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B33" s="2">
-        <v>154555</v>
+        <v>5660</v>
       </c>
       <c r="C33" s="2">
-        <v>6067217</v>
+        <v>554865</v>
       </c>
       <c r="D33" s="2">
-        <v>15454</v>
+        <v>1282</v>
       </c>
       <c r="E33" s="2">
-        <v>6014442.86</v>
+        <v>465968.38</v>
       </c>
       <c r="F33" s="2">
-        <v>48983.14</v>
+        <v>88896.62</v>
       </c>
       <c r="G33" s="2">
-        <v>6063426</v>
+        <v>554865</v>
       </c>
       <c r="H33" s="2">
-        <v>30744.2625</v>
+        <v>74192.2899</v>
       </c>
       <c r="I33" s="2">
-        <v>17942.41</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:9">
+        <v>13791.27</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A34" s="3" t="s">
         <v>126</v>
       </c>
@@ -10032,6 +14579,9 @@
       </c>
       <c r="I34" s="3">
         <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
